--- a/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>FINV</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,69 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>624300</v>
+        <v>834500</v>
       </c>
       <c r="E8" s="3">
-        <v>556800</v>
+        <v>609000</v>
       </c>
       <c r="F8" s="3">
-        <v>174400</v>
+        <v>543100</v>
       </c>
       <c r="G8" s="3">
-        <v>28100</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>170200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>27400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -732,26 +735,29 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>141400</v>
+        <v>169100</v>
       </c>
       <c r="E9" s="3">
-        <v>139800</v>
+        <v>137900</v>
       </c>
       <c r="F9" s="3">
-        <v>55700</v>
+        <v>136400</v>
       </c>
       <c r="G9" s="3">
-        <v>14300</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>54300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>13900</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -759,26 +765,29 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>482900</v>
+        <v>665400</v>
       </c>
       <c r="E10" s="3">
-        <v>417000</v>
+        <v>471000</v>
       </c>
       <c r="F10" s="3">
-        <v>118700</v>
+        <v>406700</v>
       </c>
       <c r="G10" s="3">
-        <v>13800</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>115800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>13500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,35 +812,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>45600</v>
+        <v>54700</v>
       </c>
       <c r="E12" s="3">
-        <v>23700</v>
+        <v>44500</v>
       </c>
       <c r="F12" s="3">
-        <v>16400</v>
+        <v>23100</v>
       </c>
       <c r="G12" s="3">
+        <v>16000</v>
+      </c>
+      <c r="H12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,26 +869,29 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>-2900</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -880,9 +899,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,25 +943,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>359300</v>
+        <v>464200</v>
       </c>
       <c r="E17" s="3">
-        <v>337400</v>
+        <v>350500</v>
       </c>
       <c r="F17" s="3">
-        <v>137500</v>
+        <v>329100</v>
       </c>
       <c r="G17" s="3">
-        <v>48900</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>134100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>47700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -944,26 +970,29 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>264900</v>
+        <v>370400</v>
       </c>
       <c r="E18" s="3">
-        <v>219400</v>
+        <v>258400</v>
       </c>
       <c r="F18" s="3">
-        <v>36900</v>
+        <v>214000</v>
       </c>
       <c r="G18" s="3">
-        <v>-20800</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>36000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-20300</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,25 +1017,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>111100</v>
+        <v>29400</v>
       </c>
       <c r="E20" s="3">
-        <v>-24600</v>
+        <v>108300</v>
       </c>
       <c r="F20" s="3">
-        <v>41900</v>
+        <v>-24000</v>
       </c>
       <c r="G20" s="3">
-        <v>11100</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>40900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>10800</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1011,26 +1044,29 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>382100</v>
+        <v>407800</v>
       </c>
       <c r="E21" s="3">
-        <v>198000</v>
+        <v>372700</v>
       </c>
       <c r="F21" s="3">
-        <v>80600</v>
+        <v>193200</v>
       </c>
       <c r="G21" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>78600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-9000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1038,9 +1074,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,26 +1104,29 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>376000</v>
+        <v>399800</v>
       </c>
       <c r="E23" s="3">
-        <v>194800</v>
+        <v>366800</v>
       </c>
       <c r="F23" s="3">
-        <v>78900</v>
+        <v>190000</v>
       </c>
       <c r="G23" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>76900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-9500</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1092,36 +1134,42 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21700</v>
+        <v>67500</v>
       </c>
       <c r="E24" s="3">
-        <v>39400</v>
+        <v>21200</v>
       </c>
       <c r="F24" s="3">
-        <v>6900</v>
+        <v>38400</v>
       </c>
       <c r="G24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,26 +1194,29 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>354300</v>
+        <v>332300</v>
       </c>
       <c r="E26" s="3">
-        <v>155400</v>
+        <v>345600</v>
       </c>
       <c r="F26" s="3">
-        <v>72000</v>
+        <v>151600</v>
       </c>
       <c r="G26" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>70200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-10100</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1173,26 +1224,29 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>354300</v>
+        <v>332100</v>
       </c>
       <c r="E27" s="3">
-        <v>-285600</v>
+        <v>345600</v>
       </c>
       <c r="F27" s="3">
-        <v>-8700</v>
+        <v>-278600</v>
       </c>
       <c r="G27" s="3">
-        <v>-26000</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-8500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-25300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,26 +1374,29 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-111100</v>
+        <v>-29400</v>
       </c>
       <c r="E32" s="3">
-        <v>24600</v>
+        <v>-108300</v>
       </c>
       <c r="F32" s="3">
-        <v>-41900</v>
+        <v>24000</v>
       </c>
       <c r="G32" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>-40900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-10800</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1335,26 +1404,29 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>354300</v>
+        <v>332100</v>
       </c>
       <c r="E33" s="3">
-        <v>-285600</v>
+        <v>345600</v>
       </c>
       <c r="F33" s="3">
-        <v>-8700</v>
+        <v>-278600</v>
       </c>
       <c r="G33" s="3">
-        <v>-26000</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-8500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-25300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,26 +1464,29 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>354300</v>
+        <v>332100</v>
       </c>
       <c r="E35" s="3">
-        <v>-285600</v>
+        <v>345600</v>
       </c>
       <c r="F35" s="3">
-        <v>-8700</v>
+        <v>-278600</v>
       </c>
       <c r="G35" s="3">
-        <v>-26000</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-8500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-25300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1416,41 +1494,47 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,25 +1560,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>231900</v>
+        <v>325800</v>
       </c>
       <c r="E41" s="3">
-        <v>271300</v>
+        <v>226500</v>
       </c>
       <c r="F41" s="3">
-        <v>58100</v>
+        <v>265100</v>
       </c>
       <c r="G41" s="3">
-        <v>13300</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>56700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>13000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,26 +1617,29 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>413000</v>
+        <v>635200</v>
       </c>
       <c r="E43" s="3">
-        <v>168200</v>
+        <v>403400</v>
       </c>
       <c r="F43" s="3">
-        <v>44000</v>
+        <v>164300</v>
       </c>
       <c r="G43" s="3">
-        <v>24900</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>43000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>24300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,36 +1677,42 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28500</v>
+        <v>195000</v>
       </c>
       <c r="E45" s="3">
-        <v>19500</v>
+        <v>27800</v>
       </c>
       <c r="F45" s="3">
-        <v>12500</v>
+        <v>19100</v>
       </c>
       <c r="G45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1636,26 +1737,29 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>618100</v>
+        <v>826400</v>
       </c>
       <c r="E47" s="3">
-        <v>380600</v>
+        <v>603800</v>
       </c>
       <c r="F47" s="3">
-        <v>43300</v>
+        <v>371800</v>
       </c>
       <c r="G47" s="3">
-        <v>18100</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>42300</v>
+      </c>
+      <c r="H47" s="3">
+        <v>17600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1663,26 +1767,29 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20700</v>
+        <v>32300</v>
       </c>
       <c r="E48" s="3">
-        <v>15500</v>
+        <v>20200</v>
       </c>
       <c r="F48" s="3">
-        <v>5400</v>
+        <v>15200</v>
       </c>
       <c r="G48" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>5300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1690,20 +1797,23 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17100</v>
+        <v>16100</v>
       </c>
       <c r="E49" s="3">
-        <v>16400</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>16700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>16000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,26 +1887,29 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>545300</v>
+        <v>534800</v>
       </c>
       <c r="E52" s="3">
-        <v>361700</v>
+        <v>532700</v>
       </c>
       <c r="F52" s="3">
-        <v>119700</v>
+        <v>353300</v>
       </c>
       <c r="G52" s="3">
-        <v>40800</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>117000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>39900</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,26 +1947,29 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1885700</v>
+        <v>2565600</v>
       </c>
       <c r="E54" s="3">
-        <v>1234500</v>
+        <v>1842000</v>
       </c>
       <c r="F54" s="3">
-        <v>308100</v>
+        <v>1205900</v>
       </c>
       <c r="G54" s="3">
-        <v>105700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>301000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>103300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,25 +2008,26 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>129900</v>
+        <v>96000</v>
       </c>
       <c r="E57" s="3">
-        <v>159800</v>
+        <v>126800</v>
       </c>
       <c r="F57" s="3">
-        <v>60500</v>
+        <v>156100</v>
       </c>
       <c r="G57" s="3">
-        <v>25300</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>59100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>24700</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -1905,26 +2035,29 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>2800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -1932,26 +2065,29 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>634300</v>
+        <v>757300</v>
       </c>
       <c r="E59" s="3">
-        <v>383800</v>
+        <v>619600</v>
       </c>
       <c r="F59" s="3">
-        <v>104200</v>
+        <v>375000</v>
       </c>
       <c r="G59" s="3">
-        <v>31100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>101800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>30400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -1959,9 +2095,12 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,20 +2155,23 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14400</v>
+        <v>27900</v>
       </c>
       <c r="E62" s="3">
-        <v>17700</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>14000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>17300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,26 +2275,29 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1035700</v>
+        <v>1451600</v>
       </c>
       <c r="E66" s="3">
-        <v>714700</v>
+        <v>1011800</v>
       </c>
       <c r="F66" s="3">
-        <v>197300</v>
+        <v>698200</v>
       </c>
       <c r="G66" s="3">
-        <v>67200</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>192700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>65700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2228,13 +2395,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>173700</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>84000</v>
+        <v>169700</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>82100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,26 +2439,29 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>43300</v>
+        <v>320100</v>
       </c>
       <c r="E72" s="3">
-        <v>-336300</v>
+        <v>42300</v>
       </c>
       <c r="F72" s="3">
-        <v>-50700</v>
+        <v>-328500</v>
       </c>
       <c r="G72" s="3">
-        <v>-42000</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-49500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-41000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,26 +2559,29 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>850000</v>
+        <v>1114000</v>
       </c>
       <c r="E76" s="3">
-        <v>519700</v>
+        <v>830300</v>
       </c>
       <c r="F76" s="3">
-        <v>-62900</v>
+        <v>507700</v>
       </c>
       <c r="G76" s="3">
-        <v>-45500</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-61500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-44500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,58 +2619,64 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>354300</v>
+        <v>332100</v>
       </c>
       <c r="E81" s="3">
-        <v>-285600</v>
+        <v>345600</v>
       </c>
       <c r="F81" s="3">
-        <v>-8700</v>
+        <v>-278600</v>
       </c>
       <c r="G81" s="3">
-        <v>-26000</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-8500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-25300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,35 +2701,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6000</v>
+        <v>8100</v>
       </c>
       <c r="E83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F83" s="3">
         <v>3200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,26 +2878,29 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>270500</v>
+        <v>-30200</v>
       </c>
       <c r="E89" s="3">
-        <v>267500</v>
+        <v>263800</v>
       </c>
       <c r="F89" s="3">
-        <v>76600</v>
+        <v>261000</v>
       </c>
       <c r="G89" s="3">
-        <v>-27500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>74700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-26900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,35 +2925,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12000</v>
+        <v>-6800</v>
       </c>
       <c r="E91" s="3">
-        <v>-13000</v>
+        <v>-11700</v>
       </c>
       <c r="F91" s="3">
-        <v>-4300</v>
+        <v>-12700</v>
       </c>
       <c r="G91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,26 +3012,29 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-207600</v>
+        <v>-115900</v>
       </c>
       <c r="E94" s="3">
-        <v>-358100</v>
+        <v>-202500</v>
       </c>
       <c r="F94" s="3">
-        <v>-95100</v>
+        <v>-349300</v>
       </c>
       <c r="G94" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-92800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-18500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,26 +3176,29 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>76100</v>
+        <v>244900</v>
       </c>
       <c r="E100" s="3">
-        <v>306000</v>
+        <v>74200</v>
       </c>
       <c r="F100" s="3">
-        <v>62900</v>
+        <v>298500</v>
       </c>
       <c r="G100" s="3">
-        <v>48500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>61400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>47300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -2961,53 +3206,59 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="E101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2200</v>
       </c>
-      <c r="F101" s="3">
-        <v>400</v>
-      </c>
       <c r="G101" s="3">
+        <v>300</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>144900</v>
+        <v>100400</v>
       </c>
       <c r="E102" s="3">
-        <v>213300</v>
+        <v>141400</v>
       </c>
       <c r="F102" s="3">
-        <v>44800</v>
+        <v>208000</v>
       </c>
       <c r="G102" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>43700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>2100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>834500</v>
+        <v>866000</v>
       </c>
       <c r="E8" s="3">
-        <v>609000</v>
+        <v>631900</v>
       </c>
       <c r="F8" s="3">
-        <v>543100</v>
+        <v>563600</v>
       </c>
       <c r="G8" s="3">
-        <v>170200</v>
+        <v>176600</v>
       </c>
       <c r="H8" s="3">
-        <v>27400</v>
+        <v>28400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>169100</v>
+        <v>175500</v>
       </c>
       <c r="E9" s="3">
-        <v>137900</v>
+        <v>143100</v>
       </c>
       <c r="F9" s="3">
-        <v>136400</v>
+        <v>141500</v>
       </c>
       <c r="G9" s="3">
-        <v>54300</v>
+        <v>56400</v>
       </c>
       <c r="H9" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>665400</v>
+        <v>690500</v>
       </c>
       <c r="E10" s="3">
-        <v>471000</v>
+        <v>488800</v>
       </c>
       <c r="F10" s="3">
-        <v>406700</v>
+        <v>422100</v>
       </c>
       <c r="G10" s="3">
-        <v>115800</v>
+        <v>120200</v>
       </c>
       <c r="H10" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -819,19 +819,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>54700</v>
+        <v>56700</v>
       </c>
       <c r="E12" s="3">
-        <v>44500</v>
+        <v>46200</v>
       </c>
       <c r="F12" s="3">
-        <v>23100</v>
+        <v>23900</v>
       </c>
       <c r="G12" s="3">
-        <v>16000</v>
+        <v>16700</v>
       </c>
       <c r="H12" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>464200</v>
+        <v>481600</v>
       </c>
       <c r="E17" s="3">
-        <v>350500</v>
+        <v>363700</v>
       </c>
       <c r="F17" s="3">
-        <v>329100</v>
+        <v>341500</v>
       </c>
       <c r="G17" s="3">
-        <v>134100</v>
+        <v>139200</v>
       </c>
       <c r="H17" s="3">
-        <v>47700</v>
+        <v>49500</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>370400</v>
+        <v>384300</v>
       </c>
       <c r="E18" s="3">
-        <v>258400</v>
+        <v>268200</v>
       </c>
       <c r="F18" s="3">
-        <v>214000</v>
+        <v>222100</v>
       </c>
       <c r="G18" s="3">
-        <v>36000</v>
+        <v>37400</v>
       </c>
       <c r="H18" s="3">
-        <v>-20300</v>
+        <v>-21100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1024,19 +1024,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>29400</v>
+        <v>30500</v>
       </c>
       <c r="E20" s="3">
-        <v>108300</v>
+        <v>112400</v>
       </c>
       <c r="F20" s="3">
-        <v>-24000</v>
+        <v>-24900</v>
       </c>
       <c r="G20" s="3">
-        <v>40900</v>
+        <v>42500</v>
       </c>
       <c r="H20" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>407800</v>
+        <v>423200</v>
       </c>
       <c r="E21" s="3">
-        <v>372700</v>
+        <v>386700</v>
       </c>
       <c r="F21" s="3">
-        <v>193200</v>
+        <v>200400</v>
       </c>
       <c r="G21" s="3">
-        <v>78600</v>
+        <v>81600</v>
       </c>
       <c r="H21" s="3">
-        <v>-9000</v>
+        <v>-9400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>399800</v>
+        <v>414800</v>
       </c>
       <c r="E23" s="3">
-        <v>366800</v>
+        <v>380600</v>
       </c>
       <c r="F23" s="3">
-        <v>190000</v>
+        <v>197200</v>
       </c>
       <c r="G23" s="3">
-        <v>76900</v>
+        <v>79800</v>
       </c>
       <c r="H23" s="3">
-        <v>-9500</v>
+        <v>-9800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,16 +1144,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>67500</v>
+        <v>70000</v>
       </c>
       <c r="E24" s="3">
-        <v>21200</v>
+        <v>22000</v>
       </c>
       <c r="F24" s="3">
-        <v>38400</v>
+        <v>39900</v>
       </c>
       <c r="G24" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="H24" s="3">
         <v>600</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>332300</v>
+        <v>344900</v>
       </c>
       <c r="E26" s="3">
-        <v>345600</v>
+        <v>358600</v>
       </c>
       <c r="F26" s="3">
-        <v>151600</v>
+        <v>157300</v>
       </c>
       <c r="G26" s="3">
-        <v>70200</v>
+        <v>72800</v>
       </c>
       <c r="H26" s="3">
-        <v>-10100</v>
+        <v>-10500</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>332100</v>
+        <v>344600</v>
       </c>
       <c r="E27" s="3">
-        <v>345600</v>
+        <v>358600</v>
       </c>
       <c r="F27" s="3">
-        <v>-278600</v>
+        <v>-289100</v>
       </c>
       <c r="G27" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="H27" s="3">
-        <v>-25300</v>
+        <v>-26300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1384,19 +1384,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-29400</v>
+        <v>-30500</v>
       </c>
       <c r="E32" s="3">
-        <v>-108300</v>
+        <v>-112400</v>
       </c>
       <c r="F32" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="G32" s="3">
-        <v>-40900</v>
+        <v>-42500</v>
       </c>
       <c r="H32" s="3">
-        <v>-10800</v>
+        <v>-11200</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>332100</v>
+        <v>344600</v>
       </c>
       <c r="E33" s="3">
-        <v>345600</v>
+        <v>358600</v>
       </c>
       <c r="F33" s="3">
-        <v>-278600</v>
+        <v>-289100</v>
       </c>
       <c r="G33" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="H33" s="3">
-        <v>-25300</v>
+        <v>-26300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>332100</v>
+        <v>344600</v>
       </c>
       <c r="E35" s="3">
-        <v>345600</v>
+        <v>358600</v>
       </c>
       <c r="F35" s="3">
-        <v>-278600</v>
+        <v>-289100</v>
       </c>
       <c r="G35" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="H35" s="3">
-        <v>-25300</v>
+        <v>-26300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,19 +1567,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>325800</v>
+        <v>337600</v>
       </c>
       <c r="E41" s="3">
-        <v>226500</v>
+        <v>234700</v>
       </c>
       <c r="F41" s="3">
-        <v>265100</v>
+        <v>274600</v>
       </c>
       <c r="G41" s="3">
-        <v>56700</v>
+        <v>58800</v>
       </c>
       <c r="H41" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1627,19 +1627,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>635200</v>
+        <v>658200</v>
       </c>
       <c r="E43" s="3">
-        <v>403400</v>
+        <v>418000</v>
       </c>
       <c r="F43" s="3">
-        <v>164300</v>
+        <v>170300</v>
       </c>
       <c r="G43" s="3">
-        <v>43000</v>
+        <v>44600</v>
       </c>
       <c r="H43" s="3">
-        <v>24300</v>
+        <v>25200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1687,19 +1687,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>195000</v>
+        <v>202000</v>
       </c>
       <c r="E45" s="3">
-        <v>27800</v>
+        <v>28800</v>
       </c>
       <c r="F45" s="3">
-        <v>19100</v>
+        <v>19800</v>
       </c>
       <c r="G45" s="3">
-        <v>12200</v>
+        <v>12600</v>
       </c>
       <c r="H45" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1747,19 +1747,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>826400</v>
+        <v>856300</v>
       </c>
       <c r="E47" s="3">
-        <v>603800</v>
+        <v>625700</v>
       </c>
       <c r="F47" s="3">
-        <v>371800</v>
+        <v>385300</v>
       </c>
       <c r="G47" s="3">
-        <v>42300</v>
+        <v>43800</v>
       </c>
       <c r="H47" s="3">
-        <v>17600</v>
+        <v>18300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1777,19 +1777,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32300</v>
+        <v>33400</v>
       </c>
       <c r="E48" s="3">
-        <v>20200</v>
+        <v>20900</v>
       </c>
       <c r="F48" s="3">
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="G48" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="H48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="E49" s="3">
-        <v>16700</v>
+        <v>17300</v>
       </c>
       <c r="F49" s="3">
-        <v>16000</v>
+        <v>16600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,19 +1897,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>534800</v>
+        <v>554200</v>
       </c>
       <c r="E52" s="3">
-        <v>532700</v>
+        <v>551900</v>
       </c>
       <c r="F52" s="3">
-        <v>353300</v>
+        <v>366100</v>
       </c>
       <c r="G52" s="3">
-        <v>117000</v>
+        <v>121200</v>
       </c>
       <c r="H52" s="3">
-        <v>39900</v>
+        <v>41300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1957,19 +1957,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2565600</v>
+        <v>2658400</v>
       </c>
       <c r="E54" s="3">
-        <v>1842000</v>
+        <v>1908700</v>
       </c>
       <c r="F54" s="3">
-        <v>1205900</v>
+        <v>1249500</v>
       </c>
       <c r="G54" s="3">
-        <v>301000</v>
+        <v>311900</v>
       </c>
       <c r="H54" s="3">
-        <v>103300</v>
+        <v>107000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2015,19 +2015,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>96000</v>
+        <v>99400</v>
       </c>
       <c r="E57" s="3">
-        <v>126800</v>
+        <v>131400</v>
       </c>
       <c r="F57" s="3">
-        <v>156100</v>
+        <v>161800</v>
       </c>
       <c r="G57" s="3">
-        <v>59100</v>
+        <v>61200</v>
       </c>
       <c r="H57" s="3">
-        <v>24700</v>
+        <v>25600</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2045,19 +2045,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32900</v>
+        <v>34100</v>
       </c>
       <c r="E58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2075,19 +2075,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>757300</v>
+        <v>784700</v>
       </c>
       <c r="E59" s="3">
-        <v>619600</v>
+        <v>642000</v>
       </c>
       <c r="F59" s="3">
-        <v>375000</v>
+        <v>388500</v>
       </c>
       <c r="G59" s="3">
-        <v>101800</v>
+        <v>105400</v>
       </c>
       <c r="H59" s="3">
-        <v>30400</v>
+        <v>31500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27900</v>
+        <v>28900</v>
       </c>
       <c r="E62" s="3">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="F62" s="3">
-        <v>17300</v>
+        <v>18000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,19 +2285,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1451600</v>
+        <v>1504100</v>
       </c>
       <c r="E66" s="3">
-        <v>1011800</v>
+        <v>1048400</v>
       </c>
       <c r="F66" s="3">
-        <v>698200</v>
+        <v>723500</v>
       </c>
       <c r="G66" s="3">
-        <v>192700</v>
+        <v>199700</v>
       </c>
       <c r="H66" s="3">
-        <v>65700</v>
+        <v>68000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2398,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>169700</v>
+        <v>175800</v>
       </c>
       <c r="H70" s="3">
-        <v>82100</v>
+        <v>85100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2449,19 +2449,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>320100</v>
+        <v>331700</v>
       </c>
       <c r="E72" s="3">
-        <v>42300</v>
+        <v>43800</v>
       </c>
       <c r="F72" s="3">
-        <v>-328500</v>
+        <v>-340400</v>
       </c>
       <c r="G72" s="3">
-        <v>-49500</v>
+        <v>-51300</v>
       </c>
       <c r="H72" s="3">
-        <v>-41000</v>
+        <v>-42500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2569,19 +2569,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1114000</v>
+        <v>1154300</v>
       </c>
       <c r="E76" s="3">
-        <v>830300</v>
+        <v>860300</v>
       </c>
       <c r="F76" s="3">
-        <v>507700</v>
+        <v>526000</v>
       </c>
       <c r="G76" s="3">
-        <v>-61500</v>
+        <v>-63700</v>
       </c>
       <c r="H76" s="3">
-        <v>-44500</v>
+        <v>-46100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>332100</v>
+        <v>344600</v>
       </c>
       <c r="E81" s="3">
-        <v>345600</v>
+        <v>358600</v>
       </c>
       <c r="F81" s="3">
-        <v>-278600</v>
+        <v>-289100</v>
       </c>
       <c r="G81" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="H81" s="3">
-        <v>-25300</v>
+        <v>-26300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2708,16 +2708,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="E83" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="F83" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G83" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-30200</v>
+        <v>-31300</v>
       </c>
       <c r="E89" s="3">
-        <v>263800</v>
+        <v>273800</v>
       </c>
       <c r="F89" s="3">
-        <v>261000</v>
+        <v>270800</v>
       </c>
       <c r="G89" s="3">
-        <v>74700</v>
+        <v>77600</v>
       </c>
       <c r="H89" s="3">
-        <v>-26900</v>
+        <v>-27900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6800</v>
+        <v>-7100</v>
       </c>
       <c r="E91" s="3">
-        <v>-11700</v>
+        <v>-12100</v>
       </c>
       <c r="F91" s="3">
-        <v>-12700</v>
+        <v>-13200</v>
       </c>
       <c r="G91" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H91" s="3">
         <v>-2500</v>
@@ -3022,19 +3022,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-115900</v>
+        <v>-120300</v>
       </c>
       <c r="E94" s="3">
-        <v>-202500</v>
+        <v>-210100</v>
       </c>
       <c r="F94" s="3">
-        <v>-349300</v>
+        <v>-362400</v>
       </c>
       <c r="G94" s="3">
-        <v>-92800</v>
+        <v>-96300</v>
       </c>
       <c r="H94" s="3">
-        <v>-18500</v>
+        <v>-19200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3186,19 +3186,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>244900</v>
+        <v>254100</v>
       </c>
       <c r="E100" s="3">
-        <v>74200</v>
+        <v>77000</v>
       </c>
       <c r="F100" s="3">
-        <v>298500</v>
+        <v>309800</v>
       </c>
       <c r="G100" s="3">
-        <v>61400</v>
+        <v>63700</v>
       </c>
       <c r="H100" s="3">
-        <v>47300</v>
+        <v>49100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3219,13 +3219,13 @@
         <v>1600</v>
       </c>
       <c r="E101" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="F101" s="3">
         <v>-2200</v>
       </c>
       <c r="G101" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H101" s="3">
         <v>200</v>
@@ -3246,19 +3246,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100400</v>
+        <v>104100</v>
       </c>
       <c r="E102" s="3">
-        <v>141400</v>
+        <v>146700</v>
       </c>
       <c r="F102" s="3">
-        <v>208000</v>
+        <v>215900</v>
       </c>
       <c r="G102" s="3">
-        <v>43700</v>
+        <v>45300</v>
       </c>
       <c r="H102" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>866000</v>
+        <v>907100</v>
       </c>
       <c r="E8" s="3">
-        <v>631900</v>
+        <v>661900</v>
       </c>
       <c r="F8" s="3">
-        <v>563600</v>
+        <v>590300</v>
       </c>
       <c r="G8" s="3">
-        <v>176600</v>
+        <v>184900</v>
       </c>
       <c r="H8" s="3">
-        <v>28400</v>
+        <v>29800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>175500</v>
+        <v>183800</v>
       </c>
       <c r="E9" s="3">
-        <v>143100</v>
+        <v>149900</v>
       </c>
       <c r="F9" s="3">
-        <v>141500</v>
+        <v>148200</v>
       </c>
       <c r="G9" s="3">
-        <v>56400</v>
+        <v>59000</v>
       </c>
       <c r="H9" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>690500</v>
+        <v>723300</v>
       </c>
       <c r="E10" s="3">
-        <v>488800</v>
+        <v>511900</v>
       </c>
       <c r="F10" s="3">
-        <v>422100</v>
+        <v>442100</v>
       </c>
       <c r="G10" s="3">
-        <v>120200</v>
+        <v>125900</v>
       </c>
       <c r="H10" s="3">
-        <v>14000</v>
+        <v>14700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -819,19 +819,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>56700</v>
+        <v>59400</v>
       </c>
       <c r="E12" s="3">
-        <v>46200</v>
+        <v>48400</v>
       </c>
       <c r="F12" s="3">
-        <v>23900</v>
+        <v>25100</v>
       </c>
       <c r="G12" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="H12" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>481600</v>
+        <v>504500</v>
       </c>
       <c r="E17" s="3">
-        <v>363700</v>
+        <v>381000</v>
       </c>
       <c r="F17" s="3">
-        <v>341500</v>
+        <v>357700</v>
       </c>
       <c r="G17" s="3">
-        <v>139200</v>
+        <v>145800</v>
       </c>
       <c r="H17" s="3">
-        <v>49500</v>
+        <v>51800</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>384300</v>
+        <v>402600</v>
       </c>
       <c r="E18" s="3">
-        <v>268200</v>
+        <v>280900</v>
       </c>
       <c r="F18" s="3">
-        <v>222100</v>
+        <v>232600</v>
       </c>
       <c r="G18" s="3">
-        <v>37400</v>
+        <v>39200</v>
       </c>
       <c r="H18" s="3">
-        <v>-21100</v>
+        <v>-22100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1024,19 +1024,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>30500</v>
+        <v>32000</v>
       </c>
       <c r="E20" s="3">
-        <v>112400</v>
+        <v>117800</v>
       </c>
       <c r="F20" s="3">
-        <v>-24900</v>
+        <v>-26100</v>
       </c>
       <c r="G20" s="3">
-        <v>42500</v>
+        <v>44500</v>
       </c>
       <c r="H20" s="3">
-        <v>11200</v>
+        <v>11800</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>423200</v>
+        <v>443300</v>
       </c>
       <c r="E21" s="3">
-        <v>386700</v>
+        <v>405100</v>
       </c>
       <c r="F21" s="3">
-        <v>200400</v>
+        <v>210000</v>
       </c>
       <c r="G21" s="3">
-        <v>81600</v>
+        <v>85500</v>
       </c>
       <c r="H21" s="3">
-        <v>-9400</v>
+        <v>-9800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>414800</v>
+        <v>434500</v>
       </c>
       <c r="E23" s="3">
-        <v>380600</v>
+        <v>398700</v>
       </c>
       <c r="F23" s="3">
-        <v>197200</v>
+        <v>206500</v>
       </c>
       <c r="G23" s="3">
-        <v>79800</v>
+        <v>83600</v>
       </c>
       <c r="H23" s="3">
-        <v>-9800</v>
+        <v>-10300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70000</v>
+        <v>73300</v>
       </c>
       <c r="E24" s="3">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="F24" s="3">
-        <v>39900</v>
+        <v>41800</v>
       </c>
       <c r="G24" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="H24" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>344900</v>
+        <v>361200</v>
       </c>
       <c r="E26" s="3">
-        <v>358600</v>
+        <v>375700</v>
       </c>
       <c r="F26" s="3">
-        <v>157300</v>
+        <v>164700</v>
       </c>
       <c r="G26" s="3">
-        <v>72800</v>
+        <v>76300</v>
       </c>
       <c r="H26" s="3">
-        <v>-10500</v>
+        <v>-11000</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>344600</v>
+        <v>361000</v>
       </c>
       <c r="E27" s="3">
-        <v>358600</v>
+        <v>375600</v>
       </c>
       <c r="F27" s="3">
-        <v>-289100</v>
+        <v>-302800</v>
       </c>
       <c r="G27" s="3">
-        <v>-8800</v>
+        <v>-9200</v>
       </c>
       <c r="H27" s="3">
-        <v>-26300</v>
+        <v>-27500</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1384,19 +1384,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-30500</v>
+        <v>-32000</v>
       </c>
       <c r="E32" s="3">
-        <v>-112400</v>
+        <v>-117800</v>
       </c>
       <c r="F32" s="3">
-        <v>24900</v>
+        <v>26100</v>
       </c>
       <c r="G32" s="3">
-        <v>-42500</v>
+        <v>-44500</v>
       </c>
       <c r="H32" s="3">
-        <v>-11200</v>
+        <v>-11800</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>344600</v>
+        <v>361000</v>
       </c>
       <c r="E33" s="3">
-        <v>358600</v>
+        <v>375600</v>
       </c>
       <c r="F33" s="3">
-        <v>-289100</v>
+        <v>-302800</v>
       </c>
       <c r="G33" s="3">
-        <v>-8800</v>
+        <v>-9200</v>
       </c>
       <c r="H33" s="3">
-        <v>-26300</v>
+        <v>-27500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>344600</v>
+        <v>361000</v>
       </c>
       <c r="E35" s="3">
-        <v>358600</v>
+        <v>375600</v>
       </c>
       <c r="F35" s="3">
-        <v>-289100</v>
+        <v>-302800</v>
       </c>
       <c r="G35" s="3">
-        <v>-8800</v>
+        <v>-9200</v>
       </c>
       <c r="H35" s="3">
-        <v>-26300</v>
+        <v>-27500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,19 +1567,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>337600</v>
+        <v>353600</v>
       </c>
       <c r="E41" s="3">
-        <v>234700</v>
+        <v>245900</v>
       </c>
       <c r="F41" s="3">
-        <v>274600</v>
+        <v>287700</v>
       </c>
       <c r="G41" s="3">
-        <v>58800</v>
+        <v>61600</v>
       </c>
       <c r="H41" s="3">
-        <v>13400</v>
+        <v>14100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1627,19 +1627,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>658200</v>
+        <v>689400</v>
       </c>
       <c r="E43" s="3">
-        <v>418000</v>
+        <v>437900</v>
       </c>
       <c r="F43" s="3">
-        <v>170300</v>
+        <v>178400</v>
       </c>
       <c r="G43" s="3">
-        <v>44600</v>
+        <v>46700</v>
       </c>
       <c r="H43" s="3">
-        <v>25200</v>
+        <v>26400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1687,19 +1687,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>202000</v>
+        <v>211600</v>
       </c>
       <c r="E45" s="3">
-        <v>28800</v>
+        <v>30200</v>
       </c>
       <c r="F45" s="3">
-        <v>19800</v>
+        <v>20700</v>
       </c>
       <c r="G45" s="3">
-        <v>12600</v>
+        <v>13200</v>
       </c>
       <c r="H45" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1747,19 +1747,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>856300</v>
+        <v>896900</v>
       </c>
       <c r="E47" s="3">
-        <v>625700</v>
+        <v>655400</v>
       </c>
       <c r="F47" s="3">
-        <v>385300</v>
+        <v>403600</v>
       </c>
       <c r="G47" s="3">
-        <v>43800</v>
+        <v>45900</v>
       </c>
       <c r="H47" s="3">
-        <v>18300</v>
+        <v>19200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1777,19 +1777,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33400</v>
+        <v>35000</v>
       </c>
       <c r="E48" s="3">
-        <v>20900</v>
+        <v>21900</v>
       </c>
       <c r="F48" s="3">
-        <v>15700</v>
+        <v>16500</v>
       </c>
       <c r="G48" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="H48" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="E49" s="3">
-        <v>17300</v>
+        <v>18100</v>
       </c>
       <c r="F49" s="3">
-        <v>16600</v>
+        <v>17400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,19 +1897,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>554200</v>
+        <v>580500</v>
       </c>
       <c r="E52" s="3">
-        <v>551900</v>
+        <v>578100</v>
       </c>
       <c r="F52" s="3">
-        <v>366100</v>
+        <v>383500</v>
       </c>
       <c r="G52" s="3">
-        <v>121200</v>
+        <v>127000</v>
       </c>
       <c r="H52" s="3">
-        <v>41300</v>
+        <v>43300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1957,19 +1957,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2658400</v>
+        <v>2784500</v>
       </c>
       <c r="E54" s="3">
-        <v>1908700</v>
+        <v>1999200</v>
       </c>
       <c r="F54" s="3">
-        <v>1249500</v>
+        <v>1308800</v>
       </c>
       <c r="G54" s="3">
-        <v>311900</v>
+        <v>326600</v>
       </c>
       <c r="H54" s="3">
-        <v>107000</v>
+        <v>112100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2015,19 +2015,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>99400</v>
+        <v>104100</v>
       </c>
       <c r="E57" s="3">
-        <v>131400</v>
+        <v>137700</v>
       </c>
       <c r="F57" s="3">
-        <v>161800</v>
+        <v>169500</v>
       </c>
       <c r="G57" s="3">
-        <v>61200</v>
+        <v>64100</v>
       </c>
       <c r="H57" s="3">
-        <v>25600</v>
+        <v>26800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2045,19 +2045,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>34100</v>
+        <v>35700</v>
       </c>
       <c r="E58" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H58" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2075,19 +2075,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>784700</v>
+        <v>821900</v>
       </c>
       <c r="E59" s="3">
-        <v>642000</v>
+        <v>672500</v>
       </c>
       <c r="F59" s="3">
-        <v>388500</v>
+        <v>406900</v>
       </c>
       <c r="G59" s="3">
-        <v>105400</v>
+        <v>110400</v>
       </c>
       <c r="H59" s="3">
-        <v>31500</v>
+        <v>33000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28900</v>
+        <v>30300</v>
       </c>
       <c r="E62" s="3">
-        <v>14500</v>
+        <v>15200</v>
       </c>
       <c r="F62" s="3">
-        <v>18000</v>
+        <v>18800</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,19 +2285,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1504100</v>
+        <v>1575400</v>
       </c>
       <c r="E66" s="3">
-        <v>1048400</v>
+        <v>1098100</v>
       </c>
       <c r="F66" s="3">
-        <v>723500</v>
+        <v>757800</v>
       </c>
       <c r="G66" s="3">
-        <v>199700</v>
+        <v>209200</v>
       </c>
       <c r="H66" s="3">
-        <v>68000</v>
+        <v>71300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2398,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>175800</v>
+        <v>184200</v>
       </c>
       <c r="H70" s="3">
-        <v>85100</v>
+        <v>89100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2449,19 +2449,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>331700</v>
+        <v>347400</v>
       </c>
       <c r="E72" s="3">
-        <v>43800</v>
+        <v>45900</v>
       </c>
       <c r="F72" s="3">
-        <v>-340400</v>
+        <v>-356600</v>
       </c>
       <c r="G72" s="3">
-        <v>-51300</v>
+        <v>-53800</v>
       </c>
       <c r="H72" s="3">
-        <v>-42500</v>
+        <v>-44600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2569,19 +2569,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1154300</v>
+        <v>1209000</v>
       </c>
       <c r="E76" s="3">
-        <v>860300</v>
+        <v>901100</v>
       </c>
       <c r="F76" s="3">
-        <v>526000</v>
+        <v>551000</v>
       </c>
       <c r="G76" s="3">
-        <v>-63700</v>
+        <v>-66700</v>
       </c>
       <c r="H76" s="3">
-        <v>-46100</v>
+        <v>-48300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>344600</v>
+        <v>361000</v>
       </c>
       <c r="E81" s="3">
-        <v>358600</v>
+        <v>375600</v>
       </c>
       <c r="F81" s="3">
-        <v>-289100</v>
+        <v>-302800</v>
       </c>
       <c r="G81" s="3">
-        <v>-8800</v>
+        <v>-9200</v>
       </c>
       <c r="H81" s="3">
-        <v>-26300</v>
+        <v>-27500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="E83" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="F83" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G83" s="3">
         <v>1800</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-31300</v>
+        <v>-32800</v>
       </c>
       <c r="E89" s="3">
-        <v>273800</v>
+        <v>286700</v>
       </c>
       <c r="F89" s="3">
-        <v>270800</v>
+        <v>283600</v>
       </c>
       <c r="G89" s="3">
-        <v>77600</v>
+        <v>81200</v>
       </c>
       <c r="H89" s="3">
-        <v>-27900</v>
+        <v>-29200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2932,19 +2932,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7100</v>
+        <v>-7400</v>
       </c>
       <c r="E91" s="3">
-        <v>-12100</v>
+        <v>-12700</v>
       </c>
       <c r="F91" s="3">
-        <v>-13200</v>
+        <v>-13800</v>
       </c>
       <c r="G91" s="3">
-        <v>-4300</v>
+        <v>-4500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2500</v>
+        <v>-2700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3022,19 +3022,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-120300</v>
+        <v>-126000</v>
       </c>
       <c r="E94" s="3">
-        <v>-210100</v>
+        <v>-220100</v>
       </c>
       <c r="F94" s="3">
-        <v>-362400</v>
+        <v>-379600</v>
       </c>
       <c r="G94" s="3">
-        <v>-96300</v>
+        <v>-100900</v>
       </c>
       <c r="H94" s="3">
-        <v>-19200</v>
+        <v>-20100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3186,19 +3186,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>254100</v>
+        <v>266100</v>
       </c>
       <c r="E100" s="3">
-        <v>77000</v>
+        <v>80600</v>
       </c>
       <c r="F100" s="3">
-        <v>309800</v>
+        <v>324500</v>
       </c>
       <c r="G100" s="3">
-        <v>63700</v>
+        <v>66700</v>
       </c>
       <c r="H100" s="3">
-        <v>49100</v>
+        <v>51400</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3216,13 +3216,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E101" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="F101" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G101" s="3">
         <v>400</v>
@@ -3246,19 +3246,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>104100</v>
+        <v>109100</v>
       </c>
       <c r="E102" s="3">
-        <v>146700</v>
+        <v>153600</v>
       </c>
       <c r="F102" s="3">
-        <v>215900</v>
+        <v>226100</v>
       </c>
       <c r="G102" s="3">
-        <v>45300</v>
+        <v>47500</v>
       </c>
       <c r="H102" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>907100</v>
+        <v>911000</v>
       </c>
       <c r="E8" s="3">
-        <v>661900</v>
+        <v>664700</v>
       </c>
       <c r="F8" s="3">
-        <v>590300</v>
+        <v>592900</v>
       </c>
       <c r="G8" s="3">
-        <v>184900</v>
+        <v>185700</v>
       </c>
       <c r="H8" s="3">
-        <v>29800</v>
+        <v>29900</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>183800</v>
+        <v>184600</v>
       </c>
       <c r="E9" s="3">
-        <v>149900</v>
+        <v>150600</v>
       </c>
       <c r="F9" s="3">
-        <v>148200</v>
+        <v>148900</v>
       </c>
       <c r="G9" s="3">
-        <v>59000</v>
+        <v>59300</v>
       </c>
       <c r="H9" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>723300</v>
+        <v>726400</v>
       </c>
       <c r="E10" s="3">
-        <v>511900</v>
+        <v>514200</v>
       </c>
       <c r="F10" s="3">
-        <v>442100</v>
+        <v>444000</v>
       </c>
       <c r="G10" s="3">
-        <v>125900</v>
+        <v>126400</v>
       </c>
       <c r="H10" s="3">
         <v>14700</v>
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>59400</v>
+        <v>59700</v>
       </c>
       <c r="E12" s="3">
-        <v>48400</v>
+        <v>48600</v>
       </c>
       <c r="F12" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="G12" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="H12" s="3">
         <v>2200</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>504500</v>
+        <v>506700</v>
       </c>
       <c r="E17" s="3">
-        <v>381000</v>
+        <v>382600</v>
       </c>
       <c r="F17" s="3">
-        <v>357700</v>
+        <v>359300</v>
       </c>
       <c r="G17" s="3">
-        <v>145800</v>
+        <v>146400</v>
       </c>
       <c r="H17" s="3">
-        <v>51800</v>
+        <v>52100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>402600</v>
+        <v>404300</v>
       </c>
       <c r="E18" s="3">
-        <v>280900</v>
+        <v>282100</v>
       </c>
       <c r="F18" s="3">
-        <v>232600</v>
+        <v>233600</v>
       </c>
       <c r="G18" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="H18" s="3">
-        <v>-22100</v>
+        <v>-22200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1024,16 +1024,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>32000</v>
+        <v>32100</v>
       </c>
       <c r="E20" s="3">
-        <v>117800</v>
+        <v>118300</v>
       </c>
       <c r="F20" s="3">
-        <v>-26100</v>
+        <v>-26200</v>
       </c>
       <c r="G20" s="3">
-        <v>44500</v>
+        <v>44700</v>
       </c>
       <c r="H20" s="3">
         <v>11800</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>443300</v>
+        <v>445300</v>
       </c>
       <c r="E21" s="3">
-        <v>405100</v>
+        <v>406800</v>
       </c>
       <c r="F21" s="3">
-        <v>210000</v>
+        <v>210900</v>
       </c>
       <c r="G21" s="3">
-        <v>85500</v>
+        <v>85800</v>
       </c>
       <c r="H21" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>434500</v>
+        <v>436400</v>
       </c>
       <c r="E23" s="3">
-        <v>398700</v>
+        <v>400400</v>
       </c>
       <c r="F23" s="3">
-        <v>206500</v>
+        <v>207400</v>
       </c>
       <c r="G23" s="3">
-        <v>83600</v>
+        <v>84000</v>
       </c>
       <c r="H23" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,16 +1144,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>73300</v>
+        <v>73600</v>
       </c>
       <c r="E24" s="3">
-        <v>23000</v>
+        <v>23100</v>
       </c>
       <c r="F24" s="3">
-        <v>41800</v>
+        <v>42000</v>
       </c>
       <c r="G24" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="H24" s="3">
         <v>700</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>361200</v>
+        <v>362800</v>
       </c>
       <c r="E26" s="3">
-        <v>375700</v>
+        <v>377300</v>
       </c>
       <c r="F26" s="3">
-        <v>164700</v>
+        <v>165400</v>
       </c>
       <c r="G26" s="3">
-        <v>76300</v>
+        <v>76600</v>
       </c>
       <c r="H26" s="3">
         <v>-11000</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>361000</v>
+        <v>362500</v>
       </c>
       <c r="E27" s="3">
-        <v>375600</v>
+        <v>377200</v>
       </c>
       <c r="F27" s="3">
-        <v>-302800</v>
+        <v>-304100</v>
       </c>
       <c r="G27" s="3">
         <v>-9200</v>
       </c>
       <c r="H27" s="3">
-        <v>-27500</v>
+        <v>-27600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1384,16 +1384,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-32000</v>
+        <v>-32100</v>
       </c>
       <c r="E32" s="3">
-        <v>-117800</v>
+        <v>-118300</v>
       </c>
       <c r="F32" s="3">
-        <v>26100</v>
+        <v>26200</v>
       </c>
       <c r="G32" s="3">
-        <v>-44500</v>
+        <v>-44700</v>
       </c>
       <c r="H32" s="3">
         <v>-11800</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>361000</v>
+        <v>362500</v>
       </c>
       <c r="E33" s="3">
-        <v>375600</v>
+        <v>377200</v>
       </c>
       <c r="F33" s="3">
-        <v>-302800</v>
+        <v>-304100</v>
       </c>
       <c r="G33" s="3">
         <v>-9200</v>
       </c>
       <c r="H33" s="3">
-        <v>-27500</v>
+        <v>-27600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>361000</v>
+        <v>362500</v>
       </c>
       <c r="E35" s="3">
-        <v>375600</v>
+        <v>377200</v>
       </c>
       <c r="F35" s="3">
-        <v>-302800</v>
+        <v>-304100</v>
       </c>
       <c r="G35" s="3">
         <v>-9200</v>
       </c>
       <c r="H35" s="3">
-        <v>-27500</v>
+        <v>-27600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>353600</v>
+        <v>355100</v>
       </c>
       <c r="E41" s="3">
-        <v>245900</v>
+        <v>246900</v>
       </c>
       <c r="F41" s="3">
-        <v>287700</v>
+        <v>288900</v>
       </c>
       <c r="G41" s="3">
-        <v>61600</v>
+        <v>61800</v>
       </c>
       <c r="H41" s="3">
         <v>14100</v>
@@ -1627,19 +1627,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>689400</v>
+        <v>692400</v>
       </c>
       <c r="E43" s="3">
-        <v>437900</v>
+        <v>439800</v>
       </c>
       <c r="F43" s="3">
-        <v>178400</v>
+        <v>179100</v>
       </c>
       <c r="G43" s="3">
-        <v>46700</v>
+        <v>46900</v>
       </c>
       <c r="H43" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>211600</v>
+        <v>212500</v>
       </c>
       <c r="E45" s="3">
-        <v>30200</v>
+        <v>30300</v>
       </c>
       <c r="F45" s="3">
-        <v>20700</v>
+        <v>20800</v>
       </c>
       <c r="G45" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="H45" s="3">
         <v>2700</v>
@@ -1747,16 +1747,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>896900</v>
+        <v>900800</v>
       </c>
       <c r="E47" s="3">
-        <v>655400</v>
+        <v>658200</v>
       </c>
       <c r="F47" s="3">
-        <v>403600</v>
+        <v>405300</v>
       </c>
       <c r="G47" s="3">
-        <v>45900</v>
+        <v>46100</v>
       </c>
       <c r="H47" s="3">
         <v>19200</v>
@@ -1777,10 +1777,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35000</v>
+        <v>35200</v>
       </c>
       <c r="E48" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="F48" s="3">
         <v>16500</v>
@@ -1807,10 +1807,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="E49" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="F49" s="3">
         <v>17400</v>
@@ -1897,19 +1897,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>580500</v>
+        <v>583000</v>
       </c>
       <c r="E52" s="3">
-        <v>578100</v>
+        <v>580600</v>
       </c>
       <c r="F52" s="3">
-        <v>383500</v>
+        <v>385100</v>
       </c>
       <c r="G52" s="3">
-        <v>127000</v>
+        <v>127500</v>
       </c>
       <c r="H52" s="3">
-        <v>43300</v>
+        <v>43500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1957,19 +1957,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2784500</v>
+        <v>2796600</v>
       </c>
       <c r="E54" s="3">
-        <v>1999200</v>
+        <v>2007900</v>
       </c>
       <c r="F54" s="3">
-        <v>1308800</v>
+        <v>1314500</v>
       </c>
       <c r="G54" s="3">
-        <v>326600</v>
+        <v>328100</v>
       </c>
       <c r="H54" s="3">
-        <v>112100</v>
+        <v>112600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2015,19 +2015,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>104100</v>
+        <v>104600</v>
       </c>
       <c r="E57" s="3">
-        <v>137700</v>
+        <v>138300</v>
       </c>
       <c r="F57" s="3">
-        <v>169500</v>
+        <v>170200</v>
       </c>
       <c r="G57" s="3">
-        <v>64100</v>
+        <v>64400</v>
       </c>
       <c r="H57" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2045,7 +2045,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35700</v>
+        <v>35900</v>
       </c>
       <c r="E58" s="3">
         <v>3800</v>
@@ -2057,7 +2057,7 @@
         <v>2400</v>
       </c>
       <c r="H58" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2075,19 +2075,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>821900</v>
+        <v>825500</v>
       </c>
       <c r="E59" s="3">
-        <v>672500</v>
+        <v>675400</v>
       </c>
       <c r="F59" s="3">
-        <v>406900</v>
+        <v>408700</v>
       </c>
       <c r="G59" s="3">
-        <v>110400</v>
+        <v>110900</v>
       </c>
       <c r="H59" s="3">
-        <v>33000</v>
+        <v>33200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30300</v>
+        <v>30400</v>
       </c>
       <c r="E62" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="F62" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,19 +2285,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1575400</v>
+        <v>1582300</v>
       </c>
       <c r="E66" s="3">
-        <v>1098100</v>
+        <v>1102900</v>
       </c>
       <c r="F66" s="3">
-        <v>757800</v>
+        <v>761100</v>
       </c>
       <c r="G66" s="3">
-        <v>209200</v>
+        <v>210100</v>
       </c>
       <c r="H66" s="3">
-        <v>71300</v>
+        <v>71600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2398,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>184200</v>
+        <v>185000</v>
       </c>
       <c r="H70" s="3">
-        <v>89100</v>
+        <v>89500</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2449,19 +2449,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>347400</v>
+        <v>348900</v>
       </c>
       <c r="E72" s="3">
-        <v>45900</v>
+        <v>46100</v>
       </c>
       <c r="F72" s="3">
-        <v>-356600</v>
+        <v>-358100</v>
       </c>
       <c r="G72" s="3">
-        <v>-53800</v>
+        <v>-54000</v>
       </c>
       <c r="H72" s="3">
-        <v>-44600</v>
+        <v>-44700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2569,19 +2569,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1209000</v>
+        <v>1214300</v>
       </c>
       <c r="E76" s="3">
-        <v>901100</v>
+        <v>905100</v>
       </c>
       <c r="F76" s="3">
-        <v>551000</v>
+        <v>553400</v>
       </c>
       <c r="G76" s="3">
-        <v>-66700</v>
+        <v>-67000</v>
       </c>
       <c r="H76" s="3">
-        <v>-48300</v>
+        <v>-48500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>361000</v>
+        <v>362500</v>
       </c>
       <c r="E81" s="3">
-        <v>375600</v>
+        <v>377200</v>
       </c>
       <c r="F81" s="3">
-        <v>-302800</v>
+        <v>-304100</v>
       </c>
       <c r="G81" s="3">
         <v>-9200</v>
       </c>
       <c r="H81" s="3">
-        <v>-27500</v>
+        <v>-27600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-32800</v>
+        <v>-32900</v>
       </c>
       <c r="E89" s="3">
-        <v>286700</v>
+        <v>288000</v>
       </c>
       <c r="F89" s="3">
-        <v>283600</v>
+        <v>284900</v>
       </c>
       <c r="G89" s="3">
-        <v>81200</v>
+        <v>81600</v>
       </c>
       <c r="H89" s="3">
-        <v>-29200</v>
+        <v>-29300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2935,13 +2935,13 @@
         <v>-7400</v>
       </c>
       <c r="E91" s="3">
-        <v>-12700</v>
+        <v>-12800</v>
       </c>
       <c r="F91" s="3">
-        <v>-13800</v>
+        <v>-13900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="H91" s="3">
         <v>-2700</v>
@@ -3022,19 +3022,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-126000</v>
+        <v>-126500</v>
       </c>
       <c r="E94" s="3">
-        <v>-220100</v>
+        <v>-221100</v>
       </c>
       <c r="F94" s="3">
-        <v>-379600</v>
+        <v>-381300</v>
       </c>
       <c r="G94" s="3">
-        <v>-100900</v>
+        <v>-101300</v>
       </c>
       <c r="H94" s="3">
-        <v>-20100</v>
+        <v>-20200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3186,19 +3186,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>266100</v>
+        <v>267300</v>
       </c>
       <c r="E100" s="3">
-        <v>80600</v>
+        <v>81000</v>
       </c>
       <c r="F100" s="3">
-        <v>324500</v>
+        <v>325900</v>
       </c>
       <c r="G100" s="3">
-        <v>66700</v>
+        <v>67000</v>
       </c>
       <c r="H100" s="3">
-        <v>51400</v>
+        <v>51600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3222,7 +3222,7 @@
         <v>6400</v>
       </c>
       <c r="F101" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="G101" s="3">
         <v>400</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>109100</v>
+        <v>109500</v>
       </c>
       <c r="E102" s="3">
-        <v>153600</v>
+        <v>154300</v>
       </c>
       <c r="F102" s="3">
-        <v>226100</v>
+        <v>227100</v>
       </c>
       <c r="G102" s="3">
-        <v>47500</v>
+        <v>47700</v>
       </c>
       <c r="H102" s="3">
         <v>2300</v>

--- a/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,75 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>911000</v>
+        <v>1179900</v>
       </c>
       <c r="E8" s="3">
-        <v>664700</v>
+        <v>930200</v>
       </c>
       <c r="F8" s="3">
-        <v>592900</v>
+        <v>678800</v>
       </c>
       <c r="G8" s="3">
-        <v>185700</v>
+        <v>605400</v>
       </c>
       <c r="H8" s="3">
-        <v>29900</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>189700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>30500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -738,29 +741,32 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>184600</v>
+        <v>206800</v>
       </c>
       <c r="E9" s="3">
-        <v>150600</v>
+        <v>188500</v>
       </c>
       <c r="F9" s="3">
-        <v>148900</v>
+        <v>153800</v>
       </c>
       <c r="G9" s="3">
-        <v>59300</v>
+        <v>152000</v>
       </c>
       <c r="H9" s="3">
-        <v>15200</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>60600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>15500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -768,29 +774,32 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>726400</v>
+        <v>973100</v>
       </c>
       <c r="E10" s="3">
-        <v>514200</v>
+        <v>741800</v>
       </c>
       <c r="F10" s="3">
-        <v>444000</v>
+        <v>525000</v>
       </c>
       <c r="G10" s="3">
-        <v>126400</v>
+        <v>453400</v>
       </c>
       <c r="H10" s="3">
-        <v>14700</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>129100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>15000</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,38 +825,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>59700</v>
+        <v>57800</v>
       </c>
       <c r="E12" s="3">
-        <v>48600</v>
+        <v>60900</v>
       </c>
       <c r="F12" s="3">
-        <v>25200</v>
+        <v>49600</v>
       </c>
       <c r="G12" s="3">
-        <v>17500</v>
+        <v>25700</v>
       </c>
       <c r="H12" s="3">
+        <v>17900</v>
+      </c>
+      <c r="I12" s="3">
         <v>2200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,29 +888,32 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>313300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-3100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>-3200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -902,9 +921,12 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,28 +969,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>506700</v>
+        <v>819900</v>
       </c>
       <c r="E17" s="3">
-        <v>382600</v>
+        <v>517400</v>
       </c>
       <c r="F17" s="3">
-        <v>359300</v>
+        <v>390700</v>
       </c>
       <c r="G17" s="3">
-        <v>146400</v>
+        <v>366900</v>
       </c>
       <c r="H17" s="3">
-        <v>52100</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>149500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>53200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -973,29 +999,32 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>404300</v>
+        <v>360000</v>
       </c>
       <c r="E18" s="3">
-        <v>282100</v>
+        <v>412900</v>
       </c>
       <c r="F18" s="3">
-        <v>233600</v>
+        <v>288100</v>
       </c>
       <c r="G18" s="3">
-        <v>39300</v>
+        <v>238600</v>
       </c>
       <c r="H18" s="3">
-        <v>-22200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>40200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-22600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,28 +1050,29 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>32100</v>
+        <v>18200</v>
       </c>
       <c r="E20" s="3">
-        <v>118300</v>
+        <v>32800</v>
       </c>
       <c r="F20" s="3">
-        <v>-26200</v>
+        <v>120800</v>
       </c>
       <c r="G20" s="3">
-        <v>44700</v>
+        <v>-26800</v>
       </c>
       <c r="H20" s="3">
-        <v>11800</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>45600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>12100</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1047,29 +1080,32 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>445300</v>
+        <v>386200</v>
       </c>
       <c r="E21" s="3">
-        <v>406800</v>
+        <v>454600</v>
       </c>
       <c r="F21" s="3">
-        <v>210900</v>
+        <v>415400</v>
       </c>
       <c r="G21" s="3">
-        <v>85800</v>
+        <v>215300</v>
       </c>
       <c r="H21" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>87700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-10100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1077,9 +1113,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,29 +1146,32 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>436400</v>
+        <v>378200</v>
       </c>
       <c r="E23" s="3">
-        <v>400400</v>
+        <v>445600</v>
       </c>
       <c r="F23" s="3">
-        <v>207400</v>
+        <v>408800</v>
       </c>
       <c r="G23" s="3">
-        <v>84000</v>
+        <v>211800</v>
       </c>
       <c r="H23" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>85800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-10600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1137,39 +1179,45 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>73600</v>
+        <v>71100</v>
       </c>
       <c r="E24" s="3">
-        <v>23100</v>
+        <v>75200</v>
       </c>
       <c r="F24" s="3">
-        <v>42000</v>
+        <v>23600</v>
       </c>
       <c r="G24" s="3">
-        <v>7400</v>
+        <v>42900</v>
       </c>
       <c r="H24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,29 +1245,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>362800</v>
+        <v>307100</v>
       </c>
       <c r="E26" s="3">
-        <v>377300</v>
+        <v>370400</v>
       </c>
       <c r="F26" s="3">
-        <v>165400</v>
+        <v>385300</v>
       </c>
       <c r="G26" s="3">
-        <v>76600</v>
+        <v>168900</v>
       </c>
       <c r="H26" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>78200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-11300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1227,29 +1278,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>362500</v>
+        <v>307800</v>
       </c>
       <c r="E27" s="3">
-        <v>377200</v>
+        <v>370200</v>
       </c>
       <c r="F27" s="3">
-        <v>-304100</v>
+        <v>385200</v>
       </c>
       <c r="G27" s="3">
-        <v>-9200</v>
+        <v>-310500</v>
       </c>
       <c r="H27" s="3">
-        <v>-27600</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-9400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-28200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,29 +1443,32 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-32100</v>
+        <v>-18200</v>
       </c>
       <c r="E32" s="3">
-        <v>-118300</v>
+        <v>-32800</v>
       </c>
       <c r="F32" s="3">
-        <v>26200</v>
+        <v>-120800</v>
       </c>
       <c r="G32" s="3">
-        <v>-44700</v>
+        <v>26800</v>
       </c>
       <c r="H32" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>-45600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-12100</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1407,29 +1476,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>362500</v>
+        <v>307800</v>
       </c>
       <c r="E33" s="3">
-        <v>377200</v>
+        <v>370200</v>
       </c>
       <c r="F33" s="3">
-        <v>-304100</v>
+        <v>385200</v>
       </c>
       <c r="G33" s="3">
-        <v>-9200</v>
+        <v>-310500</v>
       </c>
       <c r="H33" s="3">
-        <v>-27600</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-9400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-28200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,29 +1542,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>362500</v>
+        <v>307800</v>
       </c>
       <c r="E35" s="3">
-        <v>377200</v>
+        <v>370200</v>
       </c>
       <c r="F35" s="3">
-        <v>-304100</v>
+        <v>385200</v>
       </c>
       <c r="G35" s="3">
-        <v>-9200</v>
+        <v>-310500</v>
       </c>
       <c r="H35" s="3">
-        <v>-27600</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-9400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-28200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1497,44 +1575,50 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,28 +1646,29 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>355100</v>
+        <v>410600</v>
       </c>
       <c r="E41" s="3">
-        <v>246900</v>
+        <v>362700</v>
       </c>
       <c r="F41" s="3">
-        <v>288900</v>
+        <v>252100</v>
       </c>
       <c r="G41" s="3">
-        <v>61800</v>
+        <v>295000</v>
       </c>
       <c r="H41" s="3">
-        <v>14100</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>63100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>14400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,29 +1709,32 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>692400</v>
+        <v>309800</v>
       </c>
       <c r="E43" s="3">
-        <v>439800</v>
+        <v>707000</v>
       </c>
       <c r="F43" s="3">
-        <v>179100</v>
+        <v>449100</v>
       </c>
       <c r="G43" s="3">
-        <v>46900</v>
+        <v>182900</v>
       </c>
       <c r="H43" s="3">
-        <v>26500</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>47900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>27100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,29 +1775,32 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>212500</v>
+        <v>163800</v>
       </c>
       <c r="E45" s="3">
-        <v>30300</v>
+        <v>217000</v>
       </c>
       <c r="F45" s="3">
-        <v>20800</v>
+        <v>31000</v>
       </c>
       <c r="G45" s="3">
-        <v>13300</v>
+        <v>21200</v>
       </c>
       <c r="H45" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>13600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1710,9 +1808,12 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1740,29 +1841,32 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>900800</v>
+        <v>823200</v>
       </c>
       <c r="E47" s="3">
-        <v>658200</v>
+        <v>919900</v>
       </c>
       <c r="F47" s="3">
-        <v>405300</v>
+        <v>672100</v>
       </c>
       <c r="G47" s="3">
-        <v>46100</v>
+        <v>413900</v>
       </c>
       <c r="H47" s="3">
-        <v>19200</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>47100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>19600</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1770,29 +1874,32 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35200</v>
+        <v>23200</v>
       </c>
       <c r="E48" s="3">
-        <v>22000</v>
+        <v>35900</v>
       </c>
       <c r="F48" s="3">
-        <v>16500</v>
+        <v>22500</v>
       </c>
       <c r="G48" s="3">
-        <v>5700</v>
+        <v>16900</v>
       </c>
       <c r="H48" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>5900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1800,23 +1907,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17500</v>
+        <v>23300</v>
       </c>
       <c r="E49" s="3">
-        <v>18200</v>
+        <v>17900</v>
       </c>
       <c r="F49" s="3">
-        <v>17400</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>18600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>17800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,29 +2006,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>583000</v>
+        <v>567900</v>
       </c>
       <c r="E52" s="3">
-        <v>580600</v>
+        <v>595300</v>
       </c>
       <c r="F52" s="3">
-        <v>385100</v>
+        <v>592900</v>
       </c>
       <c r="G52" s="3">
-        <v>127500</v>
+        <v>393300</v>
       </c>
       <c r="H52" s="3">
-        <v>43500</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>130200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>44400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,29 +2072,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2796600</v>
+        <v>2321800</v>
       </c>
       <c r="E54" s="3">
-        <v>2007900</v>
+        <v>2855700</v>
       </c>
       <c r="F54" s="3">
-        <v>1314500</v>
+        <v>2050400</v>
       </c>
       <c r="G54" s="3">
-        <v>328100</v>
+        <v>1342300</v>
       </c>
       <c r="H54" s="3">
-        <v>112600</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>335000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>115000</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,28 +2138,29 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>104600</v>
+        <v>16100</v>
       </c>
       <c r="E57" s="3">
-        <v>138300</v>
+        <v>106800</v>
       </c>
       <c r="F57" s="3">
-        <v>170200</v>
+        <v>141200</v>
       </c>
       <c r="G57" s="3">
-        <v>64400</v>
+        <v>173800</v>
       </c>
       <c r="H57" s="3">
-        <v>26900</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>65800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>27500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2038,59 +2168,65 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35900</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>3800</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
+        <v>36700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>825500</v>
+        <v>136200</v>
       </c>
       <c r="E59" s="3">
-        <v>675400</v>
+        <v>842900</v>
       </c>
       <c r="F59" s="3">
-        <v>408700</v>
+        <v>689700</v>
       </c>
       <c r="G59" s="3">
-        <v>110900</v>
+        <v>417400</v>
       </c>
       <c r="H59" s="3">
-        <v>33200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>113300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>33900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2098,9 +2234,12 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,23 +2300,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30400</v>
+        <v>16200</v>
       </c>
       <c r="E62" s="3">
-        <v>15300</v>
+        <v>31000</v>
       </c>
       <c r="F62" s="3">
-        <v>18900</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>15600</v>
+      </c>
+      <c r="G62" s="3">
+        <v>19300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,29 +2432,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1582300</v>
+        <v>1017000</v>
       </c>
       <c r="E66" s="3">
-        <v>1102900</v>
+        <v>1615700</v>
       </c>
       <c r="F66" s="3">
-        <v>761100</v>
+        <v>1126200</v>
       </c>
       <c r="G66" s="3">
-        <v>210100</v>
+        <v>777200</v>
       </c>
       <c r="H66" s="3">
-        <v>71600</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>214500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>73100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2398,13 +2565,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>185000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>89500</v>
+        <v>188900</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>91400</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,29 +2612,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>348900</v>
+        <v>485200</v>
       </c>
       <c r="E72" s="3">
-        <v>46100</v>
+        <v>356300</v>
       </c>
       <c r="F72" s="3">
-        <v>-358100</v>
+        <v>47100</v>
       </c>
       <c r="G72" s="3">
-        <v>-54000</v>
+        <v>-365700</v>
       </c>
       <c r="H72" s="3">
-        <v>-44700</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-55100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-45700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,29 +2744,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1214300</v>
+        <v>1304800</v>
       </c>
       <c r="E76" s="3">
-        <v>905100</v>
+        <v>1240000</v>
       </c>
       <c r="F76" s="3">
-        <v>553400</v>
+        <v>924200</v>
       </c>
       <c r="G76" s="3">
-        <v>-67000</v>
+        <v>565100</v>
       </c>
       <c r="H76" s="3">
-        <v>-48500</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-68400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-49500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,64 +2810,70 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>362500</v>
+        <v>307800</v>
       </c>
       <c r="E81" s="3">
-        <v>377200</v>
+        <v>370200</v>
       </c>
       <c r="F81" s="3">
-        <v>-304100</v>
+        <v>385200</v>
       </c>
       <c r="G81" s="3">
-        <v>-9200</v>
+        <v>-310500</v>
       </c>
       <c r="H81" s="3">
-        <v>-27600</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-9400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-28200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8800</v>
+        <v>8100</v>
       </c>
       <c r="E83" s="3">
-        <v>6400</v>
+        <v>9000</v>
       </c>
       <c r="F83" s="3">
-        <v>3400</v>
+        <v>6600</v>
       </c>
       <c r="G83" s="3">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="H83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,29 +3094,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-32900</v>
+        <v>344300</v>
       </c>
       <c r="E89" s="3">
-        <v>288000</v>
+        <v>-33600</v>
       </c>
       <c r="F89" s="3">
-        <v>284900</v>
+        <v>294100</v>
       </c>
       <c r="G89" s="3">
-        <v>81600</v>
+        <v>290900</v>
       </c>
       <c r="H89" s="3">
-        <v>-29300</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>83300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-29900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7400</v>
+        <v>-1700</v>
       </c>
       <c r="E91" s="3">
-        <v>-12800</v>
+        <v>-7600</v>
       </c>
       <c r="F91" s="3">
-        <v>-13900</v>
+        <v>-13000</v>
       </c>
       <c r="G91" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-4600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,29 +3241,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-126500</v>
+        <v>162500</v>
       </c>
       <c r="E94" s="3">
-        <v>-221100</v>
+        <v>-129200</v>
       </c>
       <c r="F94" s="3">
-        <v>-381300</v>
+        <v>-225700</v>
       </c>
       <c r="G94" s="3">
-        <v>-101300</v>
+        <v>-389300</v>
       </c>
       <c r="H94" s="3">
-        <v>-20200</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-103400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-20600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,29 +3421,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>267300</v>
+        <v>-482300</v>
       </c>
       <c r="E100" s="3">
-        <v>81000</v>
+        <v>272900</v>
       </c>
       <c r="F100" s="3">
-        <v>325900</v>
+        <v>82700</v>
       </c>
       <c r="G100" s="3">
-        <v>67000</v>
+        <v>332800</v>
       </c>
       <c r="H100" s="3">
-        <v>51600</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>68400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>52700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3209,59 +3454,65 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1700</v>
+        <v>-8000</v>
       </c>
       <c r="E101" s="3">
-        <v>6400</v>
+        <v>1800</v>
       </c>
       <c r="F101" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>109500</v>
+        <v>16500</v>
       </c>
       <c r="E102" s="3">
-        <v>154300</v>
+        <v>111900</v>
       </c>
       <c r="F102" s="3">
-        <v>227100</v>
+        <v>157600</v>
       </c>
       <c r="G102" s="3">
-        <v>47700</v>
+        <v>231900</v>
       </c>
       <c r="H102" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>48700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1179900</v>
+        <v>1164600</v>
       </c>
       <c r="E8" s="3">
-        <v>930200</v>
+        <v>918100</v>
       </c>
       <c r="F8" s="3">
-        <v>678800</v>
+        <v>670000</v>
       </c>
       <c r="G8" s="3">
-        <v>605400</v>
+        <v>597500</v>
       </c>
       <c r="H8" s="3">
-        <v>189700</v>
+        <v>187200</v>
       </c>
       <c r="I8" s="3">
-        <v>30500</v>
+        <v>30100</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>206800</v>
+        <v>204100</v>
       </c>
       <c r="E9" s="3">
-        <v>188500</v>
+        <v>186000</v>
       </c>
       <c r="F9" s="3">
-        <v>153800</v>
+        <v>151800</v>
       </c>
       <c r="G9" s="3">
-        <v>152000</v>
+        <v>150100</v>
       </c>
       <c r="H9" s="3">
-        <v>60600</v>
+        <v>59800</v>
       </c>
       <c r="I9" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>973100</v>
+        <v>960400</v>
       </c>
       <c r="E10" s="3">
-        <v>741800</v>
+        <v>732100</v>
       </c>
       <c r="F10" s="3">
-        <v>525000</v>
+        <v>518200</v>
       </c>
       <c r="G10" s="3">
-        <v>453400</v>
+        <v>447500</v>
       </c>
       <c r="H10" s="3">
-        <v>129100</v>
+        <v>127400</v>
       </c>
       <c r="I10" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>57800</v>
+        <v>57000</v>
       </c>
       <c r="E12" s="3">
-        <v>60900</v>
+        <v>60100</v>
       </c>
       <c r="F12" s="3">
-        <v>49600</v>
+        <v>49000</v>
       </c>
       <c r="G12" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="H12" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="I12" s="3">
         <v>2200</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>313300</v>
+        <v>309200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>819900</v>
+        <v>809300</v>
       </c>
       <c r="E17" s="3">
-        <v>517400</v>
+        <v>510600</v>
       </c>
       <c r="F17" s="3">
-        <v>390700</v>
+        <v>385600</v>
       </c>
       <c r="G17" s="3">
-        <v>366900</v>
+        <v>362100</v>
       </c>
       <c r="H17" s="3">
-        <v>149500</v>
+        <v>147600</v>
       </c>
       <c r="I17" s="3">
-        <v>53200</v>
+        <v>52500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>360000</v>
+        <v>355300</v>
       </c>
       <c r="E18" s="3">
-        <v>412900</v>
+        <v>407500</v>
       </c>
       <c r="F18" s="3">
-        <v>288100</v>
+        <v>284300</v>
       </c>
       <c r="G18" s="3">
-        <v>238600</v>
+        <v>235500</v>
       </c>
       <c r="H18" s="3">
-        <v>40200</v>
+        <v>39600</v>
       </c>
       <c r="I18" s="3">
-        <v>-22600</v>
+        <v>-22300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,22 +1057,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18200</v>
+        <v>17900</v>
       </c>
       <c r="E20" s="3">
-        <v>32800</v>
+        <v>32300</v>
       </c>
       <c r="F20" s="3">
-        <v>120800</v>
+        <v>119200</v>
       </c>
       <c r="G20" s="3">
-        <v>-26800</v>
+        <v>-26400</v>
       </c>
       <c r="H20" s="3">
-        <v>45600</v>
+        <v>45000</v>
       </c>
       <c r="I20" s="3">
-        <v>12100</v>
+        <v>11900</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>386200</v>
+        <v>381200</v>
       </c>
       <c r="E21" s="3">
-        <v>454600</v>
+        <v>448700</v>
       </c>
       <c r="F21" s="3">
-        <v>415400</v>
+        <v>410000</v>
       </c>
       <c r="G21" s="3">
-        <v>215300</v>
+        <v>212500</v>
       </c>
       <c r="H21" s="3">
-        <v>87700</v>
+        <v>86500</v>
       </c>
       <c r="I21" s="3">
-        <v>-10100</v>
+        <v>-9900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>378200</v>
+        <v>373200</v>
       </c>
       <c r="E23" s="3">
-        <v>445600</v>
+        <v>439800</v>
       </c>
       <c r="F23" s="3">
-        <v>408800</v>
+        <v>403500</v>
       </c>
       <c r="G23" s="3">
-        <v>211800</v>
+        <v>209000</v>
       </c>
       <c r="H23" s="3">
-        <v>85800</v>
+        <v>84700</v>
       </c>
       <c r="I23" s="3">
-        <v>-10600</v>
+        <v>-10400</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>71100</v>
+        <v>70100</v>
       </c>
       <c r="E24" s="3">
-        <v>75200</v>
+        <v>74200</v>
       </c>
       <c r="F24" s="3">
-        <v>23600</v>
+        <v>23300</v>
       </c>
       <c r="G24" s="3">
-        <v>42900</v>
+        <v>42300</v>
       </c>
       <c r="H24" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I24" s="3">
         <v>700</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>307100</v>
+        <v>303100</v>
       </c>
       <c r="E26" s="3">
-        <v>370400</v>
+        <v>365600</v>
       </c>
       <c r="F26" s="3">
-        <v>385300</v>
+        <v>380200</v>
       </c>
       <c r="G26" s="3">
-        <v>168900</v>
+        <v>166700</v>
       </c>
       <c r="H26" s="3">
-        <v>78200</v>
+        <v>77200</v>
       </c>
       <c r="I26" s="3">
-        <v>-11300</v>
+        <v>-11100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>307800</v>
+        <v>303800</v>
       </c>
       <c r="E27" s="3">
-        <v>370200</v>
+        <v>365400</v>
       </c>
       <c r="F27" s="3">
-        <v>385200</v>
+        <v>380200</v>
       </c>
       <c r="G27" s="3">
-        <v>-310500</v>
+        <v>-306500</v>
       </c>
       <c r="H27" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="I27" s="3">
-        <v>-28200</v>
+        <v>-27900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1453,22 +1453,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18200</v>
+        <v>-17900</v>
       </c>
       <c r="E32" s="3">
-        <v>-32800</v>
+        <v>-32300</v>
       </c>
       <c r="F32" s="3">
-        <v>-120800</v>
+        <v>-119200</v>
       </c>
       <c r="G32" s="3">
-        <v>26800</v>
+        <v>26400</v>
       </c>
       <c r="H32" s="3">
-        <v>-45600</v>
+        <v>-45000</v>
       </c>
       <c r="I32" s="3">
-        <v>-12100</v>
+        <v>-11900</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>307800</v>
+        <v>303800</v>
       </c>
       <c r="E33" s="3">
-        <v>370200</v>
+        <v>365400</v>
       </c>
       <c r="F33" s="3">
-        <v>385200</v>
+        <v>380200</v>
       </c>
       <c r="G33" s="3">
-        <v>-310500</v>
+        <v>-306500</v>
       </c>
       <c r="H33" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="I33" s="3">
-        <v>-28200</v>
+        <v>-27900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>307800</v>
+        <v>303800</v>
       </c>
       <c r="E35" s="3">
-        <v>370200</v>
+        <v>365400</v>
       </c>
       <c r="F35" s="3">
-        <v>385200</v>
+        <v>380200</v>
       </c>
       <c r="G35" s="3">
-        <v>-310500</v>
+        <v>-306500</v>
       </c>
       <c r="H35" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="I35" s="3">
-        <v>-28200</v>
+        <v>-27900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>410600</v>
+        <v>405300</v>
       </c>
       <c r="E41" s="3">
-        <v>362700</v>
+        <v>357900</v>
       </c>
       <c r="F41" s="3">
-        <v>252100</v>
+        <v>248900</v>
       </c>
       <c r="G41" s="3">
-        <v>295000</v>
+        <v>291200</v>
       </c>
       <c r="H41" s="3">
-        <v>63100</v>
+        <v>62300</v>
       </c>
       <c r="I41" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>309800</v>
+        <v>305700</v>
       </c>
       <c r="E43" s="3">
-        <v>707000</v>
+        <v>697800</v>
       </c>
       <c r="F43" s="3">
-        <v>449100</v>
+        <v>443200</v>
       </c>
       <c r="G43" s="3">
-        <v>182900</v>
+        <v>180600</v>
       </c>
       <c r="H43" s="3">
-        <v>47900</v>
+        <v>47300</v>
       </c>
       <c r="I43" s="3">
-        <v>27100</v>
+        <v>26700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1785,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>163800</v>
+        <v>161700</v>
       </c>
       <c r="E45" s="3">
-        <v>217000</v>
+        <v>214200</v>
       </c>
       <c r="F45" s="3">
-        <v>31000</v>
+        <v>30600</v>
       </c>
       <c r="G45" s="3">
-        <v>21200</v>
+        <v>20900</v>
       </c>
       <c r="H45" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="I45" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1851,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>823200</v>
+        <v>812500</v>
       </c>
       <c r="E47" s="3">
-        <v>919900</v>
+        <v>907900</v>
       </c>
       <c r="F47" s="3">
-        <v>672100</v>
+        <v>663400</v>
       </c>
       <c r="G47" s="3">
-        <v>413900</v>
+        <v>408500</v>
       </c>
       <c r="H47" s="3">
-        <v>47100</v>
+        <v>46500</v>
       </c>
       <c r="I47" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23200</v>
+        <v>22900</v>
       </c>
       <c r="E48" s="3">
-        <v>35900</v>
+        <v>35400</v>
       </c>
       <c r="F48" s="3">
-        <v>22500</v>
+        <v>22200</v>
       </c>
       <c r="G48" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="H48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="I48" s="3">
         <v>3100</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23300</v>
+        <v>23000</v>
       </c>
       <c r="E49" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="F49" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="G49" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,22 +2016,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>567900</v>
+        <v>560500</v>
       </c>
       <c r="E52" s="3">
-        <v>595300</v>
+        <v>587600</v>
       </c>
       <c r="F52" s="3">
-        <v>592900</v>
+        <v>585200</v>
       </c>
       <c r="G52" s="3">
-        <v>393300</v>
+        <v>388200</v>
       </c>
       <c r="H52" s="3">
-        <v>130200</v>
+        <v>128500</v>
       </c>
       <c r="I52" s="3">
-        <v>44400</v>
+        <v>43800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2321800</v>
+        <v>2291600</v>
       </c>
       <c r="E54" s="3">
-        <v>2855700</v>
+        <v>2818500</v>
       </c>
       <c r="F54" s="3">
-        <v>2050400</v>
+        <v>2023700</v>
       </c>
       <c r="G54" s="3">
-        <v>1342300</v>
+        <v>1324800</v>
       </c>
       <c r="H54" s="3">
-        <v>335000</v>
+        <v>330600</v>
       </c>
       <c r="I54" s="3">
-        <v>115000</v>
+        <v>113500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="E57" s="3">
-        <v>106800</v>
+        <v>105400</v>
       </c>
       <c r="F57" s="3">
-        <v>141200</v>
+        <v>139400</v>
       </c>
       <c r="G57" s="3">
-        <v>173800</v>
+        <v>171500</v>
       </c>
       <c r="H57" s="3">
-        <v>65800</v>
+        <v>64900</v>
       </c>
       <c r="I57" s="3">
-        <v>27500</v>
+        <v>27100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2181,10 +2181,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>36700</v>
+        <v>36200</v>
       </c>
       <c r="F58" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>136200</v>
+        <v>134400</v>
       </c>
       <c r="E59" s="3">
-        <v>842900</v>
+        <v>832000</v>
       </c>
       <c r="F59" s="3">
-        <v>689700</v>
+        <v>680700</v>
       </c>
       <c r="G59" s="3">
-        <v>417400</v>
+        <v>411900</v>
       </c>
       <c r="H59" s="3">
-        <v>113300</v>
+        <v>111800</v>
       </c>
       <c r="I59" s="3">
-        <v>33900</v>
+        <v>33400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16200</v>
+        <v>15900</v>
       </c>
       <c r="E62" s="3">
-        <v>31000</v>
+        <v>30600</v>
       </c>
       <c r="F62" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="G62" s="3">
-        <v>19300</v>
+        <v>19000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1017000</v>
+        <v>1003800</v>
       </c>
       <c r="E66" s="3">
-        <v>1615700</v>
+        <v>1594700</v>
       </c>
       <c r="F66" s="3">
-        <v>1126200</v>
+        <v>1111500</v>
       </c>
       <c r="G66" s="3">
-        <v>777200</v>
+        <v>767100</v>
       </c>
       <c r="H66" s="3">
-        <v>214500</v>
+        <v>211700</v>
       </c>
       <c r="I66" s="3">
-        <v>73100</v>
+        <v>72100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>188900</v>
+        <v>186400</v>
       </c>
       <c r="I70" s="3">
-        <v>91400</v>
+        <v>90200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>485200</v>
+        <v>478900</v>
       </c>
       <c r="E72" s="3">
-        <v>356300</v>
+        <v>351700</v>
       </c>
       <c r="F72" s="3">
-        <v>47100</v>
+        <v>46500</v>
       </c>
       <c r="G72" s="3">
-        <v>-365700</v>
+        <v>-360900</v>
       </c>
       <c r="H72" s="3">
-        <v>-55100</v>
+        <v>-54400</v>
       </c>
       <c r="I72" s="3">
-        <v>-45700</v>
+        <v>-45100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1304800</v>
+        <v>1287800</v>
       </c>
       <c r="E76" s="3">
-        <v>1240000</v>
+        <v>1223800</v>
       </c>
       <c r="F76" s="3">
-        <v>924200</v>
+        <v>912200</v>
       </c>
       <c r="G76" s="3">
-        <v>565100</v>
+        <v>557700</v>
       </c>
       <c r="H76" s="3">
-        <v>-68400</v>
+        <v>-67500</v>
       </c>
       <c r="I76" s="3">
-        <v>-49500</v>
+        <v>-48900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>307800</v>
+        <v>303800</v>
       </c>
       <c r="E81" s="3">
-        <v>370200</v>
+        <v>365400</v>
       </c>
       <c r="F81" s="3">
-        <v>385200</v>
+        <v>380200</v>
       </c>
       <c r="G81" s="3">
-        <v>-310500</v>
+        <v>-306500</v>
       </c>
       <c r="H81" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="I81" s="3">
-        <v>-28200</v>
+        <v>-27900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="E83" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="F83" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="G83" s="3">
         <v>3500</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>344300</v>
+        <v>339800</v>
       </c>
       <c r="E89" s="3">
-        <v>-33600</v>
+        <v>-33200</v>
       </c>
       <c r="F89" s="3">
-        <v>294100</v>
+        <v>290200</v>
       </c>
       <c r="G89" s="3">
-        <v>290900</v>
+        <v>287100</v>
       </c>
       <c r="H89" s="3">
-        <v>83300</v>
+        <v>82200</v>
       </c>
       <c r="I89" s="3">
-        <v>-29900</v>
+        <v>-29500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3155,13 +3155,13 @@
         <v>-1700</v>
       </c>
       <c r="E91" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="F91" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="G91" s="3">
-        <v>-14200</v>
+        <v>-14000</v>
       </c>
       <c r="H91" s="3">
         <v>-4600</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>162500</v>
+        <v>160400</v>
       </c>
       <c r="E94" s="3">
-        <v>-129200</v>
+        <v>-127500</v>
       </c>
       <c r="F94" s="3">
-        <v>-225700</v>
+        <v>-222800</v>
       </c>
       <c r="G94" s="3">
-        <v>-389300</v>
+        <v>-384300</v>
       </c>
       <c r="H94" s="3">
-        <v>-103400</v>
+        <v>-102100</v>
       </c>
       <c r="I94" s="3">
-        <v>-20600</v>
+        <v>-20400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-482300</v>
+        <v>-476000</v>
       </c>
       <c r="E100" s="3">
-        <v>272900</v>
+        <v>269400</v>
       </c>
       <c r="F100" s="3">
-        <v>82700</v>
+        <v>81600</v>
       </c>
       <c r="G100" s="3">
-        <v>332800</v>
+        <v>328400</v>
       </c>
       <c r="H100" s="3">
-        <v>68400</v>
+        <v>67600</v>
       </c>
       <c r="I100" s="3">
-        <v>52700</v>
+        <v>52100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3464,10 +3464,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8000</v>
+        <v>-7900</v>
       </c>
       <c r="E101" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F101" s="3">
         <v>6500</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="E102" s="3">
-        <v>111900</v>
+        <v>110400</v>
       </c>
       <c r="F102" s="3">
-        <v>157600</v>
+        <v>155500</v>
       </c>
       <c r="G102" s="3">
-        <v>231900</v>
+        <v>228900</v>
       </c>
       <c r="H102" s="3">
-        <v>48700</v>
+        <v>48100</v>
       </c>
       <c r="I102" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1164600</v>
+        <v>1184100</v>
       </c>
       <c r="E8" s="3">
-        <v>918100</v>
+        <v>933500</v>
       </c>
       <c r="F8" s="3">
-        <v>670000</v>
+        <v>681200</v>
       </c>
       <c r="G8" s="3">
-        <v>597500</v>
+        <v>607600</v>
       </c>
       <c r="H8" s="3">
-        <v>187200</v>
+        <v>190300</v>
       </c>
       <c r="I8" s="3">
-        <v>30100</v>
+        <v>30600</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>204100</v>
+        <v>207500</v>
       </c>
       <c r="E9" s="3">
-        <v>186000</v>
+        <v>189200</v>
       </c>
       <c r="F9" s="3">
-        <v>151800</v>
+        <v>154300</v>
       </c>
       <c r="G9" s="3">
-        <v>150100</v>
+        <v>152600</v>
       </c>
       <c r="H9" s="3">
-        <v>59800</v>
+        <v>60800</v>
       </c>
       <c r="I9" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>960400</v>
+        <v>976500</v>
       </c>
       <c r="E10" s="3">
-        <v>732100</v>
+        <v>744400</v>
       </c>
       <c r="F10" s="3">
-        <v>518200</v>
+        <v>526900</v>
       </c>
       <c r="G10" s="3">
-        <v>447500</v>
+        <v>455000</v>
       </c>
       <c r="H10" s="3">
-        <v>127400</v>
+        <v>129600</v>
       </c>
       <c r="I10" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>57000</v>
+        <v>58000</v>
       </c>
       <c r="E12" s="3">
-        <v>60100</v>
+        <v>61100</v>
       </c>
       <c r="F12" s="3">
-        <v>49000</v>
+        <v>49800</v>
       </c>
       <c r="G12" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="H12" s="3">
-        <v>17700</v>
+        <v>17900</v>
       </c>
       <c r="I12" s="3">
         <v>2200</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>309200</v>
+        <v>314400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>809300</v>
+        <v>822800</v>
       </c>
       <c r="E17" s="3">
-        <v>510600</v>
+        <v>519200</v>
       </c>
       <c r="F17" s="3">
-        <v>385600</v>
+        <v>392100</v>
       </c>
       <c r="G17" s="3">
-        <v>362100</v>
+        <v>368100</v>
       </c>
       <c r="H17" s="3">
-        <v>147600</v>
+        <v>150000</v>
       </c>
       <c r="I17" s="3">
-        <v>52500</v>
+        <v>53400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>355300</v>
+        <v>361300</v>
       </c>
       <c r="E18" s="3">
-        <v>407500</v>
+        <v>414300</v>
       </c>
       <c r="F18" s="3">
-        <v>284300</v>
+        <v>289100</v>
       </c>
       <c r="G18" s="3">
-        <v>235500</v>
+        <v>239400</v>
       </c>
       <c r="H18" s="3">
-        <v>39600</v>
+        <v>40300</v>
       </c>
       <c r="I18" s="3">
-        <v>-22300</v>
+        <v>-22700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,22 +1057,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="E20" s="3">
-        <v>32300</v>
+        <v>32900</v>
       </c>
       <c r="F20" s="3">
-        <v>119200</v>
+        <v>121200</v>
       </c>
       <c r="G20" s="3">
-        <v>-26400</v>
+        <v>-26900</v>
       </c>
       <c r="H20" s="3">
-        <v>45000</v>
+        <v>45800</v>
       </c>
       <c r="I20" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>381200</v>
+        <v>387600</v>
       </c>
       <c r="E21" s="3">
-        <v>448700</v>
+        <v>456200</v>
       </c>
       <c r="F21" s="3">
-        <v>410000</v>
+        <v>416900</v>
       </c>
       <c r="G21" s="3">
-        <v>212500</v>
+        <v>216100</v>
       </c>
       <c r="H21" s="3">
-        <v>86500</v>
+        <v>88000</v>
       </c>
       <c r="I21" s="3">
-        <v>-9900</v>
+        <v>-10100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>373200</v>
+        <v>379500</v>
       </c>
       <c r="E23" s="3">
-        <v>439800</v>
+        <v>447200</v>
       </c>
       <c r="F23" s="3">
-        <v>403500</v>
+        <v>410300</v>
       </c>
       <c r="G23" s="3">
-        <v>209000</v>
+        <v>212500</v>
       </c>
       <c r="H23" s="3">
-        <v>84700</v>
+        <v>86100</v>
       </c>
       <c r="I23" s="3">
-        <v>-10400</v>
+        <v>-10600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70100</v>
+        <v>71300</v>
       </c>
       <c r="E24" s="3">
-        <v>74200</v>
+        <v>75500</v>
       </c>
       <c r="F24" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="G24" s="3">
-        <v>42300</v>
+        <v>43000</v>
       </c>
       <c r="H24" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="I24" s="3">
         <v>700</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>303100</v>
+        <v>308200</v>
       </c>
       <c r="E26" s="3">
-        <v>365600</v>
+        <v>371800</v>
       </c>
       <c r="F26" s="3">
-        <v>380200</v>
+        <v>386600</v>
       </c>
       <c r="G26" s="3">
-        <v>166700</v>
+        <v>169500</v>
       </c>
       <c r="H26" s="3">
-        <v>77200</v>
+        <v>78500</v>
       </c>
       <c r="I26" s="3">
-        <v>-11100</v>
+        <v>-11300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>303800</v>
+        <v>308800</v>
       </c>
       <c r="E27" s="3">
-        <v>365400</v>
+        <v>371500</v>
       </c>
       <c r="F27" s="3">
-        <v>380200</v>
+        <v>386600</v>
       </c>
       <c r="G27" s="3">
-        <v>-306500</v>
+        <v>-311600</v>
       </c>
       <c r="H27" s="3">
-        <v>-9300</v>
+        <v>-9500</v>
       </c>
       <c r="I27" s="3">
-        <v>-27900</v>
+        <v>-28300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1453,22 +1453,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17900</v>
+        <v>-18200</v>
       </c>
       <c r="E32" s="3">
-        <v>-32300</v>
+        <v>-32900</v>
       </c>
       <c r="F32" s="3">
-        <v>-119200</v>
+        <v>-121200</v>
       </c>
       <c r="G32" s="3">
-        <v>26400</v>
+        <v>26900</v>
       </c>
       <c r="H32" s="3">
-        <v>-45000</v>
+        <v>-45800</v>
       </c>
       <c r="I32" s="3">
-        <v>-11900</v>
+        <v>-12100</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>303800</v>
+        <v>308800</v>
       </c>
       <c r="E33" s="3">
-        <v>365400</v>
+        <v>371500</v>
       </c>
       <c r="F33" s="3">
-        <v>380200</v>
+        <v>386600</v>
       </c>
       <c r="G33" s="3">
-        <v>-306500</v>
+        <v>-311600</v>
       </c>
       <c r="H33" s="3">
-        <v>-9300</v>
+        <v>-9500</v>
       </c>
       <c r="I33" s="3">
-        <v>-27900</v>
+        <v>-28300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>303800</v>
+        <v>308800</v>
       </c>
       <c r="E35" s="3">
-        <v>365400</v>
+        <v>371500</v>
       </c>
       <c r="F35" s="3">
-        <v>380200</v>
+        <v>386600</v>
       </c>
       <c r="G35" s="3">
-        <v>-306500</v>
+        <v>-311600</v>
       </c>
       <c r="H35" s="3">
-        <v>-9300</v>
+        <v>-9500</v>
       </c>
       <c r="I35" s="3">
-        <v>-27900</v>
+        <v>-28300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>405300</v>
+        <v>412100</v>
       </c>
       <c r="E41" s="3">
-        <v>357900</v>
+        <v>363900</v>
       </c>
       <c r="F41" s="3">
-        <v>248900</v>
+        <v>253000</v>
       </c>
       <c r="G41" s="3">
-        <v>291200</v>
+        <v>296100</v>
       </c>
       <c r="H41" s="3">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="I41" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>305700</v>
+        <v>310800</v>
       </c>
       <c r="E43" s="3">
-        <v>697800</v>
+        <v>709500</v>
       </c>
       <c r="F43" s="3">
-        <v>443200</v>
+        <v>450600</v>
       </c>
       <c r="G43" s="3">
-        <v>180600</v>
+        <v>183600</v>
       </c>
       <c r="H43" s="3">
-        <v>47300</v>
+        <v>48100</v>
       </c>
       <c r="I43" s="3">
-        <v>26700</v>
+        <v>27200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1785,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>161700</v>
+        <v>164400</v>
       </c>
       <c r="E45" s="3">
-        <v>214200</v>
+        <v>217800</v>
       </c>
       <c r="F45" s="3">
-        <v>30600</v>
+        <v>31100</v>
       </c>
       <c r="G45" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="H45" s="3">
-        <v>13400</v>
+        <v>13600</v>
       </c>
       <c r="I45" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1851,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>812500</v>
+        <v>826100</v>
       </c>
       <c r="E47" s="3">
-        <v>907900</v>
+        <v>923100</v>
       </c>
       <c r="F47" s="3">
-        <v>663400</v>
+        <v>674500</v>
       </c>
       <c r="G47" s="3">
-        <v>408500</v>
+        <v>415300</v>
       </c>
       <c r="H47" s="3">
-        <v>46500</v>
+        <v>47200</v>
       </c>
       <c r="I47" s="3">
-        <v>19400</v>
+        <v>19700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22900</v>
+        <v>23300</v>
       </c>
       <c r="E48" s="3">
-        <v>35400</v>
+        <v>36000</v>
       </c>
       <c r="F48" s="3">
-        <v>22200</v>
+        <v>22500</v>
       </c>
       <c r="G48" s="3">
-        <v>16700</v>
+        <v>16900</v>
       </c>
       <c r="H48" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="I48" s="3">
         <v>3100</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23000</v>
+        <v>23400</v>
       </c>
       <c r="E49" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="F49" s="3">
-        <v>18400</v>
+        <v>18700</v>
       </c>
       <c r="G49" s="3">
-        <v>17600</v>
+        <v>17900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,22 +2016,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>560500</v>
+        <v>569900</v>
       </c>
       <c r="E52" s="3">
-        <v>587600</v>
+        <v>597400</v>
       </c>
       <c r="F52" s="3">
-        <v>585200</v>
+        <v>595000</v>
       </c>
       <c r="G52" s="3">
-        <v>388200</v>
+        <v>394700</v>
       </c>
       <c r="H52" s="3">
-        <v>128500</v>
+        <v>130700</v>
       </c>
       <c r="I52" s="3">
-        <v>43800</v>
+        <v>44600</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2291600</v>
+        <v>2330000</v>
       </c>
       <c r="E54" s="3">
-        <v>2818500</v>
+        <v>2865700</v>
       </c>
       <c r="F54" s="3">
-        <v>2023700</v>
+        <v>2057600</v>
       </c>
       <c r="G54" s="3">
-        <v>1324800</v>
+        <v>1347000</v>
       </c>
       <c r="H54" s="3">
-        <v>330600</v>
+        <v>336200</v>
       </c>
       <c r="I54" s="3">
-        <v>113500</v>
+        <v>115400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="E57" s="3">
-        <v>105400</v>
+        <v>107200</v>
       </c>
       <c r="F57" s="3">
-        <v>139400</v>
+        <v>141700</v>
       </c>
       <c r="G57" s="3">
-        <v>171500</v>
+        <v>174400</v>
       </c>
       <c r="H57" s="3">
-        <v>64900</v>
+        <v>66000</v>
       </c>
       <c r="I57" s="3">
-        <v>27100</v>
+        <v>27600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2181,10 +2181,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>36200</v>
+        <v>36800</v>
       </c>
       <c r="F58" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>134400</v>
+        <v>136700</v>
       </c>
       <c r="E59" s="3">
-        <v>832000</v>
+        <v>845900</v>
       </c>
       <c r="F59" s="3">
-        <v>680700</v>
+        <v>692100</v>
       </c>
       <c r="G59" s="3">
-        <v>411900</v>
+        <v>418800</v>
       </c>
       <c r="H59" s="3">
-        <v>111800</v>
+        <v>113700</v>
       </c>
       <c r="I59" s="3">
-        <v>33400</v>
+        <v>34000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="E62" s="3">
-        <v>30600</v>
+        <v>31100</v>
       </c>
       <c r="F62" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="G62" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1003800</v>
+        <v>1020600</v>
       </c>
       <c r="E66" s="3">
-        <v>1594700</v>
+        <v>1621400</v>
       </c>
       <c r="F66" s="3">
-        <v>1111500</v>
+        <v>1130100</v>
       </c>
       <c r="G66" s="3">
-        <v>767100</v>
+        <v>779900</v>
       </c>
       <c r="H66" s="3">
-        <v>211700</v>
+        <v>215300</v>
       </c>
       <c r="I66" s="3">
-        <v>72100</v>
+        <v>73400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>186400</v>
+        <v>189500</v>
       </c>
       <c r="I70" s="3">
-        <v>90200</v>
+        <v>91700</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>478900</v>
+        <v>486900</v>
       </c>
       <c r="E72" s="3">
-        <v>351700</v>
+        <v>357600</v>
       </c>
       <c r="F72" s="3">
-        <v>46500</v>
+        <v>47200</v>
       </c>
       <c r="G72" s="3">
-        <v>-360900</v>
+        <v>-367000</v>
       </c>
       <c r="H72" s="3">
-        <v>-54400</v>
+        <v>-55300</v>
       </c>
       <c r="I72" s="3">
-        <v>-45100</v>
+        <v>-45900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1287800</v>
+        <v>1309400</v>
       </c>
       <c r="E76" s="3">
-        <v>1223800</v>
+        <v>1244300</v>
       </c>
       <c r="F76" s="3">
-        <v>912200</v>
+        <v>927400</v>
       </c>
       <c r="G76" s="3">
-        <v>557700</v>
+        <v>567100</v>
       </c>
       <c r="H76" s="3">
-        <v>-67500</v>
+        <v>-68600</v>
       </c>
       <c r="I76" s="3">
-        <v>-48900</v>
+        <v>-49700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>303800</v>
+        <v>308800</v>
       </c>
       <c r="E81" s="3">
-        <v>365400</v>
+        <v>371500</v>
       </c>
       <c r="F81" s="3">
-        <v>380200</v>
+        <v>386600</v>
       </c>
       <c r="G81" s="3">
-        <v>-306500</v>
+        <v>-311600</v>
       </c>
       <c r="H81" s="3">
-        <v>-9300</v>
+        <v>-9500</v>
       </c>
       <c r="I81" s="3">
-        <v>-27900</v>
+        <v>-28300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="E83" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="F83" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="G83" s="3">
         <v>3500</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>339800</v>
+        <v>345500</v>
       </c>
       <c r="E89" s="3">
-        <v>-33200</v>
+        <v>-33700</v>
       </c>
       <c r="F89" s="3">
-        <v>290200</v>
+        <v>295100</v>
       </c>
       <c r="G89" s="3">
-        <v>287100</v>
+        <v>291900</v>
       </c>
       <c r="H89" s="3">
-        <v>82200</v>
+        <v>83600</v>
       </c>
       <c r="I89" s="3">
-        <v>-29500</v>
+        <v>-30000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3155,16 +3155,16 @@
         <v>-1700</v>
       </c>
       <c r="E91" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="F91" s="3">
-        <v>-12900</v>
+        <v>-13100</v>
       </c>
       <c r="G91" s="3">
-        <v>-14000</v>
+        <v>-14200</v>
       </c>
       <c r="H91" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I91" s="3">
         <v>-2700</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>160400</v>
+        <v>163100</v>
       </c>
       <c r="E94" s="3">
-        <v>-127500</v>
+        <v>-129700</v>
       </c>
       <c r="F94" s="3">
-        <v>-222800</v>
+        <v>-226500</v>
       </c>
       <c r="G94" s="3">
-        <v>-384300</v>
+        <v>-390700</v>
       </c>
       <c r="H94" s="3">
-        <v>-102100</v>
+        <v>-103800</v>
       </c>
       <c r="I94" s="3">
-        <v>-20400</v>
+        <v>-20700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-476000</v>
+        <v>-484000</v>
       </c>
       <c r="E100" s="3">
-        <v>269400</v>
+        <v>273900</v>
       </c>
       <c r="F100" s="3">
-        <v>81600</v>
+        <v>83000</v>
       </c>
       <c r="G100" s="3">
-        <v>328400</v>
+        <v>333900</v>
       </c>
       <c r="H100" s="3">
-        <v>67600</v>
+        <v>68700</v>
       </c>
       <c r="I100" s="3">
-        <v>52100</v>
+        <v>52900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="E101" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F101" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="G101" s="3">
         <v>-2400</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>16300</v>
+        <v>16500</v>
       </c>
       <c r="E102" s="3">
-        <v>110400</v>
+        <v>112300</v>
       </c>
       <c r="F102" s="3">
-        <v>155500</v>
+        <v>158100</v>
       </c>
       <c r="G102" s="3">
-        <v>228900</v>
+        <v>232700</v>
       </c>
       <c r="H102" s="3">
-        <v>48100</v>
+        <v>48900</v>
       </c>
       <c r="I102" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1184100</v>
+        <v>1193200</v>
       </c>
       <c r="E8" s="3">
-        <v>933500</v>
+        <v>940700</v>
       </c>
       <c r="F8" s="3">
-        <v>681200</v>
+        <v>686400</v>
       </c>
       <c r="G8" s="3">
-        <v>607600</v>
+        <v>612200</v>
       </c>
       <c r="H8" s="3">
-        <v>190300</v>
+        <v>191800</v>
       </c>
       <c r="I8" s="3">
-        <v>30600</v>
+        <v>30900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>207500</v>
+        <v>209100</v>
       </c>
       <c r="E9" s="3">
-        <v>189200</v>
+        <v>190600</v>
       </c>
       <c r="F9" s="3">
-        <v>154300</v>
+        <v>155500</v>
       </c>
       <c r="G9" s="3">
-        <v>152600</v>
+        <v>153700</v>
       </c>
       <c r="H9" s="3">
-        <v>60800</v>
+        <v>61200</v>
       </c>
       <c r="I9" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>976500</v>
+        <v>984000</v>
       </c>
       <c r="E10" s="3">
-        <v>744400</v>
+        <v>750100</v>
       </c>
       <c r="F10" s="3">
-        <v>526900</v>
+        <v>530900</v>
       </c>
       <c r="G10" s="3">
-        <v>455000</v>
+        <v>458500</v>
       </c>
       <c r="H10" s="3">
-        <v>129600</v>
+        <v>130600</v>
       </c>
       <c r="I10" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>58000</v>
+        <v>58400</v>
       </c>
       <c r="E12" s="3">
-        <v>61100</v>
+        <v>61600</v>
       </c>
       <c r="F12" s="3">
-        <v>49800</v>
+        <v>50200</v>
       </c>
       <c r="G12" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="H12" s="3">
-        <v>17900</v>
+        <v>18100</v>
       </c>
       <c r="I12" s="3">
         <v>2200</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>314400</v>
+        <v>316800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>822800</v>
+        <v>829100</v>
       </c>
       <c r="E17" s="3">
-        <v>519200</v>
+        <v>523200</v>
       </c>
       <c r="F17" s="3">
-        <v>392100</v>
+        <v>395100</v>
       </c>
       <c r="G17" s="3">
-        <v>368100</v>
+        <v>371000</v>
       </c>
       <c r="H17" s="3">
-        <v>150000</v>
+        <v>151200</v>
       </c>
       <c r="I17" s="3">
-        <v>53400</v>
+        <v>53800</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>361300</v>
+        <v>364000</v>
       </c>
       <c r="E18" s="3">
-        <v>414300</v>
+        <v>417500</v>
       </c>
       <c r="F18" s="3">
-        <v>289100</v>
+        <v>291300</v>
       </c>
       <c r="G18" s="3">
-        <v>239400</v>
+        <v>241200</v>
       </c>
       <c r="H18" s="3">
-        <v>40300</v>
+        <v>40600</v>
       </c>
       <c r="I18" s="3">
-        <v>-22700</v>
+        <v>-22900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,22 +1057,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18200</v>
+        <v>18400</v>
       </c>
       <c r="E20" s="3">
-        <v>32900</v>
+        <v>33100</v>
       </c>
       <c r="F20" s="3">
-        <v>121200</v>
+        <v>122100</v>
       </c>
       <c r="G20" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="H20" s="3">
-        <v>45800</v>
+        <v>46100</v>
       </c>
       <c r="I20" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>387600</v>
+        <v>390600</v>
       </c>
       <c r="E21" s="3">
-        <v>456200</v>
+        <v>459800</v>
       </c>
       <c r="F21" s="3">
-        <v>416900</v>
+        <v>420100</v>
       </c>
       <c r="G21" s="3">
-        <v>216100</v>
+        <v>217700</v>
       </c>
       <c r="H21" s="3">
-        <v>88000</v>
+        <v>88600</v>
       </c>
       <c r="I21" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>379500</v>
+        <v>382400</v>
       </c>
       <c r="E23" s="3">
-        <v>447200</v>
+        <v>450600</v>
       </c>
       <c r="F23" s="3">
-        <v>410300</v>
+        <v>413400</v>
       </c>
       <c r="G23" s="3">
-        <v>212500</v>
+        <v>214200</v>
       </c>
       <c r="H23" s="3">
-        <v>86100</v>
+        <v>86700</v>
       </c>
       <c r="I23" s="3">
-        <v>-10600</v>
+        <v>-10700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>71300</v>
+        <v>71800</v>
       </c>
       <c r="E24" s="3">
-        <v>75500</v>
+        <v>76000</v>
       </c>
       <c r="F24" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="G24" s="3">
-        <v>43000</v>
+        <v>43300</v>
       </c>
       <c r="H24" s="3">
         <v>7600</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>308200</v>
+        <v>310600</v>
       </c>
       <c r="E26" s="3">
-        <v>371800</v>
+        <v>374600</v>
       </c>
       <c r="F26" s="3">
-        <v>386600</v>
+        <v>389600</v>
       </c>
       <c r="G26" s="3">
-        <v>169500</v>
+        <v>170800</v>
       </c>
       <c r="H26" s="3">
-        <v>78500</v>
+        <v>79100</v>
       </c>
       <c r="I26" s="3">
-        <v>-11300</v>
+        <v>-11400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>308800</v>
+        <v>311200</v>
       </c>
       <c r="E27" s="3">
-        <v>371500</v>
+        <v>374300</v>
       </c>
       <c r="F27" s="3">
-        <v>386600</v>
+        <v>389500</v>
       </c>
       <c r="G27" s="3">
-        <v>-311600</v>
+        <v>-314000</v>
       </c>
       <c r="H27" s="3">
         <v>-9500</v>
       </c>
       <c r="I27" s="3">
-        <v>-28300</v>
+        <v>-28500</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1453,22 +1453,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18200</v>
+        <v>-18400</v>
       </c>
       <c r="E32" s="3">
-        <v>-32900</v>
+        <v>-33100</v>
       </c>
       <c r="F32" s="3">
-        <v>-121200</v>
+        <v>-122100</v>
       </c>
       <c r="G32" s="3">
-        <v>26900</v>
+        <v>27100</v>
       </c>
       <c r="H32" s="3">
-        <v>-45800</v>
+        <v>-46100</v>
       </c>
       <c r="I32" s="3">
-        <v>-12100</v>
+        <v>-12200</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>308800</v>
+        <v>311200</v>
       </c>
       <c r="E33" s="3">
-        <v>371500</v>
+        <v>374300</v>
       </c>
       <c r="F33" s="3">
-        <v>386600</v>
+        <v>389500</v>
       </c>
       <c r="G33" s="3">
-        <v>-311600</v>
+        <v>-314000</v>
       </c>
       <c r="H33" s="3">
         <v>-9500</v>
       </c>
       <c r="I33" s="3">
-        <v>-28300</v>
+        <v>-28500</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>308800</v>
+        <v>311200</v>
       </c>
       <c r="E35" s="3">
-        <v>371500</v>
+        <v>374300</v>
       </c>
       <c r="F35" s="3">
-        <v>386600</v>
+        <v>389500</v>
       </c>
       <c r="G35" s="3">
-        <v>-311600</v>
+        <v>-314000</v>
       </c>
       <c r="H35" s="3">
         <v>-9500</v>
       </c>
       <c r="I35" s="3">
-        <v>-28300</v>
+        <v>-28500</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>412100</v>
+        <v>415300</v>
       </c>
       <c r="E41" s="3">
-        <v>363900</v>
+        <v>366700</v>
       </c>
       <c r="F41" s="3">
-        <v>253000</v>
+        <v>255000</v>
       </c>
       <c r="G41" s="3">
-        <v>296100</v>
+        <v>298300</v>
       </c>
       <c r="H41" s="3">
-        <v>63400</v>
+        <v>63800</v>
       </c>
       <c r="I41" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>310800</v>
+        <v>313200</v>
       </c>
       <c r="E43" s="3">
-        <v>709500</v>
+        <v>715000</v>
       </c>
       <c r="F43" s="3">
-        <v>450600</v>
+        <v>454100</v>
       </c>
       <c r="G43" s="3">
-        <v>183600</v>
+        <v>185000</v>
       </c>
       <c r="H43" s="3">
-        <v>48100</v>
+        <v>48400</v>
       </c>
       <c r="I43" s="3">
-        <v>27200</v>
+        <v>27400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>164400</v>
+        <v>165600</v>
       </c>
       <c r="E45" s="3">
-        <v>217800</v>
+        <v>219400</v>
       </c>
       <c r="F45" s="3">
-        <v>31100</v>
+        <v>31300</v>
       </c>
       <c r="G45" s="3">
-        <v>21300</v>
+        <v>21500</v>
       </c>
       <c r="H45" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="I45" s="3">
         <v>2800</v>
@@ -1851,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>826100</v>
+        <v>832400</v>
       </c>
       <c r="E47" s="3">
-        <v>923100</v>
+        <v>930200</v>
       </c>
       <c r="F47" s="3">
-        <v>674500</v>
+        <v>679700</v>
       </c>
       <c r="G47" s="3">
-        <v>415300</v>
+        <v>418500</v>
       </c>
       <c r="H47" s="3">
-        <v>47200</v>
+        <v>47600</v>
       </c>
       <c r="I47" s="3">
-        <v>19700</v>
+        <v>19900</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23300</v>
+        <v>23500</v>
       </c>
       <c r="E48" s="3">
-        <v>36000</v>
+        <v>36300</v>
       </c>
       <c r="F48" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="G48" s="3">
-        <v>16900</v>
+        <v>17100</v>
       </c>
       <c r="H48" s="3">
         <v>5900</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="E49" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>18800</v>
+      </c>
+      <c r="G49" s="3">
         <v>18000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>18700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>17900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,22 +2016,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>569900</v>
+        <v>574200</v>
       </c>
       <c r="E52" s="3">
-        <v>597400</v>
+        <v>602000</v>
       </c>
       <c r="F52" s="3">
-        <v>595000</v>
+        <v>599500</v>
       </c>
       <c r="G52" s="3">
-        <v>394700</v>
+        <v>397700</v>
       </c>
       <c r="H52" s="3">
-        <v>130700</v>
+        <v>131700</v>
       </c>
       <c r="I52" s="3">
-        <v>44600</v>
+        <v>44900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2330000</v>
+        <v>2347800</v>
       </c>
       <c r="E54" s="3">
-        <v>2865700</v>
+        <v>2887700</v>
       </c>
       <c r="F54" s="3">
-        <v>2057600</v>
+        <v>2073400</v>
       </c>
       <c r="G54" s="3">
-        <v>1347000</v>
+        <v>1357300</v>
       </c>
       <c r="H54" s="3">
-        <v>336200</v>
+        <v>338800</v>
       </c>
       <c r="I54" s="3">
-        <v>115400</v>
+        <v>116300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="E57" s="3">
-        <v>107200</v>
+        <v>108000</v>
       </c>
       <c r="F57" s="3">
-        <v>141700</v>
+        <v>142800</v>
       </c>
       <c r="G57" s="3">
-        <v>174400</v>
+        <v>175700</v>
       </c>
       <c r="H57" s="3">
-        <v>66000</v>
+        <v>66500</v>
       </c>
       <c r="I57" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>36800</v>
+        <v>37100</v>
       </c>
       <c r="F58" s="3">
         <v>3900</v>
@@ -2190,10 +2190,10 @@
         <v>3</v>
       </c>
       <c r="H58" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I58" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>136700</v>
+        <v>137700</v>
       </c>
       <c r="E59" s="3">
-        <v>845900</v>
+        <v>852400</v>
       </c>
       <c r="F59" s="3">
-        <v>692100</v>
+        <v>697400</v>
       </c>
       <c r="G59" s="3">
-        <v>418800</v>
+        <v>422000</v>
       </c>
       <c r="H59" s="3">
-        <v>113700</v>
+        <v>114500</v>
       </c>
       <c r="I59" s="3">
-        <v>34000</v>
+        <v>34200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="E62" s="3">
-        <v>31100</v>
+        <v>31400</v>
       </c>
       <c r="F62" s="3">
-        <v>15700</v>
+        <v>15800</v>
       </c>
       <c r="G62" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1020600</v>
+        <v>1028400</v>
       </c>
       <c r="E66" s="3">
-        <v>1621400</v>
+        <v>1633800</v>
       </c>
       <c r="F66" s="3">
-        <v>1130100</v>
+        <v>1138800</v>
       </c>
       <c r="G66" s="3">
-        <v>779900</v>
+        <v>785900</v>
       </c>
       <c r="H66" s="3">
-        <v>215300</v>
+        <v>216900</v>
       </c>
       <c r="I66" s="3">
-        <v>73400</v>
+        <v>73900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>189500</v>
+        <v>191000</v>
       </c>
       <c r="I70" s="3">
-        <v>91700</v>
+        <v>92400</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>486900</v>
+        <v>490600</v>
       </c>
       <c r="E72" s="3">
-        <v>357600</v>
+        <v>360300</v>
       </c>
       <c r="F72" s="3">
-        <v>47200</v>
+        <v>47600</v>
       </c>
       <c r="G72" s="3">
-        <v>-367000</v>
+        <v>-369800</v>
       </c>
       <c r="H72" s="3">
-        <v>-55300</v>
+        <v>-55800</v>
       </c>
       <c r="I72" s="3">
-        <v>-45900</v>
+        <v>-46200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1309400</v>
+        <v>1319400</v>
       </c>
       <c r="E76" s="3">
-        <v>1244300</v>
+        <v>1253900</v>
       </c>
       <c r="F76" s="3">
-        <v>927400</v>
+        <v>934600</v>
       </c>
       <c r="G76" s="3">
-        <v>567100</v>
+        <v>571400</v>
       </c>
       <c r="H76" s="3">
-        <v>-68600</v>
+        <v>-69200</v>
       </c>
       <c r="I76" s="3">
-        <v>-49700</v>
+        <v>-50100</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>308800</v>
+        <v>311200</v>
       </c>
       <c r="E81" s="3">
-        <v>371500</v>
+        <v>374300</v>
       </c>
       <c r="F81" s="3">
-        <v>386600</v>
+        <v>389500</v>
       </c>
       <c r="G81" s="3">
-        <v>-311600</v>
+        <v>-314000</v>
       </c>
       <c r="H81" s="3">
         <v>-9500</v>
       </c>
       <c r="I81" s="3">
-        <v>-28300</v>
+        <v>-28500</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="E83" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="F83" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H83" s="3">
         <v>1900</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>345500</v>
+        <v>348200</v>
       </c>
       <c r="E89" s="3">
-        <v>-33700</v>
+        <v>-34000</v>
       </c>
       <c r="F89" s="3">
-        <v>295100</v>
+        <v>297400</v>
       </c>
       <c r="G89" s="3">
-        <v>291900</v>
+        <v>294100</v>
       </c>
       <c r="H89" s="3">
-        <v>83600</v>
+        <v>84300</v>
       </c>
       <c r="I89" s="3">
-        <v>-30000</v>
+        <v>-30300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3155,19 +3155,19 @@
         <v>-1700</v>
       </c>
       <c r="E91" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="F91" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="G91" s="3">
-        <v>-14200</v>
+        <v>-14300</v>
       </c>
       <c r="H91" s="3">
         <v>-4700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>163100</v>
+        <v>164300</v>
       </c>
       <c r="E94" s="3">
-        <v>-129700</v>
+        <v>-130700</v>
       </c>
       <c r="F94" s="3">
-        <v>-226500</v>
+        <v>-228300</v>
       </c>
       <c r="G94" s="3">
-        <v>-390700</v>
+        <v>-393700</v>
       </c>
       <c r="H94" s="3">
-        <v>-103800</v>
+        <v>-104600</v>
       </c>
       <c r="I94" s="3">
-        <v>-20700</v>
+        <v>-20900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-484000</v>
+        <v>-487700</v>
       </c>
       <c r="E100" s="3">
-        <v>273900</v>
+        <v>276000</v>
       </c>
       <c r="F100" s="3">
-        <v>83000</v>
+        <v>83600</v>
       </c>
       <c r="G100" s="3">
-        <v>333900</v>
+        <v>336500</v>
       </c>
       <c r="H100" s="3">
-        <v>68700</v>
+        <v>69200</v>
       </c>
       <c r="I100" s="3">
-        <v>52900</v>
+        <v>53300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>16500</v>
+        <v>16700</v>
       </c>
       <c r="E102" s="3">
-        <v>112300</v>
+        <v>113100</v>
       </c>
       <c r="F102" s="3">
-        <v>158100</v>
+        <v>159300</v>
       </c>
       <c r="G102" s="3">
-        <v>232700</v>
+        <v>234500</v>
       </c>
       <c r="H102" s="3">
-        <v>48900</v>
+        <v>49200</v>
       </c>
       <c r="I102" s="3">
         <v>2400</v>

--- a/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>FINV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1193200</v>
+        <v>1395500</v>
       </c>
       <c r="E8" s="3">
-        <v>940700</v>
+        <v>1114500</v>
       </c>
       <c r="F8" s="3">
-        <v>686400</v>
+        <v>878700</v>
       </c>
       <c r="G8" s="3">
-        <v>612200</v>
+        <v>641200</v>
       </c>
       <c r="H8" s="3">
-        <v>191800</v>
+        <v>571900</v>
       </c>
       <c r="I8" s="3">
-        <v>30900</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>179200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>28800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -744,32 +747,35 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>209100</v>
+        <v>271400</v>
       </c>
       <c r="E9" s="3">
-        <v>190600</v>
+        <v>195300</v>
       </c>
       <c r="F9" s="3">
-        <v>155500</v>
+        <v>178000</v>
       </c>
       <c r="G9" s="3">
-        <v>153700</v>
+        <v>145200</v>
       </c>
       <c r="H9" s="3">
-        <v>61200</v>
+        <v>143600</v>
       </c>
       <c r="I9" s="3">
-        <v>15700</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>57200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>14600</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -777,32 +783,35 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>984000</v>
+        <v>1124100</v>
       </c>
       <c r="E10" s="3">
-        <v>750100</v>
+        <v>919200</v>
       </c>
       <c r="F10" s="3">
-        <v>530900</v>
+        <v>700600</v>
       </c>
       <c r="G10" s="3">
-        <v>458500</v>
+        <v>495900</v>
       </c>
       <c r="H10" s="3">
-        <v>130600</v>
+        <v>428200</v>
       </c>
       <c r="I10" s="3">
-        <v>15200</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>122000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>14200</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,31 +838,32 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>58400</v>
+        <v>64100</v>
       </c>
       <c r="E12" s="3">
-        <v>61600</v>
+        <v>54500</v>
       </c>
       <c r="F12" s="3">
-        <v>50200</v>
+        <v>57600</v>
       </c>
       <c r="G12" s="3">
-        <v>26000</v>
+        <v>46900</v>
       </c>
       <c r="H12" s="3">
-        <v>18100</v>
+        <v>24300</v>
       </c>
       <c r="I12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>16900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,32 +907,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>316800</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>289400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>295900</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-3300</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>-3000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -924,9 +943,12 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,31 +995,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>829100</v>
+        <v>1010400</v>
       </c>
       <c r="E17" s="3">
-        <v>523200</v>
+        <v>774500</v>
       </c>
       <c r="F17" s="3">
-        <v>395100</v>
+        <v>488700</v>
       </c>
       <c r="G17" s="3">
-        <v>371000</v>
+        <v>369000</v>
       </c>
       <c r="H17" s="3">
-        <v>151200</v>
+        <v>346500</v>
       </c>
       <c r="I17" s="3">
-        <v>53800</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>141200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>50200</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1002,32 +1028,35 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>364000</v>
+        <v>385200</v>
       </c>
       <c r="E18" s="3">
-        <v>417500</v>
+        <v>340000</v>
       </c>
       <c r="F18" s="3">
-        <v>291300</v>
+        <v>390000</v>
       </c>
       <c r="G18" s="3">
-        <v>241200</v>
+        <v>272100</v>
       </c>
       <c r="H18" s="3">
-        <v>40600</v>
+        <v>225300</v>
       </c>
       <c r="I18" s="3">
-        <v>-22900</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>37900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-21400</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,31 +1083,32 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18400</v>
+        <v>18000</v>
       </c>
       <c r="E20" s="3">
-        <v>33100</v>
+        <v>17200</v>
       </c>
       <c r="F20" s="3">
-        <v>122100</v>
+        <v>31000</v>
       </c>
       <c r="G20" s="3">
-        <v>-27100</v>
+        <v>114100</v>
       </c>
       <c r="H20" s="3">
-        <v>46100</v>
+        <v>-25300</v>
       </c>
       <c r="I20" s="3">
-        <v>12200</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>43100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>11400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1083,32 +1116,35 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>390600</v>
+        <v>408700</v>
       </c>
       <c r="E21" s="3">
-        <v>459800</v>
+        <v>364900</v>
       </c>
       <c r="F21" s="3">
-        <v>420100</v>
+        <v>429500</v>
       </c>
       <c r="G21" s="3">
-        <v>217700</v>
+        <v>392500</v>
       </c>
       <c r="H21" s="3">
-        <v>88600</v>
+        <v>203400</v>
       </c>
       <c r="I21" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>82800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-9500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1116,9 +1152,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1149,32 +1188,35 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>382400</v>
+        <v>403200</v>
       </c>
       <c r="E23" s="3">
-        <v>450600</v>
+        <v>357200</v>
       </c>
       <c r="F23" s="3">
-        <v>413400</v>
+        <v>420900</v>
       </c>
       <c r="G23" s="3">
-        <v>214200</v>
+        <v>386200</v>
       </c>
       <c r="H23" s="3">
-        <v>86700</v>
+        <v>200100</v>
       </c>
       <c r="I23" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>81000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-10000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1182,32 +1224,35 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>71800</v>
+        <v>35500</v>
       </c>
       <c r="E24" s="3">
-        <v>76000</v>
+        <v>67100</v>
       </c>
       <c r="F24" s="3">
-        <v>23900</v>
+        <v>71000</v>
       </c>
       <c r="G24" s="3">
-        <v>43300</v>
+        <v>22300</v>
       </c>
       <c r="H24" s="3">
-        <v>7600</v>
+        <v>40500</v>
       </c>
       <c r="I24" s="3">
-        <v>700</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>7100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>600</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,32 +1296,35 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>310600</v>
+        <v>367700</v>
       </c>
       <c r="E26" s="3">
-        <v>374600</v>
+        <v>290100</v>
       </c>
       <c r="F26" s="3">
-        <v>389600</v>
+        <v>349900</v>
       </c>
       <c r="G26" s="3">
-        <v>170800</v>
+        <v>363900</v>
       </c>
       <c r="H26" s="3">
-        <v>79100</v>
+        <v>159600</v>
       </c>
       <c r="I26" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>73900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-10600</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1281,32 +1332,35 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>311200</v>
+        <v>369700</v>
       </c>
       <c r="E27" s="3">
-        <v>374300</v>
+        <v>290700</v>
       </c>
       <c r="F27" s="3">
-        <v>389500</v>
+        <v>349700</v>
       </c>
       <c r="G27" s="3">
-        <v>-314000</v>
+        <v>363800</v>
       </c>
       <c r="H27" s="3">
-        <v>-9500</v>
+        <v>-293300</v>
       </c>
       <c r="I27" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-8900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-26700</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,32 +1512,35 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18400</v>
+        <v>-18000</v>
       </c>
       <c r="E32" s="3">
-        <v>-33100</v>
+        <v>-17200</v>
       </c>
       <c r="F32" s="3">
-        <v>-122100</v>
+        <v>-31000</v>
       </c>
       <c r="G32" s="3">
-        <v>27100</v>
+        <v>-114100</v>
       </c>
       <c r="H32" s="3">
-        <v>-46100</v>
+        <v>25300</v>
       </c>
       <c r="I32" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>-43100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-11400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1479,32 +1548,35 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>311200</v>
+        <v>369700</v>
       </c>
       <c r="E33" s="3">
-        <v>374300</v>
+        <v>290700</v>
       </c>
       <c r="F33" s="3">
-        <v>389500</v>
+        <v>349700</v>
       </c>
       <c r="G33" s="3">
-        <v>-314000</v>
+        <v>363800</v>
       </c>
       <c r="H33" s="3">
-        <v>-9500</v>
+        <v>-293300</v>
       </c>
       <c r="I33" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-8900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-26700</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,32 +1620,35 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>311200</v>
+        <v>369700</v>
       </c>
       <c r="E35" s="3">
-        <v>374300</v>
+        <v>290700</v>
       </c>
       <c r="F35" s="3">
-        <v>389500</v>
+        <v>349700</v>
       </c>
       <c r="G35" s="3">
-        <v>-314000</v>
+        <v>363800</v>
       </c>
       <c r="H35" s="3">
-        <v>-9500</v>
+        <v>-293300</v>
       </c>
       <c r="I35" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-8900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-26700</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1578,47 +1656,53 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,31 +1732,32 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>415300</v>
+        <v>651100</v>
       </c>
       <c r="E41" s="3">
-        <v>366700</v>
+        <v>387900</v>
       </c>
       <c r="F41" s="3">
-        <v>255000</v>
+        <v>342500</v>
       </c>
       <c r="G41" s="3">
-        <v>298300</v>
+        <v>238200</v>
       </c>
       <c r="H41" s="3">
-        <v>63800</v>
+        <v>278700</v>
       </c>
       <c r="I41" s="3">
-        <v>14600</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>59600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>13600</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1679,9 +1765,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,32 +1801,35 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>313200</v>
+        <v>415900</v>
       </c>
       <c r="E43" s="3">
-        <v>715000</v>
+        <v>292600</v>
       </c>
       <c r="F43" s="3">
-        <v>454100</v>
+        <v>667800</v>
       </c>
       <c r="G43" s="3">
-        <v>185000</v>
+        <v>424200</v>
       </c>
       <c r="H43" s="3">
-        <v>48400</v>
+        <v>172800</v>
       </c>
       <c r="I43" s="3">
-        <v>27400</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>45200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>25600</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,32 +1873,35 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>165600</v>
+        <v>279900</v>
       </c>
       <c r="E45" s="3">
-        <v>219400</v>
+        <v>154700</v>
       </c>
       <c r="F45" s="3">
-        <v>31300</v>
+        <v>205000</v>
       </c>
       <c r="G45" s="3">
-        <v>21500</v>
+        <v>29200</v>
       </c>
       <c r="H45" s="3">
-        <v>13700</v>
+        <v>20000</v>
       </c>
       <c r="I45" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>12800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2600</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1811,9 +1909,12 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1844,32 +1945,35 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>832400</v>
+        <v>612800</v>
       </c>
       <c r="E47" s="3">
-        <v>930200</v>
+        <v>777500</v>
       </c>
       <c r="F47" s="3">
-        <v>679700</v>
+        <v>868900</v>
       </c>
       <c r="G47" s="3">
-        <v>418500</v>
+        <v>634900</v>
       </c>
       <c r="H47" s="3">
-        <v>47600</v>
+        <v>390900</v>
       </c>
       <c r="I47" s="3">
-        <v>19900</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>44500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>18600</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1877,32 +1981,35 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23500</v>
+        <v>23800</v>
       </c>
       <c r="E48" s="3">
-        <v>36300</v>
+        <v>21900</v>
       </c>
       <c r="F48" s="3">
-        <v>22700</v>
+        <v>33900</v>
       </c>
       <c r="G48" s="3">
-        <v>17100</v>
+        <v>21200</v>
       </c>
       <c r="H48" s="3">
-        <v>5900</v>
+        <v>16000</v>
       </c>
       <c r="I48" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2900</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1910,26 +2017,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23600</v>
+        <v>22000</v>
       </c>
       <c r="E49" s="3">
-        <v>18100</v>
+        <v>22000</v>
       </c>
       <c r="F49" s="3">
-        <v>18800</v>
+        <v>16900</v>
       </c>
       <c r="G49" s="3">
-        <v>18000</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>17600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>16800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,32 +2125,35 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>574200</v>
+        <v>667400</v>
       </c>
       <c r="E52" s="3">
-        <v>602000</v>
+        <v>536400</v>
       </c>
       <c r="F52" s="3">
-        <v>599500</v>
+        <v>562300</v>
       </c>
       <c r="G52" s="3">
-        <v>397700</v>
+        <v>560000</v>
       </c>
       <c r="H52" s="3">
-        <v>131700</v>
+        <v>371500</v>
       </c>
       <c r="I52" s="3">
-        <v>44900</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>123000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>41900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,32 +2197,35 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2347800</v>
+        <v>2672900</v>
       </c>
       <c r="E54" s="3">
-        <v>2887700</v>
+        <v>2193000</v>
       </c>
       <c r="F54" s="3">
-        <v>2073400</v>
+        <v>2697300</v>
       </c>
       <c r="G54" s="3">
-        <v>1357300</v>
+        <v>1936700</v>
       </c>
       <c r="H54" s="3">
-        <v>338800</v>
+        <v>1267800</v>
       </c>
       <c r="I54" s="3">
-        <v>116300</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>316400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>108600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,31 +2268,32 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16300</v>
+        <v>12000</v>
       </c>
       <c r="E57" s="3">
-        <v>108000</v>
+        <v>15200</v>
       </c>
       <c r="F57" s="3">
-        <v>142800</v>
+        <v>100900</v>
       </c>
       <c r="G57" s="3">
-        <v>175700</v>
+        <v>133400</v>
       </c>
       <c r="H57" s="3">
-        <v>66500</v>
+        <v>164200</v>
       </c>
       <c r="I57" s="3">
-        <v>27800</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>62100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>26000</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2171,32 +2301,35 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2500</v>
+        <v>34600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>2300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2204,32 +2337,35 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>137700</v>
+        <v>156700</v>
       </c>
       <c r="E59" s="3">
-        <v>852400</v>
+        <v>128600</v>
       </c>
       <c r="F59" s="3">
-        <v>697400</v>
+        <v>796200</v>
       </c>
       <c r="G59" s="3">
-        <v>422000</v>
+        <v>651500</v>
       </c>
       <c r="H59" s="3">
-        <v>114500</v>
+        <v>394200</v>
       </c>
       <c r="I59" s="3">
-        <v>34200</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>107000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>32000</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2237,9 +2373,12 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2270,9 +2409,12 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2303,26 +2445,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16300</v>
+        <v>20300</v>
       </c>
       <c r="E62" s="3">
-        <v>31400</v>
+        <v>15300</v>
       </c>
       <c r="F62" s="3">
-        <v>15800</v>
+        <v>29300</v>
       </c>
       <c r="G62" s="3">
-        <v>19500</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>14700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>18200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,32 +2589,35 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1028400</v>
+        <v>1102700</v>
       </c>
       <c r="E66" s="3">
-        <v>1633800</v>
+        <v>960600</v>
       </c>
       <c r="F66" s="3">
-        <v>1138800</v>
+        <v>1526100</v>
       </c>
       <c r="G66" s="3">
-        <v>785900</v>
+        <v>1063700</v>
       </c>
       <c r="H66" s="3">
-        <v>216900</v>
+        <v>734100</v>
       </c>
       <c r="I66" s="3">
-        <v>73900</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>202600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>69000</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2568,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>191000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>92400</v>
+        <v>178400</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>86300</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,32 +2785,35 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>490600</v>
+        <v>781200</v>
       </c>
       <c r="E72" s="3">
-        <v>360300</v>
+        <v>458300</v>
       </c>
       <c r="F72" s="3">
-        <v>47600</v>
+        <v>336500</v>
       </c>
       <c r="G72" s="3">
-        <v>-369800</v>
+        <v>44500</v>
       </c>
       <c r="H72" s="3">
-        <v>-55800</v>
+        <v>-345400</v>
       </c>
       <c r="I72" s="3">
-        <v>-46200</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-52100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-43200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,32 +2929,35 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1319400</v>
+        <v>1570200</v>
       </c>
       <c r="E76" s="3">
-        <v>1253900</v>
+        <v>1232400</v>
       </c>
       <c r="F76" s="3">
-        <v>934600</v>
+        <v>1171200</v>
       </c>
       <c r="G76" s="3">
-        <v>571400</v>
+        <v>872900</v>
       </c>
       <c r="H76" s="3">
-        <v>-69200</v>
+        <v>533800</v>
       </c>
       <c r="I76" s="3">
-        <v>-50100</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-64600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-46800</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,70 +3001,76 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>311200</v>
+        <v>369700</v>
       </c>
       <c r="E81" s="3">
-        <v>374300</v>
+        <v>290700</v>
       </c>
       <c r="F81" s="3">
-        <v>389500</v>
+        <v>349700</v>
       </c>
       <c r="G81" s="3">
-        <v>-314000</v>
+        <v>363800</v>
       </c>
       <c r="H81" s="3">
-        <v>-9500</v>
+        <v>-293300</v>
       </c>
       <c r="I81" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-8900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-26700</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8200</v>
+        <v>5500</v>
       </c>
       <c r="E83" s="3">
-        <v>9100</v>
+        <v>7600</v>
       </c>
       <c r="F83" s="3">
-        <v>6700</v>
+        <v>8500</v>
       </c>
       <c r="G83" s="3">
-        <v>3600</v>
+        <v>6200</v>
       </c>
       <c r="H83" s="3">
-        <v>1900</v>
+        <v>3300</v>
       </c>
       <c r="I83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,32 +3310,35 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>348200</v>
+        <v>92900</v>
       </c>
       <c r="E89" s="3">
-        <v>-34000</v>
+        <v>325200</v>
       </c>
       <c r="F89" s="3">
-        <v>297400</v>
+        <v>-31800</v>
       </c>
       <c r="G89" s="3">
-        <v>294100</v>
+        <v>277800</v>
       </c>
       <c r="H89" s="3">
-        <v>84300</v>
+        <v>274800</v>
       </c>
       <c r="I89" s="3">
-        <v>-30300</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>78700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-28300</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,31 +3365,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1700</v>
+        <v>-8100</v>
       </c>
       <c r="E91" s="3">
-        <v>-7700</v>
+        <v>-1600</v>
       </c>
       <c r="F91" s="3">
-        <v>-13200</v>
+        <v>-7200</v>
       </c>
       <c r="G91" s="3">
-        <v>-14300</v>
+        <v>-12300</v>
       </c>
       <c r="H91" s="3">
-        <v>-4700</v>
+        <v>-13400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-4400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2600</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,32 +3470,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>164300</v>
+        <v>294000</v>
       </c>
       <c r="E94" s="3">
-        <v>-130700</v>
+        <v>153500</v>
       </c>
       <c r="F94" s="3">
-        <v>-228300</v>
+        <v>-122000</v>
       </c>
       <c r="G94" s="3">
-        <v>-393700</v>
+        <v>-213200</v>
       </c>
       <c r="H94" s="3">
-        <v>-104600</v>
+        <v>-367700</v>
       </c>
       <c r="I94" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-97700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-19500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,32 +3666,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-487700</v>
+        <v>-35300</v>
       </c>
       <c r="E100" s="3">
-        <v>276000</v>
+        <v>-455500</v>
       </c>
       <c r="F100" s="3">
-        <v>83600</v>
+        <v>257800</v>
       </c>
       <c r="G100" s="3">
-        <v>336500</v>
+        <v>78100</v>
       </c>
       <c r="H100" s="3">
-        <v>69200</v>
+        <v>314300</v>
       </c>
       <c r="I100" s="3">
-        <v>53300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>64600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>49800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3457,65 +3702,71 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8100</v>
+        <v>-1500</v>
       </c>
       <c r="E101" s="3">
-        <v>1800</v>
+        <v>-7600</v>
       </c>
       <c r="F101" s="3">
-        <v>6600</v>
+        <v>1700</v>
       </c>
       <c r="G101" s="3">
-        <v>-2400</v>
+        <v>6200</v>
       </c>
       <c r="H101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>16700</v>
+        <v>350000</v>
       </c>
       <c r="E102" s="3">
-        <v>113100</v>
+        <v>15600</v>
       </c>
       <c r="F102" s="3">
-        <v>159300</v>
+        <v>105700</v>
       </c>
       <c r="G102" s="3">
-        <v>234500</v>
+        <v>148800</v>
       </c>
       <c r="H102" s="3">
-        <v>49200</v>
+        <v>219000</v>
       </c>
       <c r="I102" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>46000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2200</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1395500</v>
+        <v>1382900</v>
       </c>
       <c r="E8" s="3">
-        <v>1114500</v>
+        <v>1104400</v>
       </c>
       <c r="F8" s="3">
-        <v>878700</v>
+        <v>870700</v>
       </c>
       <c r="G8" s="3">
-        <v>641200</v>
+        <v>635400</v>
       </c>
       <c r="H8" s="3">
-        <v>571900</v>
+        <v>566700</v>
       </c>
       <c r="I8" s="3">
-        <v>179200</v>
+        <v>177500</v>
       </c>
       <c r="J8" s="3">
-        <v>28800</v>
+        <v>28600</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>271400</v>
+        <v>269000</v>
       </c>
       <c r="E9" s="3">
-        <v>195300</v>
+        <v>193600</v>
       </c>
       <c r="F9" s="3">
-        <v>178000</v>
+        <v>176400</v>
       </c>
       <c r="G9" s="3">
-        <v>145200</v>
+        <v>143900</v>
       </c>
       <c r="H9" s="3">
-        <v>143600</v>
+        <v>142300</v>
       </c>
       <c r="I9" s="3">
-        <v>57200</v>
+        <v>56700</v>
       </c>
       <c r="J9" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1124100</v>
+        <v>1113900</v>
       </c>
       <c r="E10" s="3">
-        <v>919200</v>
+        <v>910900</v>
       </c>
       <c r="F10" s="3">
-        <v>700600</v>
+        <v>694300</v>
       </c>
       <c r="G10" s="3">
-        <v>495900</v>
+        <v>491400</v>
       </c>
       <c r="H10" s="3">
-        <v>428200</v>
+        <v>424400</v>
       </c>
       <c r="I10" s="3">
-        <v>122000</v>
+        <v>120900</v>
       </c>
       <c r="J10" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>64100</v>
+        <v>63500</v>
       </c>
       <c r="E12" s="3">
-        <v>54500</v>
+        <v>54100</v>
       </c>
       <c r="F12" s="3">
-        <v>57600</v>
+        <v>57000</v>
       </c>
       <c r="G12" s="3">
-        <v>46900</v>
+        <v>46400</v>
       </c>
       <c r="H12" s="3">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="I12" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="J12" s="3">
         <v>2100</v>
@@ -917,10 +917,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>289400</v>
+        <v>286700</v>
       </c>
       <c r="E14" s="3">
-        <v>295900</v>
+        <v>293200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1010400</v>
+        <v>1001200</v>
       </c>
       <c r="E17" s="3">
-        <v>774500</v>
+        <v>767500</v>
       </c>
       <c r="F17" s="3">
-        <v>488700</v>
+        <v>484300</v>
       </c>
       <c r="G17" s="3">
-        <v>369000</v>
+        <v>365700</v>
       </c>
       <c r="H17" s="3">
-        <v>346500</v>
+        <v>343400</v>
       </c>
       <c r="I17" s="3">
-        <v>141200</v>
+        <v>139900</v>
       </c>
       <c r="J17" s="3">
-        <v>50200</v>
+        <v>49800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>385200</v>
+        <v>381700</v>
       </c>
       <c r="E18" s="3">
-        <v>340000</v>
+        <v>337000</v>
       </c>
       <c r="F18" s="3">
-        <v>390000</v>
+        <v>386500</v>
       </c>
       <c r="G18" s="3">
-        <v>272100</v>
+        <v>269700</v>
       </c>
       <c r="H18" s="3">
-        <v>225300</v>
+        <v>223300</v>
       </c>
       <c r="I18" s="3">
-        <v>37900</v>
+        <v>37600</v>
       </c>
       <c r="J18" s="3">
-        <v>-21400</v>
+        <v>-21200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18000</v>
+        <v>17900</v>
       </c>
       <c r="E20" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="F20" s="3">
-        <v>31000</v>
+        <v>30700</v>
       </c>
       <c r="G20" s="3">
-        <v>114100</v>
+        <v>113000</v>
       </c>
       <c r="H20" s="3">
-        <v>-25300</v>
+        <v>-25100</v>
       </c>
       <c r="I20" s="3">
-        <v>43100</v>
+        <v>42700</v>
       </c>
       <c r="J20" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>408700</v>
+        <v>405000</v>
       </c>
       <c r="E21" s="3">
-        <v>364900</v>
+        <v>361500</v>
       </c>
       <c r="F21" s="3">
-        <v>429500</v>
+        <v>425500</v>
       </c>
       <c r="G21" s="3">
-        <v>392500</v>
+        <v>388800</v>
       </c>
       <c r="H21" s="3">
-        <v>203400</v>
+        <v>201500</v>
       </c>
       <c r="I21" s="3">
-        <v>82800</v>
+        <v>82000</v>
       </c>
       <c r="J21" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>403200</v>
+        <v>399600</v>
       </c>
       <c r="E23" s="3">
-        <v>357200</v>
+        <v>354000</v>
       </c>
       <c r="F23" s="3">
-        <v>420900</v>
+        <v>417100</v>
       </c>
       <c r="G23" s="3">
-        <v>386200</v>
+        <v>382700</v>
       </c>
       <c r="H23" s="3">
-        <v>200100</v>
+        <v>198300</v>
       </c>
       <c r="I23" s="3">
-        <v>81000</v>
+        <v>80300</v>
       </c>
       <c r="J23" s="3">
-        <v>-10000</v>
+        <v>-9900</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="E24" s="3">
-        <v>67100</v>
+        <v>66500</v>
       </c>
       <c r="F24" s="3">
-        <v>71000</v>
+        <v>70400</v>
       </c>
       <c r="G24" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="H24" s="3">
-        <v>40500</v>
+        <v>40100</v>
       </c>
       <c r="I24" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="J24" s="3">
         <v>600</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>367700</v>
+        <v>364400</v>
       </c>
       <c r="E26" s="3">
-        <v>290100</v>
+        <v>287500</v>
       </c>
       <c r="F26" s="3">
-        <v>349900</v>
+        <v>346800</v>
       </c>
       <c r="G26" s="3">
-        <v>363900</v>
+        <v>360600</v>
       </c>
       <c r="H26" s="3">
-        <v>159600</v>
+        <v>158100</v>
       </c>
       <c r="I26" s="3">
-        <v>73900</v>
+        <v>73200</v>
       </c>
       <c r="J26" s="3">
-        <v>-10600</v>
+        <v>-10500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>369700</v>
+        <v>366400</v>
       </c>
       <c r="E27" s="3">
-        <v>290700</v>
+        <v>288100</v>
       </c>
       <c r="F27" s="3">
-        <v>349700</v>
+        <v>346500</v>
       </c>
       <c r="G27" s="3">
-        <v>363800</v>
+        <v>360600</v>
       </c>
       <c r="H27" s="3">
-        <v>-293300</v>
+        <v>-290700</v>
       </c>
       <c r="I27" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="J27" s="3">
-        <v>-26700</v>
+        <v>-26400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18000</v>
+        <v>-17900</v>
       </c>
       <c r="E32" s="3">
-        <v>-17200</v>
+        <v>-17000</v>
       </c>
       <c r="F32" s="3">
-        <v>-31000</v>
+        <v>-30700</v>
       </c>
       <c r="G32" s="3">
-        <v>-114100</v>
+        <v>-113000</v>
       </c>
       <c r="H32" s="3">
-        <v>25300</v>
+        <v>25100</v>
       </c>
       <c r="I32" s="3">
-        <v>-43100</v>
+        <v>-42700</v>
       </c>
       <c r="J32" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>369700</v>
+        <v>366400</v>
       </c>
       <c r="E33" s="3">
-        <v>290700</v>
+        <v>288100</v>
       </c>
       <c r="F33" s="3">
-        <v>349700</v>
+        <v>346500</v>
       </c>
       <c r="G33" s="3">
-        <v>363800</v>
+        <v>360600</v>
       </c>
       <c r="H33" s="3">
-        <v>-293300</v>
+        <v>-290700</v>
       </c>
       <c r="I33" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="J33" s="3">
-        <v>-26700</v>
+        <v>-26400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>369700</v>
+        <v>366400</v>
       </c>
       <c r="E35" s="3">
-        <v>290700</v>
+        <v>288100</v>
       </c>
       <c r="F35" s="3">
-        <v>349700</v>
+        <v>346500</v>
       </c>
       <c r="G35" s="3">
-        <v>363800</v>
+        <v>360600</v>
       </c>
       <c r="H35" s="3">
-        <v>-293300</v>
+        <v>-290700</v>
       </c>
       <c r="I35" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="J35" s="3">
-        <v>-26700</v>
+        <v>-26400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>651100</v>
+        <v>645200</v>
       </c>
       <c r="E41" s="3">
-        <v>387900</v>
+        <v>384400</v>
       </c>
       <c r="F41" s="3">
-        <v>342500</v>
+        <v>339500</v>
       </c>
       <c r="G41" s="3">
-        <v>238200</v>
+        <v>236000</v>
       </c>
       <c r="H41" s="3">
-        <v>278700</v>
+        <v>276200</v>
       </c>
       <c r="I41" s="3">
-        <v>59600</v>
+        <v>59100</v>
       </c>
       <c r="J41" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>415900</v>
+        <v>412200</v>
       </c>
       <c r="E43" s="3">
-        <v>292600</v>
+        <v>289900</v>
       </c>
       <c r="F43" s="3">
-        <v>667800</v>
+        <v>661800</v>
       </c>
       <c r="G43" s="3">
-        <v>424200</v>
+        <v>420300</v>
       </c>
       <c r="H43" s="3">
-        <v>172800</v>
+        <v>171200</v>
       </c>
       <c r="I43" s="3">
-        <v>45200</v>
+        <v>44800</v>
       </c>
       <c r="J43" s="3">
-        <v>25600</v>
+        <v>25300</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>279900</v>
+        <v>277400</v>
       </c>
       <c r="E45" s="3">
-        <v>154700</v>
+        <v>153300</v>
       </c>
       <c r="F45" s="3">
-        <v>205000</v>
+        <v>203100</v>
       </c>
       <c r="G45" s="3">
-        <v>29200</v>
+        <v>29000</v>
       </c>
       <c r="H45" s="3">
-        <v>20000</v>
+        <v>19900</v>
       </c>
       <c r="I45" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="J45" s="3">
         <v>2600</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>612800</v>
+        <v>607200</v>
       </c>
       <c r="E47" s="3">
-        <v>777500</v>
+        <v>770500</v>
       </c>
       <c r="F47" s="3">
-        <v>868900</v>
+        <v>861000</v>
       </c>
       <c r="G47" s="3">
-        <v>634900</v>
+        <v>629100</v>
       </c>
       <c r="H47" s="3">
-        <v>390900</v>
+        <v>387400</v>
       </c>
       <c r="I47" s="3">
-        <v>44500</v>
+        <v>44100</v>
       </c>
       <c r="J47" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23800</v>
+        <v>23600</v>
       </c>
       <c r="E48" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="F48" s="3">
-        <v>33900</v>
+        <v>33600</v>
       </c>
       <c r="G48" s="3">
-        <v>21200</v>
+        <v>21000</v>
       </c>
       <c r="H48" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="I48" s="3">
         <v>5500</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="E49" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="F49" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="G49" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="H49" s="3">
-        <v>16800</v>
+        <v>16700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>667400</v>
+        <v>661400</v>
       </c>
       <c r="E52" s="3">
-        <v>536400</v>
+        <v>531500</v>
       </c>
       <c r="F52" s="3">
-        <v>562300</v>
+        <v>557200</v>
       </c>
       <c r="G52" s="3">
-        <v>560000</v>
+        <v>555000</v>
       </c>
       <c r="H52" s="3">
-        <v>371500</v>
+        <v>368100</v>
       </c>
       <c r="I52" s="3">
-        <v>123000</v>
+        <v>121900</v>
       </c>
       <c r="J52" s="3">
-        <v>41900</v>
+        <v>41600</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2672900</v>
+        <v>2648800</v>
       </c>
       <c r="E54" s="3">
-        <v>2193000</v>
+        <v>2173200</v>
       </c>
       <c r="F54" s="3">
-        <v>2697300</v>
+        <v>2673000</v>
       </c>
       <c r="G54" s="3">
-        <v>1936700</v>
+        <v>1919200</v>
       </c>
       <c r="H54" s="3">
-        <v>1267800</v>
+        <v>1256400</v>
       </c>
       <c r="I54" s="3">
-        <v>316400</v>
+        <v>313600</v>
       </c>
       <c r="J54" s="3">
-        <v>108600</v>
+        <v>107600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="E57" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="F57" s="3">
-        <v>100900</v>
+        <v>100000</v>
       </c>
       <c r="G57" s="3">
-        <v>133400</v>
+        <v>132200</v>
       </c>
       <c r="H57" s="3">
-        <v>164200</v>
+        <v>162700</v>
       </c>
       <c r="I57" s="3">
-        <v>62100</v>
+        <v>61600</v>
       </c>
       <c r="J57" s="3">
-        <v>26000</v>
+        <v>25700</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>34600</v>
+        <v>34300</v>
       </c>
       <c r="G58" s="3">
         <v>3700</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>156700</v>
+        <v>155300</v>
       </c>
       <c r="E59" s="3">
-        <v>128600</v>
+        <v>127500</v>
       </c>
       <c r="F59" s="3">
-        <v>796200</v>
+        <v>789000</v>
       </c>
       <c r="G59" s="3">
-        <v>651500</v>
+        <v>645600</v>
       </c>
       <c r="H59" s="3">
-        <v>394200</v>
+        <v>390700</v>
       </c>
       <c r="I59" s="3">
-        <v>107000</v>
+        <v>106000</v>
       </c>
       <c r="J59" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E62" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="F62" s="3">
-        <v>29300</v>
+        <v>29000</v>
       </c>
       <c r="G62" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="H62" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1102700</v>
+        <v>1092800</v>
       </c>
       <c r="E66" s="3">
-        <v>960600</v>
+        <v>952000</v>
       </c>
       <c r="F66" s="3">
-        <v>1526100</v>
+        <v>1512400</v>
       </c>
       <c r="G66" s="3">
-        <v>1063700</v>
+        <v>1054100</v>
       </c>
       <c r="H66" s="3">
-        <v>734100</v>
+        <v>727400</v>
       </c>
       <c r="I66" s="3">
-        <v>202600</v>
+        <v>200800</v>
       </c>
       <c r="J66" s="3">
-        <v>69000</v>
+        <v>68400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>178400</v>
+        <v>176800</v>
       </c>
       <c r="J70" s="3">
-        <v>86300</v>
+        <v>85500</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>781200</v>
+        <v>774200</v>
       </c>
       <c r="E72" s="3">
-        <v>458300</v>
+        <v>454100</v>
       </c>
       <c r="F72" s="3">
-        <v>336500</v>
+        <v>333500</v>
       </c>
       <c r="G72" s="3">
-        <v>44500</v>
+        <v>44100</v>
       </c>
       <c r="H72" s="3">
-        <v>-345400</v>
+        <v>-342300</v>
       </c>
       <c r="I72" s="3">
-        <v>-52100</v>
+        <v>-51600</v>
       </c>
       <c r="J72" s="3">
-        <v>-43200</v>
+        <v>-42800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1570200</v>
+        <v>1556000</v>
       </c>
       <c r="E76" s="3">
-        <v>1232400</v>
+        <v>1221300</v>
       </c>
       <c r="F76" s="3">
-        <v>1171200</v>
+        <v>1160600</v>
       </c>
       <c r="G76" s="3">
-        <v>872900</v>
+        <v>865100</v>
       </c>
       <c r="H76" s="3">
-        <v>533800</v>
+        <v>528900</v>
       </c>
       <c r="I76" s="3">
-        <v>-64600</v>
+        <v>-64000</v>
       </c>
       <c r="J76" s="3">
-        <v>-46800</v>
+        <v>-46300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>369700</v>
+        <v>366400</v>
       </c>
       <c r="E81" s="3">
-        <v>290700</v>
+        <v>288100</v>
       </c>
       <c r="F81" s="3">
-        <v>349700</v>
+        <v>346500</v>
       </c>
       <c r="G81" s="3">
-        <v>363800</v>
+        <v>360600</v>
       </c>
       <c r="H81" s="3">
-        <v>-293300</v>
+        <v>-290700</v>
       </c>
       <c r="I81" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="J81" s="3">
-        <v>-26700</v>
+        <v>-26400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3104,13 +3104,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="E83" s="3">
         <v>7600</v>
       </c>
       <c r="F83" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="G83" s="3">
         <v>6200</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>92900</v>
+        <v>92000</v>
       </c>
       <c r="E89" s="3">
-        <v>325200</v>
+        <v>322300</v>
       </c>
       <c r="F89" s="3">
-        <v>-31800</v>
+        <v>-31500</v>
       </c>
       <c r="G89" s="3">
-        <v>277800</v>
+        <v>275300</v>
       </c>
       <c r="H89" s="3">
-        <v>274800</v>
+        <v>272300</v>
       </c>
       <c r="I89" s="3">
-        <v>78700</v>
+        <v>78000</v>
       </c>
       <c r="J89" s="3">
-        <v>-28300</v>
+        <v>-28000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3378,13 +3378,13 @@
         <v>-1600</v>
       </c>
       <c r="F91" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="G91" s="3">
-        <v>-12300</v>
+        <v>-12200</v>
       </c>
       <c r="H91" s="3">
-        <v>-13400</v>
+        <v>-13300</v>
       </c>
       <c r="I91" s="3">
         <v>-4400</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>294000</v>
+        <v>291300</v>
       </c>
       <c r="E94" s="3">
-        <v>153500</v>
+        <v>152100</v>
       </c>
       <c r="F94" s="3">
-        <v>-122000</v>
+        <v>-120900</v>
       </c>
       <c r="G94" s="3">
-        <v>-213200</v>
+        <v>-211300</v>
       </c>
       <c r="H94" s="3">
-        <v>-367700</v>
+        <v>-364400</v>
       </c>
       <c r="I94" s="3">
-        <v>-97700</v>
+        <v>-96800</v>
       </c>
       <c r="J94" s="3">
-        <v>-19500</v>
+        <v>-19300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-35300</v>
+        <v>-35000</v>
       </c>
       <c r="E100" s="3">
-        <v>-455500</v>
+        <v>-451400</v>
       </c>
       <c r="F100" s="3">
-        <v>257800</v>
+        <v>255500</v>
       </c>
       <c r="G100" s="3">
-        <v>78100</v>
+        <v>77400</v>
       </c>
       <c r="H100" s="3">
-        <v>314300</v>
+        <v>311500</v>
       </c>
       <c r="I100" s="3">
-        <v>64600</v>
+        <v>64100</v>
       </c>
       <c r="J100" s="3">
-        <v>49800</v>
+        <v>49400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3715,13 +3715,13 @@
         <v>-1500</v>
       </c>
       <c r="E101" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="F101" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G101" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="H101" s="3">
         <v>-2300</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>350000</v>
+        <v>346800</v>
       </c>
       <c r="E102" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="F102" s="3">
-        <v>105700</v>
+        <v>104700</v>
       </c>
       <c r="G102" s="3">
-        <v>148800</v>
+        <v>147500</v>
       </c>
       <c r="H102" s="3">
-        <v>219000</v>
+        <v>217100</v>
       </c>
       <c r="I102" s="3">
-        <v>46000</v>
+        <v>45600</v>
       </c>
       <c r="J102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1382900</v>
+        <v>1318200</v>
       </c>
       <c r="E8" s="3">
-        <v>1104400</v>
+        <v>1052800</v>
       </c>
       <c r="F8" s="3">
-        <v>870700</v>
+        <v>830000</v>
       </c>
       <c r="G8" s="3">
-        <v>635400</v>
+        <v>605600</v>
       </c>
       <c r="H8" s="3">
-        <v>566700</v>
+        <v>540200</v>
       </c>
       <c r="I8" s="3">
-        <v>177500</v>
+        <v>169200</v>
       </c>
       <c r="J8" s="3">
-        <v>28600</v>
+        <v>27200</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>269000</v>
+        <v>256400</v>
       </c>
       <c r="E9" s="3">
-        <v>193600</v>
+        <v>184500</v>
       </c>
       <c r="F9" s="3">
-        <v>176400</v>
+        <v>168200</v>
       </c>
       <c r="G9" s="3">
-        <v>143900</v>
+        <v>137200</v>
       </c>
       <c r="H9" s="3">
-        <v>142300</v>
+        <v>135700</v>
       </c>
       <c r="I9" s="3">
-        <v>56700</v>
+        <v>54000</v>
       </c>
       <c r="J9" s="3">
-        <v>14500</v>
+        <v>13800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1113900</v>
+        <v>1061800</v>
       </c>
       <c r="E10" s="3">
-        <v>910900</v>
+        <v>868300</v>
       </c>
       <c r="F10" s="3">
-        <v>694300</v>
+        <v>661800</v>
       </c>
       <c r="G10" s="3">
-        <v>491400</v>
+        <v>468500</v>
       </c>
       <c r="H10" s="3">
-        <v>424400</v>
+        <v>404500</v>
       </c>
       <c r="I10" s="3">
-        <v>120900</v>
+        <v>115200</v>
       </c>
       <c r="J10" s="3">
-        <v>14100</v>
+        <v>13400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -845,25 +845,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>63500</v>
+        <v>60500</v>
       </c>
       <c r="E12" s="3">
-        <v>54100</v>
+        <v>51500</v>
       </c>
       <c r="F12" s="3">
-        <v>57000</v>
+        <v>54400</v>
       </c>
       <c r="G12" s="3">
-        <v>46400</v>
+        <v>44300</v>
       </c>
       <c r="H12" s="3">
-        <v>24100</v>
+        <v>22900</v>
       </c>
       <c r="I12" s="3">
-        <v>16700</v>
+        <v>16000</v>
       </c>
       <c r="J12" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -917,10 +917,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>286700</v>
+        <v>273300</v>
       </c>
       <c r="E14" s="3">
-        <v>293200</v>
+        <v>279500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1001200</v>
+        <v>954400</v>
       </c>
       <c r="E17" s="3">
-        <v>767500</v>
+        <v>731600</v>
       </c>
       <c r="F17" s="3">
-        <v>484300</v>
+        <v>461600</v>
       </c>
       <c r="G17" s="3">
-        <v>365700</v>
+        <v>348600</v>
       </c>
       <c r="H17" s="3">
-        <v>343400</v>
+        <v>327300</v>
       </c>
       <c r="I17" s="3">
-        <v>139900</v>
+        <v>133400</v>
       </c>
       <c r="J17" s="3">
-        <v>49800</v>
+        <v>47400</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>381700</v>
+        <v>363800</v>
       </c>
       <c r="E18" s="3">
-        <v>337000</v>
+        <v>321200</v>
       </c>
       <c r="F18" s="3">
-        <v>386500</v>
+        <v>368400</v>
       </c>
       <c r="G18" s="3">
-        <v>269700</v>
+        <v>257000</v>
       </c>
       <c r="H18" s="3">
-        <v>223300</v>
+        <v>212900</v>
       </c>
       <c r="I18" s="3">
-        <v>37600</v>
+        <v>35800</v>
       </c>
       <c r="J18" s="3">
-        <v>-21200</v>
+        <v>-20200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17900</v>
+        <v>17000</v>
       </c>
       <c r="E20" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="F20" s="3">
-        <v>30700</v>
+        <v>29200</v>
       </c>
       <c r="G20" s="3">
-        <v>113000</v>
+        <v>107700</v>
       </c>
       <c r="H20" s="3">
-        <v>-25100</v>
+        <v>-23900</v>
       </c>
       <c r="I20" s="3">
-        <v>42700</v>
+        <v>40700</v>
       </c>
       <c r="J20" s="3">
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>405000</v>
+        <v>386000</v>
       </c>
       <c r="E21" s="3">
-        <v>361500</v>
+        <v>344600</v>
       </c>
       <c r="F21" s="3">
-        <v>425500</v>
+        <v>405600</v>
       </c>
       <c r="G21" s="3">
-        <v>388800</v>
+        <v>370600</v>
       </c>
       <c r="H21" s="3">
-        <v>201500</v>
+        <v>192100</v>
       </c>
       <c r="I21" s="3">
-        <v>82000</v>
+        <v>78200</v>
       </c>
       <c r="J21" s="3">
-        <v>-9400</v>
+        <v>-9000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>399600</v>
+        <v>380900</v>
       </c>
       <c r="E23" s="3">
-        <v>354000</v>
+        <v>337400</v>
       </c>
       <c r="F23" s="3">
-        <v>417100</v>
+        <v>397600</v>
       </c>
       <c r="G23" s="3">
-        <v>382700</v>
+        <v>364800</v>
       </c>
       <c r="H23" s="3">
-        <v>198300</v>
+        <v>189000</v>
       </c>
       <c r="I23" s="3">
-        <v>80300</v>
+        <v>76500</v>
       </c>
       <c r="J23" s="3">
-        <v>-9900</v>
+        <v>-9400</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35200</v>
+        <v>33500</v>
       </c>
       <c r="E24" s="3">
-        <v>66500</v>
+        <v>63400</v>
       </c>
       <c r="F24" s="3">
-        <v>70400</v>
+        <v>67100</v>
       </c>
       <c r="G24" s="3">
-        <v>22100</v>
+        <v>21000</v>
       </c>
       <c r="H24" s="3">
-        <v>40100</v>
+        <v>38200</v>
       </c>
       <c r="I24" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="J24" s="3">
         <v>600</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>364400</v>
+        <v>347300</v>
       </c>
       <c r="E26" s="3">
-        <v>287500</v>
+        <v>274000</v>
       </c>
       <c r="F26" s="3">
-        <v>346800</v>
+        <v>330500</v>
       </c>
       <c r="G26" s="3">
-        <v>360600</v>
+        <v>343700</v>
       </c>
       <c r="H26" s="3">
-        <v>158100</v>
+        <v>150700</v>
       </c>
       <c r="I26" s="3">
-        <v>73200</v>
+        <v>69800</v>
       </c>
       <c r="J26" s="3">
-        <v>-10500</v>
+        <v>-10000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>366400</v>
+        <v>349200</v>
       </c>
       <c r="E27" s="3">
-        <v>288100</v>
+        <v>274600</v>
       </c>
       <c r="F27" s="3">
-        <v>346500</v>
+        <v>330300</v>
       </c>
       <c r="G27" s="3">
-        <v>360600</v>
+        <v>343700</v>
       </c>
       <c r="H27" s="3">
-        <v>-290700</v>
+        <v>-277100</v>
       </c>
       <c r="I27" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="J27" s="3">
-        <v>-26400</v>
+        <v>-25200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17900</v>
+        <v>-17000</v>
       </c>
       <c r="E32" s="3">
-        <v>-17000</v>
+        <v>-16200</v>
       </c>
       <c r="F32" s="3">
-        <v>-30700</v>
+        <v>-29200</v>
       </c>
       <c r="G32" s="3">
-        <v>-113000</v>
+        <v>-107700</v>
       </c>
       <c r="H32" s="3">
-        <v>25100</v>
+        <v>23900</v>
       </c>
       <c r="I32" s="3">
-        <v>-42700</v>
+        <v>-40700</v>
       </c>
       <c r="J32" s="3">
-        <v>-11300</v>
+        <v>-10800</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>366400</v>
+        <v>349200</v>
       </c>
       <c r="E33" s="3">
-        <v>288100</v>
+        <v>274600</v>
       </c>
       <c r="F33" s="3">
-        <v>346500</v>
+        <v>330300</v>
       </c>
       <c r="G33" s="3">
-        <v>360600</v>
+        <v>343700</v>
       </c>
       <c r="H33" s="3">
-        <v>-290700</v>
+        <v>-277100</v>
       </c>
       <c r="I33" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="J33" s="3">
-        <v>-26400</v>
+        <v>-25200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>366400</v>
+        <v>349200</v>
       </c>
       <c r="E35" s="3">
-        <v>288100</v>
+        <v>274600</v>
       </c>
       <c r="F35" s="3">
-        <v>346500</v>
+        <v>330300</v>
       </c>
       <c r="G35" s="3">
-        <v>360600</v>
+        <v>343700</v>
       </c>
       <c r="H35" s="3">
-        <v>-290700</v>
+        <v>-277100</v>
       </c>
       <c r="I35" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="J35" s="3">
-        <v>-26400</v>
+        <v>-25200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>645200</v>
+        <v>615000</v>
       </c>
       <c r="E41" s="3">
-        <v>384400</v>
+        <v>366400</v>
       </c>
       <c r="F41" s="3">
-        <v>339500</v>
+        <v>323600</v>
       </c>
       <c r="G41" s="3">
-        <v>236000</v>
+        <v>225000</v>
       </c>
       <c r="H41" s="3">
-        <v>276200</v>
+        <v>263200</v>
       </c>
       <c r="I41" s="3">
-        <v>59100</v>
+        <v>56300</v>
       </c>
       <c r="J41" s="3">
-        <v>13500</v>
+        <v>12900</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>412200</v>
+        <v>392900</v>
       </c>
       <c r="E43" s="3">
-        <v>289900</v>
+        <v>276400</v>
       </c>
       <c r="F43" s="3">
-        <v>661800</v>
+        <v>630800</v>
       </c>
       <c r="G43" s="3">
-        <v>420300</v>
+        <v>400700</v>
       </c>
       <c r="H43" s="3">
-        <v>171200</v>
+        <v>163200</v>
       </c>
       <c r="I43" s="3">
-        <v>44800</v>
+        <v>42700</v>
       </c>
       <c r="J43" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>277400</v>
+        <v>264400</v>
       </c>
       <c r="E45" s="3">
-        <v>153300</v>
+        <v>146200</v>
       </c>
       <c r="F45" s="3">
-        <v>203100</v>
+        <v>193600</v>
       </c>
       <c r="G45" s="3">
-        <v>29000</v>
+        <v>27600</v>
       </c>
       <c r="H45" s="3">
-        <v>19900</v>
+        <v>18900</v>
       </c>
       <c r="I45" s="3">
-        <v>12700</v>
+        <v>12100</v>
       </c>
       <c r="J45" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>607200</v>
+        <v>578800</v>
       </c>
       <c r="E47" s="3">
-        <v>770500</v>
+        <v>734500</v>
       </c>
       <c r="F47" s="3">
-        <v>861000</v>
+        <v>820800</v>
       </c>
       <c r="G47" s="3">
-        <v>629100</v>
+        <v>599700</v>
       </c>
       <c r="H47" s="3">
-        <v>387400</v>
+        <v>369300</v>
       </c>
       <c r="I47" s="3">
-        <v>44100</v>
+        <v>42000</v>
       </c>
       <c r="J47" s="3">
-        <v>18400</v>
+        <v>17500</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23600</v>
+        <v>22500</v>
       </c>
       <c r="E48" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="F48" s="3">
-        <v>33600</v>
+        <v>32000</v>
       </c>
       <c r="G48" s="3">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H48" s="3">
-        <v>15800</v>
+        <v>15100</v>
       </c>
       <c r="I48" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="J48" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="E49" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="F49" s="3">
-        <v>16700</v>
+        <v>16000</v>
       </c>
       <c r="G49" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="H49" s="3">
-        <v>16700</v>
+        <v>15900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>661400</v>
+        <v>630500</v>
       </c>
       <c r="E52" s="3">
-        <v>531500</v>
+        <v>506700</v>
       </c>
       <c r="F52" s="3">
-        <v>557200</v>
+        <v>531200</v>
       </c>
       <c r="G52" s="3">
-        <v>555000</v>
+        <v>529000</v>
       </c>
       <c r="H52" s="3">
-        <v>368100</v>
+        <v>350900</v>
       </c>
       <c r="I52" s="3">
-        <v>121900</v>
+        <v>116200</v>
       </c>
       <c r="J52" s="3">
-        <v>41600</v>
+        <v>39600</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2648800</v>
+        <v>2524900</v>
       </c>
       <c r="E54" s="3">
-        <v>2173200</v>
+        <v>2071600</v>
       </c>
       <c r="F54" s="3">
-        <v>2673000</v>
+        <v>2548000</v>
       </c>
       <c r="G54" s="3">
-        <v>1919200</v>
+        <v>1829400</v>
       </c>
       <c r="H54" s="3">
-        <v>1256400</v>
+        <v>1197600</v>
       </c>
       <c r="I54" s="3">
-        <v>313600</v>
+        <v>298900</v>
       </c>
       <c r="J54" s="3">
-        <v>107600</v>
+        <v>102600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11900</v>
+        <v>11300</v>
       </c>
       <c r="E57" s="3">
-        <v>15100</v>
+        <v>14400</v>
       </c>
       <c r="F57" s="3">
-        <v>100000</v>
+        <v>95300</v>
       </c>
       <c r="G57" s="3">
-        <v>132200</v>
+        <v>126000</v>
       </c>
       <c r="H57" s="3">
-        <v>162700</v>
+        <v>155100</v>
       </c>
       <c r="I57" s="3">
-        <v>61600</v>
+        <v>58700</v>
       </c>
       <c r="J57" s="3">
-        <v>25700</v>
+        <v>24500</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2317,19 +2317,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>34300</v>
+        <v>32700</v>
       </c>
       <c r="G58" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I58" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>155300</v>
+        <v>148000</v>
       </c>
       <c r="E59" s="3">
-        <v>127500</v>
+        <v>121500</v>
       </c>
       <c r="F59" s="3">
-        <v>789000</v>
+        <v>752100</v>
       </c>
       <c r="G59" s="3">
-        <v>645600</v>
+        <v>615400</v>
       </c>
       <c r="H59" s="3">
-        <v>390700</v>
+        <v>372400</v>
       </c>
       <c r="I59" s="3">
-        <v>106000</v>
+        <v>101100</v>
       </c>
       <c r="J59" s="3">
-        <v>31700</v>
+        <v>30200</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20100</v>
+        <v>19200</v>
       </c>
       <c r="E62" s="3">
-        <v>15100</v>
+        <v>14400</v>
       </c>
       <c r="F62" s="3">
-        <v>29000</v>
+        <v>27700</v>
       </c>
       <c r="G62" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="H62" s="3">
-        <v>18000</v>
+        <v>17200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1092800</v>
+        <v>1041700</v>
       </c>
       <c r="E66" s="3">
-        <v>952000</v>
+        <v>907400</v>
       </c>
       <c r="F66" s="3">
-        <v>1512400</v>
+        <v>1441600</v>
       </c>
       <c r="G66" s="3">
-        <v>1054100</v>
+        <v>1004800</v>
       </c>
       <c r="H66" s="3">
-        <v>727400</v>
+        <v>693400</v>
       </c>
       <c r="I66" s="3">
-        <v>200800</v>
+        <v>191400</v>
       </c>
       <c r="J66" s="3">
-        <v>68400</v>
+        <v>65200</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>176800</v>
+        <v>168500</v>
       </c>
       <c r="J70" s="3">
-        <v>85500</v>
+        <v>81500</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>774200</v>
+        <v>737900</v>
       </c>
       <c r="E72" s="3">
-        <v>454100</v>
+        <v>432900</v>
       </c>
       <c r="F72" s="3">
-        <v>333500</v>
+        <v>317900</v>
       </c>
       <c r="G72" s="3">
-        <v>44100</v>
+        <v>42000</v>
       </c>
       <c r="H72" s="3">
-        <v>-342300</v>
+        <v>-326300</v>
       </c>
       <c r="I72" s="3">
-        <v>-51600</v>
+        <v>-49200</v>
       </c>
       <c r="J72" s="3">
-        <v>-42800</v>
+        <v>-40800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1556000</v>
+        <v>1483200</v>
       </c>
       <c r="E76" s="3">
-        <v>1221300</v>
+        <v>1164200</v>
       </c>
       <c r="F76" s="3">
-        <v>1160600</v>
+        <v>1106400</v>
       </c>
       <c r="G76" s="3">
-        <v>865100</v>
+        <v>824600</v>
       </c>
       <c r="H76" s="3">
-        <v>528900</v>
+        <v>504200</v>
       </c>
       <c r="I76" s="3">
-        <v>-64000</v>
+        <v>-61000</v>
       </c>
       <c r="J76" s="3">
-        <v>-46300</v>
+        <v>-44100</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>366400</v>
+        <v>349200</v>
       </c>
       <c r="E81" s="3">
-        <v>288100</v>
+        <v>274600</v>
       </c>
       <c r="F81" s="3">
-        <v>346500</v>
+        <v>330300</v>
       </c>
       <c r="G81" s="3">
-        <v>360600</v>
+        <v>343700</v>
       </c>
       <c r="H81" s="3">
-        <v>-290700</v>
+        <v>-277100</v>
       </c>
       <c r="I81" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="J81" s="3">
-        <v>-26400</v>
+        <v>-25200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="E83" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="F83" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="G83" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="H83" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I83" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>92000</v>
+        <v>87700</v>
       </c>
       <c r="E89" s="3">
-        <v>322300</v>
+        <v>307200</v>
       </c>
       <c r="F89" s="3">
-        <v>-31500</v>
+        <v>-30000</v>
       </c>
       <c r="G89" s="3">
-        <v>275300</v>
+        <v>262400</v>
       </c>
       <c r="H89" s="3">
-        <v>272300</v>
+        <v>259500</v>
       </c>
       <c r="I89" s="3">
-        <v>78000</v>
+        <v>74300</v>
       </c>
       <c r="J89" s="3">
-        <v>-28000</v>
+        <v>-26700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8100</v>
+        <v>-7700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F91" s="3">
-        <v>-7100</v>
+        <v>-6800</v>
       </c>
       <c r="G91" s="3">
-        <v>-12200</v>
+        <v>-11600</v>
       </c>
       <c r="H91" s="3">
-        <v>-13300</v>
+        <v>-12600</v>
       </c>
       <c r="I91" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="J91" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>291300</v>
+        <v>277700</v>
       </c>
       <c r="E94" s="3">
-        <v>152100</v>
+        <v>145000</v>
       </c>
       <c r="F94" s="3">
-        <v>-120900</v>
+        <v>-115300</v>
       </c>
       <c r="G94" s="3">
-        <v>-211300</v>
+        <v>-201400</v>
       </c>
       <c r="H94" s="3">
-        <v>-364400</v>
+        <v>-347400</v>
       </c>
       <c r="I94" s="3">
-        <v>-96800</v>
+        <v>-92300</v>
       </c>
       <c r="J94" s="3">
-        <v>-19300</v>
+        <v>-18400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-35000</v>
+        <v>-33400</v>
       </c>
       <c r="E100" s="3">
-        <v>-451400</v>
+        <v>-430300</v>
       </c>
       <c r="F100" s="3">
-        <v>255500</v>
+        <v>243500</v>
       </c>
       <c r="G100" s="3">
-        <v>77400</v>
+        <v>73800</v>
       </c>
       <c r="H100" s="3">
-        <v>311500</v>
+        <v>296900</v>
       </c>
       <c r="I100" s="3">
-        <v>64100</v>
+        <v>61100</v>
       </c>
       <c r="J100" s="3">
-        <v>49400</v>
+        <v>47100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3712,22 +3712,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="E101" s="3">
-        <v>-7500</v>
+        <v>-7200</v>
       </c>
       <c r="F101" s="3">
         <v>1600</v>
       </c>
       <c r="G101" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="H101" s="3">
-        <v>-2300</v>
+        <v>-2100</v>
       </c>
       <c r="I101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J101" s="3">
         <v>200</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>346800</v>
+        <v>330600</v>
       </c>
       <c r="E102" s="3">
-        <v>15400</v>
+        <v>14700</v>
       </c>
       <c r="F102" s="3">
-        <v>104700</v>
+        <v>99800</v>
       </c>
       <c r="G102" s="3">
-        <v>147500</v>
+        <v>140600</v>
       </c>
       <c r="H102" s="3">
-        <v>217100</v>
+        <v>206900</v>
       </c>
       <c r="I102" s="3">
-        <v>45600</v>
+        <v>43500</v>
       </c>
       <c r="J102" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1318200</v>
+        <v>1360100</v>
       </c>
       <c r="E8" s="3">
-        <v>1052800</v>
+        <v>1086200</v>
       </c>
       <c r="F8" s="3">
-        <v>830000</v>
+        <v>856400</v>
       </c>
       <c r="G8" s="3">
-        <v>605600</v>
+        <v>624900</v>
       </c>
       <c r="H8" s="3">
-        <v>540200</v>
+        <v>557300</v>
       </c>
       <c r="I8" s="3">
-        <v>169200</v>
+        <v>174600</v>
       </c>
       <c r="J8" s="3">
-        <v>27200</v>
+        <v>28100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>256400</v>
+        <v>264500</v>
       </c>
       <c r="E9" s="3">
-        <v>184500</v>
+        <v>190400</v>
       </c>
       <c r="F9" s="3">
-        <v>168200</v>
+        <v>173500</v>
       </c>
       <c r="G9" s="3">
-        <v>137200</v>
+        <v>141500</v>
       </c>
       <c r="H9" s="3">
-        <v>135700</v>
+        <v>140000</v>
       </c>
       <c r="I9" s="3">
-        <v>54000</v>
+        <v>55700</v>
       </c>
       <c r="J9" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1061800</v>
+        <v>1095600</v>
       </c>
       <c r="E10" s="3">
-        <v>868300</v>
+        <v>895800</v>
       </c>
       <c r="F10" s="3">
-        <v>661800</v>
+        <v>682800</v>
       </c>
       <c r="G10" s="3">
-        <v>468500</v>
+        <v>483300</v>
       </c>
       <c r="H10" s="3">
-        <v>404500</v>
+        <v>417400</v>
       </c>
       <c r="I10" s="3">
-        <v>115200</v>
+        <v>118900</v>
       </c>
       <c r="J10" s="3">
-        <v>13400</v>
+        <v>13800</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>60500</v>
+        <v>62500</v>
       </c>
       <c r="E12" s="3">
-        <v>51500</v>
+        <v>53200</v>
       </c>
       <c r="F12" s="3">
-        <v>54400</v>
+        <v>56100</v>
       </c>
       <c r="G12" s="3">
-        <v>44300</v>
+        <v>45700</v>
       </c>
       <c r="H12" s="3">
-        <v>22900</v>
+        <v>23700</v>
       </c>
       <c r="I12" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="J12" s="3">
         <v>2000</v>
@@ -917,10 +917,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>273300</v>
+        <v>282000</v>
       </c>
       <c r="E14" s="3">
-        <v>279500</v>
+        <v>288400</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>954400</v>
+        <v>984700</v>
       </c>
       <c r="E17" s="3">
-        <v>731600</v>
+        <v>754800</v>
       </c>
       <c r="F17" s="3">
-        <v>461600</v>
+        <v>476300</v>
       </c>
       <c r="G17" s="3">
-        <v>348600</v>
+        <v>359700</v>
       </c>
       <c r="H17" s="3">
-        <v>327300</v>
+        <v>337700</v>
       </c>
       <c r="I17" s="3">
-        <v>133400</v>
+        <v>137600</v>
       </c>
       <c r="J17" s="3">
-        <v>47400</v>
+        <v>48900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>363800</v>
+        <v>375400</v>
       </c>
       <c r="E18" s="3">
-        <v>321200</v>
+        <v>331400</v>
       </c>
       <c r="F18" s="3">
-        <v>368400</v>
+        <v>380100</v>
       </c>
       <c r="G18" s="3">
-        <v>257000</v>
+        <v>265200</v>
       </c>
       <c r="H18" s="3">
-        <v>212900</v>
+        <v>219600</v>
       </c>
       <c r="I18" s="3">
-        <v>35800</v>
+        <v>37000</v>
       </c>
       <c r="J18" s="3">
-        <v>-20200</v>
+        <v>-20800</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17000</v>
+        <v>17600</v>
       </c>
       <c r="E20" s="3">
-        <v>16200</v>
+        <v>16700</v>
       </c>
       <c r="F20" s="3">
-        <v>29200</v>
+        <v>30200</v>
       </c>
       <c r="G20" s="3">
-        <v>107700</v>
+        <v>111200</v>
       </c>
       <c r="H20" s="3">
-        <v>-23900</v>
+        <v>-24600</v>
       </c>
       <c r="I20" s="3">
-        <v>40700</v>
+        <v>42000</v>
       </c>
       <c r="J20" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>386000</v>
+        <v>398300</v>
       </c>
       <c r="E21" s="3">
-        <v>344600</v>
+        <v>355600</v>
       </c>
       <c r="F21" s="3">
-        <v>405600</v>
+        <v>418600</v>
       </c>
       <c r="G21" s="3">
-        <v>370600</v>
+        <v>382400</v>
       </c>
       <c r="H21" s="3">
-        <v>192100</v>
+        <v>198200</v>
       </c>
       <c r="I21" s="3">
-        <v>78200</v>
+        <v>80700</v>
       </c>
       <c r="J21" s="3">
-        <v>-9000</v>
+        <v>-9300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>380900</v>
+        <v>393000</v>
       </c>
       <c r="E23" s="3">
-        <v>337400</v>
+        <v>348100</v>
       </c>
       <c r="F23" s="3">
-        <v>397600</v>
+        <v>410200</v>
       </c>
       <c r="G23" s="3">
-        <v>364800</v>
+        <v>376400</v>
       </c>
       <c r="H23" s="3">
-        <v>189000</v>
+        <v>195000</v>
       </c>
       <c r="I23" s="3">
-        <v>76500</v>
+        <v>79000</v>
       </c>
       <c r="J23" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>33500</v>
+        <v>34600</v>
       </c>
       <c r="E24" s="3">
-        <v>63400</v>
+        <v>65400</v>
       </c>
       <c r="F24" s="3">
-        <v>67100</v>
+        <v>69200</v>
       </c>
       <c r="G24" s="3">
-        <v>21000</v>
+        <v>21700</v>
       </c>
       <c r="H24" s="3">
-        <v>38200</v>
+        <v>39500</v>
       </c>
       <c r="I24" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="J24" s="3">
         <v>600</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>347300</v>
+        <v>358400</v>
       </c>
       <c r="E26" s="3">
-        <v>274000</v>
+        <v>282700</v>
       </c>
       <c r="F26" s="3">
-        <v>330500</v>
+        <v>341000</v>
       </c>
       <c r="G26" s="3">
-        <v>343700</v>
+        <v>354700</v>
       </c>
       <c r="H26" s="3">
-        <v>150700</v>
+        <v>155500</v>
       </c>
       <c r="I26" s="3">
-        <v>69800</v>
+        <v>72000</v>
       </c>
       <c r="J26" s="3">
-        <v>-10000</v>
+        <v>-10400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>349200</v>
+        <v>360300</v>
       </c>
       <c r="E27" s="3">
-        <v>274600</v>
+        <v>283300</v>
       </c>
       <c r="F27" s="3">
-        <v>330300</v>
+        <v>340800</v>
       </c>
       <c r="G27" s="3">
-        <v>343700</v>
+        <v>354600</v>
       </c>
       <c r="H27" s="3">
-        <v>-277100</v>
+        <v>-285900</v>
       </c>
       <c r="I27" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="J27" s="3">
-        <v>-25200</v>
+        <v>-26000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17000</v>
+        <v>-17600</v>
       </c>
       <c r="E32" s="3">
-        <v>-16200</v>
+        <v>-16700</v>
       </c>
       <c r="F32" s="3">
-        <v>-29200</v>
+        <v>-30200</v>
       </c>
       <c r="G32" s="3">
-        <v>-107700</v>
+        <v>-111200</v>
       </c>
       <c r="H32" s="3">
-        <v>23900</v>
+        <v>24600</v>
       </c>
       <c r="I32" s="3">
-        <v>-40700</v>
+        <v>-42000</v>
       </c>
       <c r="J32" s="3">
-        <v>-10800</v>
+        <v>-11100</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>349200</v>
+        <v>360300</v>
       </c>
       <c r="E33" s="3">
-        <v>274600</v>
+        <v>283300</v>
       </c>
       <c r="F33" s="3">
-        <v>330300</v>
+        <v>340800</v>
       </c>
       <c r="G33" s="3">
-        <v>343700</v>
+        <v>354600</v>
       </c>
       <c r="H33" s="3">
-        <v>-277100</v>
+        <v>-285900</v>
       </c>
       <c r="I33" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="J33" s="3">
-        <v>-25200</v>
+        <v>-26000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>349200</v>
+        <v>360300</v>
       </c>
       <c r="E35" s="3">
-        <v>274600</v>
+        <v>283300</v>
       </c>
       <c r="F35" s="3">
-        <v>330300</v>
+        <v>340800</v>
       </c>
       <c r="G35" s="3">
-        <v>343700</v>
+        <v>354600</v>
       </c>
       <c r="H35" s="3">
-        <v>-277100</v>
+        <v>-285900</v>
       </c>
       <c r="I35" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="J35" s="3">
-        <v>-25200</v>
+        <v>-26000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>615000</v>
+        <v>634500</v>
       </c>
       <c r="E41" s="3">
-        <v>366400</v>
+        <v>378000</v>
       </c>
       <c r="F41" s="3">
-        <v>323600</v>
+        <v>333900</v>
       </c>
       <c r="G41" s="3">
-        <v>225000</v>
+        <v>232100</v>
       </c>
       <c r="H41" s="3">
-        <v>263200</v>
+        <v>271600</v>
       </c>
       <c r="I41" s="3">
-        <v>56300</v>
+        <v>58100</v>
       </c>
       <c r="J41" s="3">
-        <v>12900</v>
+        <v>13300</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>392900</v>
+        <v>405400</v>
       </c>
       <c r="E43" s="3">
-        <v>276400</v>
+        <v>285200</v>
       </c>
       <c r="F43" s="3">
-        <v>630800</v>
+        <v>650900</v>
       </c>
       <c r="G43" s="3">
-        <v>400700</v>
+        <v>413400</v>
       </c>
       <c r="H43" s="3">
-        <v>163200</v>
+        <v>168400</v>
       </c>
       <c r="I43" s="3">
-        <v>42700</v>
+        <v>44100</v>
       </c>
       <c r="J43" s="3">
-        <v>24100</v>
+        <v>24900</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>264400</v>
+        <v>272800</v>
       </c>
       <c r="E45" s="3">
-        <v>146200</v>
+        <v>150800</v>
       </c>
       <c r="F45" s="3">
-        <v>193600</v>
+        <v>199800</v>
       </c>
       <c r="G45" s="3">
-        <v>27600</v>
+        <v>28500</v>
       </c>
       <c r="H45" s="3">
-        <v>18900</v>
+        <v>19500</v>
       </c>
       <c r="I45" s="3">
-        <v>12100</v>
+        <v>12500</v>
       </c>
       <c r="J45" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>578800</v>
+        <v>597200</v>
       </c>
       <c r="E47" s="3">
-        <v>734500</v>
+        <v>757800</v>
       </c>
       <c r="F47" s="3">
-        <v>820800</v>
+        <v>846800</v>
       </c>
       <c r="G47" s="3">
-        <v>599700</v>
+        <v>618700</v>
       </c>
       <c r="H47" s="3">
-        <v>369300</v>
+        <v>381000</v>
       </c>
       <c r="I47" s="3">
-        <v>42000</v>
+        <v>43300</v>
       </c>
       <c r="J47" s="3">
-        <v>17500</v>
+        <v>18100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22500</v>
+        <v>23200</v>
       </c>
       <c r="E48" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>33000</v>
+      </c>
+      <c r="G48" s="3">
         <v>20700</v>
       </c>
-      <c r="F48" s="3">
-        <v>32000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>20000</v>
-      </c>
       <c r="H48" s="3">
-        <v>15100</v>
+        <v>15500</v>
       </c>
       <c r="I48" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20800</v>
+        <v>21500</v>
       </c>
       <c r="E49" s="3">
-        <v>20800</v>
+        <v>21500</v>
       </c>
       <c r="F49" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="G49" s="3">
-        <v>16600</v>
+        <v>17100</v>
       </c>
       <c r="H49" s="3">
-        <v>15900</v>
+        <v>16400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>630500</v>
+        <v>650500</v>
       </c>
       <c r="E52" s="3">
-        <v>506700</v>
+        <v>522800</v>
       </c>
       <c r="F52" s="3">
-        <v>531200</v>
+        <v>548000</v>
       </c>
       <c r="G52" s="3">
-        <v>529000</v>
+        <v>545800</v>
       </c>
       <c r="H52" s="3">
-        <v>350900</v>
+        <v>362100</v>
       </c>
       <c r="I52" s="3">
-        <v>116200</v>
+        <v>119900</v>
       </c>
       <c r="J52" s="3">
-        <v>39600</v>
+        <v>40900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2524900</v>
+        <v>2605100</v>
       </c>
       <c r="E54" s="3">
-        <v>2071600</v>
+        <v>2137400</v>
       </c>
       <c r="F54" s="3">
-        <v>2548000</v>
+        <v>2628900</v>
       </c>
       <c r="G54" s="3">
-        <v>1829400</v>
+        <v>1887500</v>
       </c>
       <c r="H54" s="3">
-        <v>1197600</v>
+        <v>1235700</v>
       </c>
       <c r="I54" s="3">
-        <v>298900</v>
+        <v>308400</v>
       </c>
       <c r="J54" s="3">
-        <v>102600</v>
+        <v>105800</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="E57" s="3">
-        <v>14400</v>
+        <v>14900</v>
       </c>
       <c r="F57" s="3">
-        <v>95300</v>
+        <v>98300</v>
       </c>
       <c r="G57" s="3">
-        <v>126000</v>
+        <v>130000</v>
       </c>
       <c r="H57" s="3">
-        <v>155100</v>
+        <v>160000</v>
       </c>
       <c r="I57" s="3">
-        <v>58700</v>
+        <v>60600</v>
       </c>
       <c r="J57" s="3">
-        <v>24500</v>
+        <v>25300</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>32700</v>
+        <v>33800</v>
       </c>
       <c r="G58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2329,7 +2329,7 @@
         <v>2200</v>
       </c>
       <c r="J58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>148000</v>
+        <v>152700</v>
       </c>
       <c r="E59" s="3">
-        <v>121500</v>
+        <v>125400</v>
       </c>
       <c r="F59" s="3">
-        <v>752100</v>
+        <v>776000</v>
       </c>
       <c r="G59" s="3">
-        <v>615400</v>
+        <v>634900</v>
       </c>
       <c r="H59" s="3">
-        <v>372400</v>
+        <v>384200</v>
       </c>
       <c r="I59" s="3">
-        <v>101100</v>
+        <v>104300</v>
       </c>
       <c r="J59" s="3">
-        <v>30200</v>
+        <v>31200</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="E62" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>28600</v>
+      </c>
+      <c r="G62" s="3">
         <v>14400</v>
       </c>
-      <c r="F62" s="3">
-        <v>27700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>13900</v>
-      </c>
       <c r="H62" s="3">
-        <v>17200</v>
+        <v>17800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1041700</v>
+        <v>1074800</v>
       </c>
       <c r="E66" s="3">
-        <v>907400</v>
+        <v>936200</v>
       </c>
       <c r="F66" s="3">
-        <v>1441600</v>
+        <v>1487400</v>
       </c>
       <c r="G66" s="3">
-        <v>1004800</v>
+        <v>1036700</v>
       </c>
       <c r="H66" s="3">
-        <v>693400</v>
+        <v>715400</v>
       </c>
       <c r="I66" s="3">
-        <v>191400</v>
+        <v>197500</v>
       </c>
       <c r="J66" s="3">
-        <v>65200</v>
+        <v>67300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>168500</v>
+        <v>173900</v>
       </c>
       <c r="J70" s="3">
-        <v>81500</v>
+        <v>84100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>737900</v>
+        <v>761400</v>
       </c>
       <c r="E72" s="3">
-        <v>432900</v>
+        <v>446700</v>
       </c>
       <c r="F72" s="3">
-        <v>317900</v>
+        <v>328000</v>
       </c>
       <c r="G72" s="3">
-        <v>42000</v>
+        <v>43300</v>
       </c>
       <c r="H72" s="3">
-        <v>-326300</v>
+        <v>-336600</v>
       </c>
       <c r="I72" s="3">
-        <v>-49200</v>
+        <v>-50800</v>
       </c>
       <c r="J72" s="3">
-        <v>-40800</v>
+        <v>-42100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1483200</v>
+        <v>1530300</v>
       </c>
       <c r="E76" s="3">
-        <v>1164200</v>
+        <v>1201100</v>
       </c>
       <c r="F76" s="3">
-        <v>1106400</v>
+        <v>1141500</v>
       </c>
       <c r="G76" s="3">
-        <v>824600</v>
+        <v>850800</v>
       </c>
       <c r="H76" s="3">
-        <v>504200</v>
+        <v>520200</v>
       </c>
       <c r="I76" s="3">
-        <v>-61000</v>
+        <v>-63000</v>
       </c>
       <c r="J76" s="3">
-        <v>-44100</v>
+        <v>-45600</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>349200</v>
+        <v>360300</v>
       </c>
       <c r="E81" s="3">
-        <v>274600</v>
+        <v>283300</v>
       </c>
       <c r="F81" s="3">
-        <v>330300</v>
+        <v>340800</v>
       </c>
       <c r="G81" s="3">
-        <v>343700</v>
+        <v>354600</v>
       </c>
       <c r="H81" s="3">
-        <v>-277100</v>
+        <v>-285900</v>
       </c>
       <c r="I81" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="J81" s="3">
-        <v>-25200</v>
+        <v>-26000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="E83" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="F83" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="G83" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="H83" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I83" s="3">
         <v>1700</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>87700</v>
+        <v>90500</v>
       </c>
       <c r="E89" s="3">
-        <v>307200</v>
+        <v>317000</v>
       </c>
       <c r="F89" s="3">
-        <v>-30000</v>
+        <v>-31000</v>
       </c>
       <c r="G89" s="3">
-        <v>262400</v>
+        <v>270700</v>
       </c>
       <c r="H89" s="3">
-        <v>259500</v>
+        <v>267800</v>
       </c>
       <c r="I89" s="3">
-        <v>74300</v>
+        <v>76700</v>
       </c>
       <c r="J89" s="3">
-        <v>-26700</v>
+        <v>-27600</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="F91" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="G91" s="3">
-        <v>-11600</v>
+        <v>-12000</v>
       </c>
       <c r="H91" s="3">
-        <v>-12600</v>
+        <v>-13100</v>
       </c>
       <c r="I91" s="3">
-        <v>-4100</v>
+        <v>-4300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>277700</v>
+        <v>286500</v>
       </c>
       <c r="E94" s="3">
-        <v>145000</v>
+        <v>149600</v>
       </c>
       <c r="F94" s="3">
-        <v>-115300</v>
+        <v>-118900</v>
       </c>
       <c r="G94" s="3">
-        <v>-201400</v>
+        <v>-207800</v>
       </c>
       <c r="H94" s="3">
-        <v>-347400</v>
+        <v>-358400</v>
       </c>
       <c r="I94" s="3">
-        <v>-92300</v>
+        <v>-95200</v>
       </c>
       <c r="J94" s="3">
-        <v>-18400</v>
+        <v>-19000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-33400</v>
+        <v>-34400</v>
       </c>
       <c r="E100" s="3">
-        <v>-430300</v>
+        <v>-444000</v>
       </c>
       <c r="F100" s="3">
-        <v>243500</v>
+        <v>251300</v>
       </c>
       <c r="G100" s="3">
-        <v>73800</v>
+        <v>76100</v>
       </c>
       <c r="H100" s="3">
-        <v>296900</v>
+        <v>306300</v>
       </c>
       <c r="I100" s="3">
-        <v>61100</v>
+        <v>63000</v>
       </c>
       <c r="J100" s="3">
-        <v>47100</v>
+        <v>48600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3712,22 +3712,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E101" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="F101" s="3">
         <v>1600</v>
       </c>
       <c r="G101" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="H101" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="I101" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J101" s="3">
         <v>200</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>330600</v>
+        <v>341100</v>
       </c>
       <c r="E102" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="F102" s="3">
-        <v>99800</v>
+        <v>103000</v>
       </c>
       <c r="G102" s="3">
-        <v>140600</v>
+        <v>145100</v>
       </c>
       <c r="H102" s="3">
-        <v>206900</v>
+        <v>213500</v>
       </c>
       <c r="I102" s="3">
-        <v>43500</v>
+        <v>44800</v>
       </c>
       <c r="J102" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>FINV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1360100</v>
+        <v>1582700</v>
       </c>
       <c r="E8" s="3">
-        <v>1086200</v>
+        <v>1346200</v>
       </c>
       <c r="F8" s="3">
-        <v>856400</v>
+        <v>1075100</v>
       </c>
       <c r="G8" s="3">
-        <v>624900</v>
+        <v>847600</v>
       </c>
       <c r="H8" s="3">
-        <v>557300</v>
+        <v>618500</v>
       </c>
       <c r="I8" s="3">
-        <v>174600</v>
+        <v>551600</v>
       </c>
       <c r="J8" s="3">
+        <v>172800</v>
+      </c>
+      <c r="K8" s="3">
         <v>28100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>264500</v>
+        <v>289800</v>
       </c>
       <c r="E9" s="3">
-        <v>190400</v>
+        <v>261800</v>
       </c>
       <c r="F9" s="3">
-        <v>173500</v>
+        <v>188400</v>
       </c>
       <c r="G9" s="3">
-        <v>141500</v>
+        <v>171700</v>
       </c>
       <c r="H9" s="3">
-        <v>140000</v>
+        <v>140100</v>
       </c>
       <c r="I9" s="3">
-        <v>55700</v>
+        <v>138500</v>
       </c>
       <c r="J9" s="3">
+        <v>55200</v>
+      </c>
+      <c r="K9" s="3">
         <v>14300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1095600</v>
+        <v>1292900</v>
       </c>
       <c r="E10" s="3">
-        <v>895800</v>
+        <v>1084300</v>
       </c>
       <c r="F10" s="3">
-        <v>682800</v>
+        <v>886700</v>
       </c>
       <c r="G10" s="3">
-        <v>483300</v>
+        <v>675900</v>
       </c>
       <c r="H10" s="3">
-        <v>417400</v>
+        <v>478400</v>
       </c>
       <c r="I10" s="3">
-        <v>118900</v>
+        <v>413100</v>
       </c>
       <c r="J10" s="3">
+        <v>117600</v>
+      </c>
+      <c r="K10" s="3">
         <v>13800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,44 +851,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>62500</v>
+        <v>69900</v>
       </c>
       <c r="E12" s="3">
-        <v>53200</v>
+        <v>61800</v>
       </c>
       <c r="F12" s="3">
-        <v>56100</v>
+        <v>52600</v>
       </c>
       <c r="G12" s="3">
-        <v>45700</v>
+        <v>55500</v>
       </c>
       <c r="H12" s="3">
-        <v>23700</v>
+        <v>45200</v>
       </c>
       <c r="I12" s="3">
-        <v>16500</v>
+        <v>23400</v>
       </c>
       <c r="J12" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,35 +926,38 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>282000</v>
+        <v>454200</v>
       </c>
       <c r="E14" s="3">
-        <v>288400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>279100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>285400</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+        <v>-2900</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -946,9 +965,12 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>984700</v>
+        <v>1225200</v>
       </c>
       <c r="E17" s="3">
-        <v>754800</v>
+        <v>974600</v>
       </c>
       <c r="F17" s="3">
-        <v>476300</v>
+        <v>747100</v>
       </c>
       <c r="G17" s="3">
-        <v>359700</v>
+        <v>471400</v>
       </c>
       <c r="H17" s="3">
-        <v>337700</v>
+        <v>356000</v>
       </c>
       <c r="I17" s="3">
-        <v>137600</v>
+        <v>334300</v>
       </c>
       <c r="J17" s="3">
+        <v>136200</v>
+      </c>
+      <c r="K17" s="3">
         <v>48900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>375400</v>
+        <v>357600</v>
       </c>
       <c r="E18" s="3">
-        <v>331400</v>
+        <v>371500</v>
       </c>
       <c r="F18" s="3">
-        <v>380100</v>
+        <v>328000</v>
       </c>
       <c r="G18" s="3">
-        <v>265200</v>
+        <v>376200</v>
       </c>
       <c r="H18" s="3">
-        <v>219600</v>
+        <v>262500</v>
       </c>
       <c r="I18" s="3">
-        <v>37000</v>
+        <v>217400</v>
       </c>
       <c r="J18" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-20800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,80 +1116,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17600</v>
+        <v>31400</v>
       </c>
       <c r="E20" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="F20" s="3">
-        <v>30200</v>
+        <v>16600</v>
       </c>
       <c r="G20" s="3">
-        <v>111200</v>
+        <v>29900</v>
       </c>
       <c r="H20" s="3">
-        <v>-24600</v>
+        <v>110000</v>
       </c>
       <c r="I20" s="3">
-        <v>42000</v>
+        <v>-24400</v>
       </c>
       <c r="J20" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K20" s="3">
         <v>11100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>398300</v>
+        <v>392300</v>
       </c>
       <c r="E21" s="3">
-        <v>355600</v>
+        <v>394300</v>
       </c>
       <c r="F21" s="3">
-        <v>418600</v>
+        <v>352000</v>
       </c>
       <c r="G21" s="3">
-        <v>382400</v>
+        <v>414300</v>
       </c>
       <c r="H21" s="3">
-        <v>198200</v>
+        <v>378600</v>
       </c>
       <c r="I21" s="3">
-        <v>80700</v>
+        <v>196200</v>
       </c>
       <c r="J21" s="3">
+        <v>79900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-9300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1191,81 +1230,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>393000</v>
+        <v>388900</v>
       </c>
       <c r="E23" s="3">
-        <v>348100</v>
+        <v>388900</v>
       </c>
       <c r="F23" s="3">
-        <v>410200</v>
+        <v>344600</v>
       </c>
       <c r="G23" s="3">
-        <v>376400</v>
+        <v>406000</v>
       </c>
       <c r="H23" s="3">
-        <v>195000</v>
+        <v>372500</v>
       </c>
       <c r="I23" s="3">
-        <v>79000</v>
+        <v>193000</v>
       </c>
       <c r="J23" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-9700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34600</v>
+        <v>64600</v>
       </c>
       <c r="E24" s="3">
-        <v>65400</v>
+        <v>34200</v>
       </c>
       <c r="F24" s="3">
-        <v>69200</v>
+        <v>64700</v>
       </c>
       <c r="G24" s="3">
-        <v>21700</v>
+        <v>68500</v>
       </c>
       <c r="H24" s="3">
-        <v>39500</v>
+        <v>21500</v>
       </c>
       <c r="I24" s="3">
+        <v>39100</v>
+      </c>
+      <c r="J24" s="3">
         <v>6900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>358400</v>
+        <v>324300</v>
       </c>
       <c r="E26" s="3">
-        <v>282700</v>
+        <v>354700</v>
       </c>
       <c r="F26" s="3">
-        <v>341000</v>
+        <v>279800</v>
       </c>
       <c r="G26" s="3">
-        <v>354700</v>
+        <v>337500</v>
       </c>
       <c r="H26" s="3">
-        <v>155500</v>
+        <v>351000</v>
       </c>
       <c r="I26" s="3">
-        <v>72000</v>
+        <v>153900</v>
       </c>
       <c r="J26" s="3">
+        <v>71300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-10400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>360300</v>
+        <v>322200</v>
       </c>
       <c r="E27" s="3">
-        <v>283300</v>
+        <v>356600</v>
       </c>
       <c r="F27" s="3">
-        <v>340800</v>
+        <v>280400</v>
       </c>
       <c r="G27" s="3">
-        <v>354600</v>
+        <v>337300</v>
       </c>
       <c r="H27" s="3">
-        <v>-285900</v>
+        <v>351000</v>
       </c>
       <c r="I27" s="3">
-        <v>-8700</v>
+        <v>-282900</v>
       </c>
       <c r="J27" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-26000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17600</v>
+        <v>-31400</v>
       </c>
       <c r="E32" s="3">
-        <v>-16700</v>
+        <v>-17400</v>
       </c>
       <c r="F32" s="3">
-        <v>-30200</v>
+        <v>-16600</v>
       </c>
       <c r="G32" s="3">
-        <v>-111200</v>
+        <v>-29900</v>
       </c>
       <c r="H32" s="3">
-        <v>24600</v>
+        <v>-110000</v>
       </c>
       <c r="I32" s="3">
-        <v>-42000</v>
+        <v>24400</v>
       </c>
       <c r="J32" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>360300</v>
+        <v>322200</v>
       </c>
       <c r="E33" s="3">
-        <v>283300</v>
+        <v>356600</v>
       </c>
       <c r="F33" s="3">
-        <v>340800</v>
+        <v>280400</v>
       </c>
       <c r="G33" s="3">
-        <v>354600</v>
+        <v>337300</v>
       </c>
       <c r="H33" s="3">
-        <v>-285900</v>
+        <v>351000</v>
       </c>
       <c r="I33" s="3">
-        <v>-8700</v>
+        <v>-282900</v>
       </c>
       <c r="J33" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-26000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>360300</v>
+        <v>322200</v>
       </c>
       <c r="E35" s="3">
-        <v>283300</v>
+        <v>356600</v>
       </c>
       <c r="F35" s="3">
-        <v>340800</v>
+        <v>280400</v>
       </c>
       <c r="G35" s="3">
-        <v>354600</v>
+        <v>337300</v>
       </c>
       <c r="H35" s="3">
-        <v>-285900</v>
+        <v>351000</v>
       </c>
       <c r="I35" s="3">
-        <v>-8700</v>
+        <v>-282900</v>
       </c>
       <c r="J35" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-26000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,44 +1818,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>634500</v>
+        <v>516900</v>
       </c>
       <c r="E41" s="3">
-        <v>378000</v>
+        <v>628000</v>
       </c>
       <c r="F41" s="3">
-        <v>333900</v>
+        <v>374200</v>
       </c>
       <c r="G41" s="3">
-        <v>232100</v>
+        <v>330400</v>
       </c>
       <c r="H41" s="3">
-        <v>271600</v>
+        <v>229700</v>
       </c>
       <c r="I41" s="3">
-        <v>58100</v>
+        <v>268800</v>
       </c>
       <c r="J41" s="3">
+        <v>57500</v>
+      </c>
+      <c r="K41" s="3">
         <v>13300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,45 +1893,51 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>405400</v>
+        <v>552600</v>
       </c>
       <c r="E43" s="3">
-        <v>285200</v>
+        <v>401200</v>
       </c>
       <c r="F43" s="3">
-        <v>650900</v>
+        <v>282200</v>
       </c>
       <c r="G43" s="3">
-        <v>413400</v>
+        <v>644200</v>
       </c>
       <c r="H43" s="3">
-        <v>168400</v>
+        <v>409200</v>
       </c>
       <c r="I43" s="3">
-        <v>44100</v>
+        <v>166700</v>
       </c>
       <c r="J43" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K43" s="3">
         <v>24900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,45 +1971,51 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>272800</v>
+        <v>421700</v>
       </c>
       <c r="E45" s="3">
-        <v>150800</v>
+        <v>270000</v>
       </c>
       <c r="F45" s="3">
-        <v>199800</v>
+        <v>149300</v>
       </c>
       <c r="G45" s="3">
-        <v>28500</v>
+        <v>197700</v>
       </c>
       <c r="H45" s="3">
-        <v>19500</v>
+        <v>28200</v>
       </c>
       <c r="I45" s="3">
-        <v>12500</v>
+        <v>19300</v>
       </c>
       <c r="J45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1948,101 +2049,110 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>597200</v>
+        <v>944900</v>
       </c>
       <c r="E47" s="3">
-        <v>757800</v>
+        <v>591100</v>
       </c>
       <c r="F47" s="3">
-        <v>846800</v>
+        <v>750000</v>
       </c>
       <c r="G47" s="3">
-        <v>618700</v>
+        <v>838100</v>
       </c>
       <c r="H47" s="3">
-        <v>381000</v>
+        <v>612400</v>
       </c>
       <c r="I47" s="3">
-        <v>43300</v>
+        <v>377100</v>
       </c>
       <c r="J47" s="3">
+        <v>42900</v>
+      </c>
+      <c r="K47" s="3">
         <v>18100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23200</v>
+        <v>47400</v>
       </c>
       <c r="E48" s="3">
-        <v>21400</v>
+        <v>23000</v>
       </c>
       <c r="F48" s="3">
-        <v>33000</v>
+        <v>21200</v>
       </c>
       <c r="G48" s="3">
-        <v>20700</v>
+        <v>32700</v>
       </c>
       <c r="H48" s="3">
-        <v>15500</v>
+        <v>20500</v>
       </c>
       <c r="I48" s="3">
-        <v>5400</v>
+        <v>15400</v>
       </c>
       <c r="J48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21500</v>
+        <v>21200</v>
       </c>
       <c r="E49" s="3">
-        <v>21500</v>
+        <v>21200</v>
       </c>
       <c r="F49" s="3">
-        <v>16500</v>
+        <v>21200</v>
       </c>
       <c r="G49" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="H49" s="3">
-        <v>16400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>17000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>16200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>650500</v>
+        <v>534800</v>
       </c>
       <c r="E52" s="3">
-        <v>522800</v>
+        <v>643800</v>
       </c>
       <c r="F52" s="3">
-        <v>548000</v>
+        <v>517400</v>
       </c>
       <c r="G52" s="3">
-        <v>545800</v>
+        <v>542400</v>
       </c>
       <c r="H52" s="3">
-        <v>362100</v>
+        <v>540200</v>
       </c>
       <c r="I52" s="3">
-        <v>119900</v>
+        <v>358400</v>
       </c>
       <c r="J52" s="3">
+        <v>118600</v>
+      </c>
+      <c r="K52" s="3">
         <v>40900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2605100</v>
+        <v>3039600</v>
       </c>
       <c r="E54" s="3">
-        <v>2137400</v>
+        <v>2578400</v>
       </c>
       <c r="F54" s="3">
-        <v>2628900</v>
+        <v>2115500</v>
       </c>
       <c r="G54" s="3">
-        <v>1887500</v>
+        <v>2602000</v>
       </c>
       <c r="H54" s="3">
-        <v>1235700</v>
+        <v>1868200</v>
       </c>
       <c r="I54" s="3">
-        <v>308400</v>
+        <v>1223000</v>
       </c>
       <c r="J54" s="3">
+        <v>305200</v>
+      </c>
+      <c r="K54" s="3">
         <v>105800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,116 +2398,126 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>11700</v>
+      <c r="D57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>14900</v>
+        <v>11500</v>
       </c>
       <c r="F57" s="3">
-        <v>98300</v>
+        <v>14700</v>
       </c>
       <c r="G57" s="3">
-        <v>130000</v>
+        <v>97300</v>
       </c>
       <c r="H57" s="3">
-        <v>160000</v>
+        <v>128700</v>
       </c>
       <c r="I57" s="3">
-        <v>60600</v>
+        <v>158400</v>
       </c>
       <c r="J57" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K57" s="3">
         <v>25300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
-        <v>33800</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>33400</v>
+      </c>
+      <c r="H58" s="3">
         <v>3600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>152700</v>
+        <v>206200</v>
       </c>
       <c r="E59" s="3">
-        <v>125400</v>
+        <v>151100</v>
       </c>
       <c r="F59" s="3">
-        <v>776000</v>
+        <v>124100</v>
       </c>
       <c r="G59" s="3">
-        <v>634900</v>
+        <v>768000</v>
       </c>
       <c r="H59" s="3">
-        <v>384200</v>
+        <v>628400</v>
       </c>
       <c r="I59" s="3">
-        <v>104300</v>
+        <v>380300</v>
       </c>
       <c r="J59" s="3">
+        <v>103200</v>
+      </c>
+      <c r="K59" s="3">
         <v>31200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2412,9 +2551,12 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2448,29 +2590,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19800</v>
+        <v>33000</v>
       </c>
       <c r="E62" s="3">
-        <v>14900</v>
+        <v>19600</v>
       </c>
       <c r="F62" s="3">
-        <v>28600</v>
+        <v>14700</v>
       </c>
       <c r="G62" s="3">
-        <v>14400</v>
+        <v>28300</v>
       </c>
       <c r="H62" s="3">
-        <v>17800</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>14200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>17600</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1074800</v>
+        <v>1280900</v>
       </c>
       <c r="E66" s="3">
-        <v>936200</v>
+        <v>1063800</v>
       </c>
       <c r="F66" s="3">
-        <v>1487400</v>
+        <v>926700</v>
       </c>
       <c r="G66" s="3">
-        <v>1036700</v>
+        <v>1472200</v>
       </c>
       <c r="H66" s="3">
-        <v>715400</v>
+        <v>1026100</v>
       </c>
       <c r="I66" s="3">
-        <v>197500</v>
+        <v>708100</v>
       </c>
       <c r="J66" s="3">
+        <v>195500</v>
+      </c>
+      <c r="K66" s="3">
         <v>67300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2738,23 +2905,26 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>173900</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>172100</v>
+      </c>
+      <c r="K70" s="3">
         <v>84100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>761400</v>
+        <v>1022800</v>
       </c>
       <c r="E72" s="3">
-        <v>446700</v>
+        <v>753600</v>
       </c>
       <c r="F72" s="3">
-        <v>328000</v>
+        <v>442100</v>
       </c>
       <c r="G72" s="3">
-        <v>43300</v>
+        <v>324600</v>
       </c>
       <c r="H72" s="3">
-        <v>-336600</v>
+        <v>42900</v>
       </c>
       <c r="I72" s="3">
-        <v>-50800</v>
+        <v>-333200</v>
       </c>
       <c r="J72" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-42100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1530300</v>
+        <v>1758600</v>
       </c>
       <c r="E76" s="3">
-        <v>1201100</v>
+        <v>1514600</v>
       </c>
       <c r="F76" s="3">
-        <v>1141500</v>
+        <v>1188800</v>
       </c>
       <c r="G76" s="3">
-        <v>850800</v>
+        <v>1129800</v>
       </c>
       <c r="H76" s="3">
-        <v>520200</v>
+        <v>842100</v>
       </c>
       <c r="I76" s="3">
-        <v>-63000</v>
+        <v>514900</v>
       </c>
       <c r="J76" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-45600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>360300</v>
+        <v>322200</v>
       </c>
       <c r="E81" s="3">
-        <v>283300</v>
+        <v>356600</v>
       </c>
       <c r="F81" s="3">
-        <v>340800</v>
+        <v>280400</v>
       </c>
       <c r="G81" s="3">
-        <v>354600</v>
+        <v>337300</v>
       </c>
       <c r="H81" s="3">
-        <v>-285900</v>
+        <v>351000</v>
       </c>
       <c r="I81" s="3">
-        <v>-8700</v>
+        <v>-282900</v>
       </c>
       <c r="J81" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-26000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5400</v>
+        <v>3400</v>
       </c>
       <c r="E83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F83" s="3">
         <v>7400</v>
       </c>
-      <c r="F83" s="3">
-        <v>8300</v>
-      </c>
       <c r="G83" s="3">
-        <v>6100</v>
+        <v>8200</v>
       </c>
       <c r="H83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I83" s="3">
         <v>3200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>90500</v>
+        <v>38200</v>
       </c>
       <c r="E89" s="3">
-        <v>317000</v>
+        <v>89600</v>
       </c>
       <c r="F89" s="3">
-        <v>-31000</v>
+        <v>313700</v>
       </c>
       <c r="G89" s="3">
-        <v>270700</v>
+        <v>-30600</v>
       </c>
       <c r="H89" s="3">
-        <v>267800</v>
+        <v>267900</v>
       </c>
       <c r="I89" s="3">
-        <v>76700</v>
+        <v>265000</v>
       </c>
       <c r="J89" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-27600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
-        <v>-7000</v>
-      </c>
       <c r="G91" s="3">
-        <v>-12000</v>
+        <v>-6900</v>
       </c>
       <c r="H91" s="3">
-        <v>-13100</v>
+        <v>-11900</v>
       </c>
       <c r="I91" s="3">
-        <v>-4300</v>
+        <v>-12900</v>
       </c>
       <c r="J91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>286500</v>
+        <v>-220800</v>
       </c>
       <c r="E94" s="3">
-        <v>149600</v>
+        <v>283600</v>
       </c>
       <c r="F94" s="3">
-        <v>-118900</v>
+        <v>148000</v>
       </c>
       <c r="G94" s="3">
-        <v>-207800</v>
+        <v>-117700</v>
       </c>
       <c r="H94" s="3">
-        <v>-358400</v>
+        <v>-205700</v>
       </c>
       <c r="I94" s="3">
-        <v>-95200</v>
+        <v>-354700</v>
       </c>
       <c r="J94" s="3">
+        <v>-94300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-19000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,22 +3758,23 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-52900</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-45100</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-37500</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-55500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-34400</v>
+        <v>-113100</v>
       </c>
       <c r="E100" s="3">
-        <v>-444000</v>
+        <v>-34100</v>
       </c>
       <c r="F100" s="3">
-        <v>251300</v>
+        <v>-439400</v>
       </c>
       <c r="G100" s="3">
-        <v>76100</v>
+        <v>248700</v>
       </c>
       <c r="H100" s="3">
-        <v>306300</v>
+        <v>75400</v>
       </c>
       <c r="I100" s="3">
-        <v>63000</v>
+        <v>303200</v>
       </c>
       <c r="J100" s="3">
+        <v>62400</v>
+      </c>
+      <c r="K100" s="3">
         <v>48600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1500</v>
+        <v>9600</v>
       </c>
       <c r="E101" s="3">
-        <v>-7400</v>
+        <v>-1400</v>
       </c>
       <c r="F101" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>341100</v>
+        <v>-286100</v>
       </c>
       <c r="E102" s="3">
-        <v>15200</v>
+        <v>337600</v>
       </c>
       <c r="F102" s="3">
-        <v>103000</v>
+        <v>15000</v>
       </c>
       <c r="G102" s="3">
-        <v>145100</v>
+        <v>101900</v>
       </c>
       <c r="H102" s="3">
-        <v>213500</v>
+        <v>143600</v>
       </c>
       <c r="I102" s="3">
-        <v>44800</v>
+        <v>211300</v>
       </c>
       <c r="J102" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1582700</v>
+        <v>1534100</v>
       </c>
       <c r="E8" s="3">
-        <v>1346200</v>
+        <v>1304800</v>
       </c>
       <c r="F8" s="3">
-        <v>1075100</v>
+        <v>1042000</v>
       </c>
       <c r="G8" s="3">
-        <v>847600</v>
+        <v>821500</v>
       </c>
       <c r="H8" s="3">
-        <v>618500</v>
+        <v>599500</v>
       </c>
       <c r="I8" s="3">
-        <v>551600</v>
+        <v>534700</v>
       </c>
       <c r="J8" s="3">
-        <v>172800</v>
+        <v>167500</v>
       </c>
       <c r="K8" s="3">
         <v>28100</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>289800</v>
+        <v>280900</v>
       </c>
       <c r="E9" s="3">
-        <v>261800</v>
+        <v>253800</v>
       </c>
       <c r="F9" s="3">
-        <v>188400</v>
+        <v>182600</v>
       </c>
       <c r="G9" s="3">
-        <v>171700</v>
+        <v>166500</v>
       </c>
       <c r="H9" s="3">
-        <v>140100</v>
+        <v>135800</v>
       </c>
       <c r="I9" s="3">
-        <v>138500</v>
+        <v>134300</v>
       </c>
       <c r="J9" s="3">
-        <v>55200</v>
+        <v>53500</v>
       </c>
       <c r="K9" s="3">
         <v>14300</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1292900</v>
+        <v>1253200</v>
       </c>
       <c r="E10" s="3">
-        <v>1084300</v>
+        <v>1051000</v>
       </c>
       <c r="F10" s="3">
-        <v>886700</v>
+        <v>859400</v>
       </c>
       <c r="G10" s="3">
-        <v>675900</v>
+        <v>655100</v>
       </c>
       <c r="H10" s="3">
-        <v>478400</v>
+        <v>463700</v>
       </c>
       <c r="I10" s="3">
-        <v>413100</v>
+        <v>400400</v>
       </c>
       <c r="J10" s="3">
-        <v>117600</v>
+        <v>114000</v>
       </c>
       <c r="K10" s="3">
         <v>13800</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>69900</v>
+        <v>67700</v>
       </c>
       <c r="E12" s="3">
-        <v>61800</v>
+        <v>59900</v>
       </c>
       <c r="F12" s="3">
-        <v>52600</v>
+        <v>51000</v>
       </c>
       <c r="G12" s="3">
-        <v>55500</v>
+        <v>53800</v>
       </c>
       <c r="H12" s="3">
-        <v>45200</v>
+        <v>43800</v>
       </c>
       <c r="I12" s="3">
-        <v>23400</v>
+        <v>22700</v>
       </c>
       <c r="J12" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="K12" s="3">
         <v>2000</v>
@@ -936,13 +936,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>454200</v>
+        <v>440200</v>
       </c>
       <c r="E14" s="3">
-        <v>279100</v>
+        <v>270500</v>
       </c>
       <c r="F14" s="3">
-        <v>285400</v>
+        <v>276700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1225200</v>
+        <v>1187500</v>
       </c>
       <c r="E17" s="3">
-        <v>974600</v>
+        <v>944700</v>
       </c>
       <c r="F17" s="3">
-        <v>747100</v>
+        <v>724100</v>
       </c>
       <c r="G17" s="3">
-        <v>471400</v>
+        <v>456900</v>
       </c>
       <c r="H17" s="3">
-        <v>356000</v>
+        <v>345000</v>
       </c>
       <c r="I17" s="3">
-        <v>334300</v>
+        <v>324000</v>
       </c>
       <c r="J17" s="3">
-        <v>136200</v>
+        <v>132000</v>
       </c>
       <c r="K17" s="3">
         <v>48900</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>357600</v>
+        <v>346600</v>
       </c>
       <c r="E18" s="3">
-        <v>371500</v>
+        <v>360100</v>
       </c>
       <c r="F18" s="3">
-        <v>328000</v>
+        <v>317900</v>
       </c>
       <c r="G18" s="3">
-        <v>376200</v>
+        <v>364600</v>
       </c>
       <c r="H18" s="3">
-        <v>262500</v>
+        <v>254400</v>
       </c>
       <c r="I18" s="3">
-        <v>217400</v>
+        <v>210700</v>
       </c>
       <c r="J18" s="3">
-        <v>36600</v>
+        <v>35500</v>
       </c>
       <c r="K18" s="3">
         <v>-20800</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>31400</v>
+        <v>30400</v>
       </c>
       <c r="E20" s="3">
-        <v>17400</v>
+        <v>16900</v>
       </c>
       <c r="F20" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="G20" s="3">
-        <v>29900</v>
+        <v>28900</v>
       </c>
       <c r="H20" s="3">
-        <v>110000</v>
+        <v>106700</v>
       </c>
       <c r="I20" s="3">
-        <v>-24400</v>
+        <v>-23600</v>
       </c>
       <c r="J20" s="3">
-        <v>41600</v>
+        <v>40300</v>
       </c>
       <c r="K20" s="3">
         <v>11100</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>392300</v>
+        <v>380300</v>
       </c>
       <c r="E21" s="3">
-        <v>394300</v>
+        <v>382100</v>
       </c>
       <c r="F21" s="3">
-        <v>352000</v>
+        <v>341100</v>
       </c>
       <c r="G21" s="3">
-        <v>414300</v>
+        <v>401500</v>
       </c>
       <c r="H21" s="3">
-        <v>378600</v>
+        <v>366900</v>
       </c>
       <c r="I21" s="3">
-        <v>196200</v>
+        <v>190200</v>
       </c>
       <c r="J21" s="3">
-        <v>79900</v>
+        <v>77400</v>
       </c>
       <c r="K21" s="3">
         <v>-9300</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>388900</v>
+        <v>377000</v>
       </c>
       <c r="E23" s="3">
-        <v>388900</v>
+        <v>377000</v>
       </c>
       <c r="F23" s="3">
-        <v>344600</v>
+        <v>334000</v>
       </c>
       <c r="G23" s="3">
-        <v>406000</v>
+        <v>393600</v>
       </c>
       <c r="H23" s="3">
-        <v>372500</v>
+        <v>361100</v>
       </c>
       <c r="I23" s="3">
-        <v>193000</v>
+        <v>187100</v>
       </c>
       <c r="J23" s="3">
-        <v>78100</v>
+        <v>75700</v>
       </c>
       <c r="K23" s="3">
         <v>-9700</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>64600</v>
+        <v>62700</v>
       </c>
       <c r="E24" s="3">
-        <v>34200</v>
+        <v>33200</v>
       </c>
       <c r="F24" s="3">
-        <v>64700</v>
+        <v>62700</v>
       </c>
       <c r="G24" s="3">
-        <v>68500</v>
+        <v>66400</v>
       </c>
       <c r="H24" s="3">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="I24" s="3">
-        <v>39100</v>
+        <v>37800</v>
       </c>
       <c r="J24" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="K24" s="3">
         <v>600</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>324300</v>
+        <v>314300</v>
       </c>
       <c r="E26" s="3">
-        <v>354700</v>
+        <v>343800</v>
       </c>
       <c r="F26" s="3">
-        <v>279800</v>
+        <v>271200</v>
       </c>
       <c r="G26" s="3">
-        <v>337500</v>
+        <v>327200</v>
       </c>
       <c r="H26" s="3">
-        <v>351000</v>
+        <v>340200</v>
       </c>
       <c r="I26" s="3">
-        <v>153900</v>
+        <v>149200</v>
       </c>
       <c r="J26" s="3">
-        <v>71300</v>
+        <v>69100</v>
       </c>
       <c r="K26" s="3">
         <v>-10400</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>322200</v>
+        <v>312300</v>
       </c>
       <c r="E27" s="3">
-        <v>356600</v>
+        <v>345700</v>
       </c>
       <c r="F27" s="3">
-        <v>280400</v>
+        <v>271800</v>
       </c>
       <c r="G27" s="3">
-        <v>337300</v>
+        <v>326900</v>
       </c>
       <c r="H27" s="3">
-        <v>351000</v>
+        <v>340200</v>
       </c>
       <c r="I27" s="3">
-        <v>-282900</v>
+        <v>-274200</v>
       </c>
       <c r="J27" s="3">
-        <v>-8600</v>
+        <v>-8300</v>
       </c>
       <c r="K27" s="3">
         <v>-26000</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-31400</v>
+        <v>-30400</v>
       </c>
       <c r="E32" s="3">
-        <v>-17400</v>
+        <v>-16900</v>
       </c>
       <c r="F32" s="3">
-        <v>-16600</v>
+        <v>-16000</v>
       </c>
       <c r="G32" s="3">
-        <v>-29900</v>
+        <v>-28900</v>
       </c>
       <c r="H32" s="3">
-        <v>-110000</v>
+        <v>-106700</v>
       </c>
       <c r="I32" s="3">
-        <v>24400</v>
+        <v>23600</v>
       </c>
       <c r="J32" s="3">
-        <v>-41600</v>
+        <v>-40300</v>
       </c>
       <c r="K32" s="3">
         <v>-11100</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>322200</v>
+        <v>312300</v>
       </c>
       <c r="E33" s="3">
-        <v>356600</v>
+        <v>345700</v>
       </c>
       <c r="F33" s="3">
-        <v>280400</v>
+        <v>271800</v>
       </c>
       <c r="G33" s="3">
-        <v>337300</v>
+        <v>326900</v>
       </c>
       <c r="H33" s="3">
-        <v>351000</v>
+        <v>340200</v>
       </c>
       <c r="I33" s="3">
-        <v>-282900</v>
+        <v>-274200</v>
       </c>
       <c r="J33" s="3">
-        <v>-8600</v>
+        <v>-8300</v>
       </c>
       <c r="K33" s="3">
         <v>-26000</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>322200</v>
+        <v>312300</v>
       </c>
       <c r="E35" s="3">
-        <v>356600</v>
+        <v>345700</v>
       </c>
       <c r="F35" s="3">
-        <v>280400</v>
+        <v>271800</v>
       </c>
       <c r="G35" s="3">
-        <v>337300</v>
+        <v>326900</v>
       </c>
       <c r="H35" s="3">
-        <v>351000</v>
+        <v>340200</v>
       </c>
       <c r="I35" s="3">
-        <v>-282900</v>
+        <v>-274200</v>
       </c>
       <c r="J35" s="3">
-        <v>-8600</v>
+        <v>-8300</v>
       </c>
       <c r="K35" s="3">
         <v>-26000</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>516900</v>
+        <v>501000</v>
       </c>
       <c r="E41" s="3">
-        <v>628000</v>
+        <v>608700</v>
       </c>
       <c r="F41" s="3">
-        <v>374200</v>
+        <v>362700</v>
       </c>
       <c r="G41" s="3">
-        <v>330400</v>
+        <v>320300</v>
       </c>
       <c r="H41" s="3">
-        <v>229700</v>
+        <v>222700</v>
       </c>
       <c r="I41" s="3">
-        <v>268800</v>
+        <v>260600</v>
       </c>
       <c r="J41" s="3">
-        <v>57500</v>
+        <v>55800</v>
       </c>
       <c r="K41" s="3">
         <v>13300</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>552600</v>
+        <v>535600</v>
       </c>
       <c r="E43" s="3">
-        <v>401200</v>
+        <v>388900</v>
       </c>
       <c r="F43" s="3">
-        <v>282200</v>
+        <v>273600</v>
       </c>
       <c r="G43" s="3">
-        <v>644200</v>
+        <v>624400</v>
       </c>
       <c r="H43" s="3">
-        <v>409200</v>
+        <v>396600</v>
       </c>
       <c r="I43" s="3">
-        <v>166700</v>
+        <v>161600</v>
       </c>
       <c r="J43" s="3">
-        <v>43600</v>
+        <v>42300</v>
       </c>
       <c r="K43" s="3">
         <v>24900</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>421700</v>
+        <v>408800</v>
       </c>
       <c r="E45" s="3">
-        <v>270000</v>
+        <v>261700</v>
       </c>
       <c r="F45" s="3">
-        <v>149300</v>
+        <v>144700</v>
       </c>
       <c r="G45" s="3">
-        <v>197700</v>
+        <v>191700</v>
       </c>
       <c r="H45" s="3">
-        <v>28200</v>
+        <v>27300</v>
       </c>
       <c r="I45" s="3">
-        <v>19300</v>
+        <v>18700</v>
       </c>
       <c r="J45" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="K45" s="3">
         <v>2600</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>944900</v>
+        <v>915900</v>
       </c>
       <c r="E47" s="3">
-        <v>591100</v>
+        <v>572900</v>
       </c>
       <c r="F47" s="3">
-        <v>750000</v>
+        <v>727000</v>
       </c>
       <c r="G47" s="3">
-        <v>838100</v>
+        <v>812400</v>
       </c>
       <c r="H47" s="3">
-        <v>612400</v>
+        <v>593600</v>
       </c>
       <c r="I47" s="3">
-        <v>377100</v>
+        <v>365500</v>
       </c>
       <c r="J47" s="3">
-        <v>42900</v>
+        <v>41600</v>
       </c>
       <c r="K47" s="3">
         <v>18100</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47400</v>
+        <v>46000</v>
       </c>
       <c r="E48" s="3">
-        <v>23000</v>
+        <v>22300</v>
       </c>
       <c r="F48" s="3">
-        <v>21200</v>
+        <v>20500</v>
       </c>
       <c r="G48" s="3">
-        <v>32700</v>
+        <v>31700</v>
       </c>
       <c r="H48" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="I48" s="3">
-        <v>15400</v>
+        <v>14900</v>
       </c>
       <c r="J48" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="K48" s="3">
         <v>2900</v>
@@ -2137,22 +2137,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21200</v>
+        <v>20500</v>
       </c>
       <c r="E49" s="3">
-        <v>21200</v>
+        <v>20600</v>
       </c>
       <c r="F49" s="3">
-        <v>21200</v>
+        <v>20600</v>
       </c>
       <c r="G49" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="H49" s="3">
-        <v>17000</v>
+        <v>16400</v>
       </c>
       <c r="I49" s="3">
-        <v>16200</v>
+        <v>15700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>534800</v>
+        <v>518300</v>
       </c>
       <c r="E52" s="3">
-        <v>643800</v>
+        <v>624000</v>
       </c>
       <c r="F52" s="3">
-        <v>517400</v>
+        <v>501500</v>
       </c>
       <c r="G52" s="3">
-        <v>542400</v>
+        <v>525800</v>
       </c>
       <c r="H52" s="3">
-        <v>540200</v>
+        <v>523600</v>
       </c>
       <c r="I52" s="3">
-        <v>358400</v>
+        <v>347300</v>
       </c>
       <c r="J52" s="3">
-        <v>118600</v>
+        <v>115000</v>
       </c>
       <c r="K52" s="3">
         <v>40900</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3039600</v>
+        <v>2946100</v>
       </c>
       <c r="E54" s="3">
-        <v>2578400</v>
+        <v>2499100</v>
       </c>
       <c r="F54" s="3">
-        <v>2115500</v>
+        <v>2050500</v>
       </c>
       <c r="G54" s="3">
-        <v>2602000</v>
+        <v>2522000</v>
       </c>
       <c r="H54" s="3">
-        <v>1868200</v>
+        <v>1810800</v>
       </c>
       <c r="I54" s="3">
-        <v>1223000</v>
+        <v>1185400</v>
       </c>
       <c r="J54" s="3">
-        <v>305200</v>
+        <v>295900</v>
       </c>
       <c r="K54" s="3">
         <v>105800</v>
@@ -2408,22 +2408,22 @@
         <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="F57" s="3">
-        <v>14700</v>
+        <v>14300</v>
       </c>
       <c r="G57" s="3">
-        <v>97300</v>
+        <v>94300</v>
       </c>
       <c r="H57" s="3">
-        <v>128700</v>
+        <v>124700</v>
       </c>
       <c r="I57" s="3">
-        <v>158400</v>
+        <v>153500</v>
       </c>
       <c r="J57" s="3">
-        <v>59900</v>
+        <v>58100</v>
       </c>
       <c r="K57" s="3">
         <v>25300</v>
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>33400</v>
+        <v>32400</v>
       </c>
       <c r="H58" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>206200</v>
+        <v>199900</v>
       </c>
       <c r="E59" s="3">
-        <v>151100</v>
+        <v>146500</v>
       </c>
       <c r="F59" s="3">
-        <v>124100</v>
+        <v>120300</v>
       </c>
       <c r="G59" s="3">
-        <v>768000</v>
+        <v>744400</v>
       </c>
       <c r="H59" s="3">
-        <v>628400</v>
+        <v>609100</v>
       </c>
       <c r="I59" s="3">
-        <v>380300</v>
+        <v>368600</v>
       </c>
       <c r="J59" s="3">
-        <v>103200</v>
+        <v>100000</v>
       </c>
       <c r="K59" s="3">
         <v>31200</v>
@@ -2600,22 +2600,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="E62" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="F62" s="3">
-        <v>14700</v>
+        <v>14300</v>
       </c>
       <c r="G62" s="3">
-        <v>28300</v>
+        <v>27400</v>
       </c>
       <c r="H62" s="3">
-        <v>14200</v>
+        <v>13800</v>
       </c>
       <c r="I62" s="3">
-        <v>17600</v>
+        <v>17000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1280900</v>
+        <v>1241600</v>
       </c>
       <c r="E66" s="3">
-        <v>1063800</v>
+        <v>1031000</v>
       </c>
       <c r="F66" s="3">
-        <v>926700</v>
+        <v>898200</v>
       </c>
       <c r="G66" s="3">
-        <v>1472200</v>
+        <v>1426900</v>
       </c>
       <c r="H66" s="3">
-        <v>1026100</v>
+        <v>994600</v>
       </c>
       <c r="I66" s="3">
-        <v>708100</v>
+        <v>686400</v>
       </c>
       <c r="J66" s="3">
-        <v>195500</v>
+        <v>189500</v>
       </c>
       <c r="K66" s="3">
         <v>67300</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>172100</v>
+        <v>166800</v>
       </c>
       <c r="K70" s="3">
         <v>84100</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1022800</v>
+        <v>991400</v>
       </c>
       <c r="E72" s="3">
-        <v>753600</v>
+        <v>730400</v>
       </c>
       <c r="F72" s="3">
-        <v>442100</v>
+        <v>428500</v>
       </c>
       <c r="G72" s="3">
-        <v>324600</v>
+        <v>314700</v>
       </c>
       <c r="H72" s="3">
-        <v>42900</v>
+        <v>41600</v>
       </c>
       <c r="I72" s="3">
-        <v>-333200</v>
+        <v>-322900</v>
       </c>
       <c r="J72" s="3">
-        <v>-50200</v>
+        <v>-48700</v>
       </c>
       <c r="K72" s="3">
         <v>-42100</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1758600</v>
+        <v>1704600</v>
       </c>
       <c r="E76" s="3">
-        <v>1514600</v>
+        <v>1468100</v>
       </c>
       <c r="F76" s="3">
-        <v>1188800</v>
+        <v>1152300</v>
       </c>
       <c r="G76" s="3">
-        <v>1129800</v>
+        <v>1095100</v>
       </c>
       <c r="H76" s="3">
-        <v>842100</v>
+        <v>816200</v>
       </c>
       <c r="I76" s="3">
-        <v>514900</v>
+        <v>499100</v>
       </c>
       <c r="J76" s="3">
-        <v>-62300</v>
+        <v>-60400</v>
       </c>
       <c r="K76" s="3">
         <v>-45600</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>322200</v>
+        <v>312300</v>
       </c>
       <c r="E81" s="3">
-        <v>356600</v>
+        <v>345700</v>
       </c>
       <c r="F81" s="3">
-        <v>280400</v>
+        <v>271800</v>
       </c>
       <c r="G81" s="3">
-        <v>337300</v>
+        <v>326900</v>
       </c>
       <c r="H81" s="3">
-        <v>351000</v>
+        <v>340200</v>
       </c>
       <c r="I81" s="3">
-        <v>-282900</v>
+        <v>-274200</v>
       </c>
       <c r="J81" s="3">
-        <v>-8600</v>
+        <v>-8300</v>
       </c>
       <c r="K81" s="3">
         <v>-26000</v>
@@ -3302,22 +3302,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E83" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="F83" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="G83" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="H83" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="I83" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J83" s="3">
         <v>1700</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>38200</v>
+        <v>37000</v>
       </c>
       <c r="E89" s="3">
-        <v>89600</v>
+        <v>86800</v>
       </c>
       <c r="F89" s="3">
-        <v>313700</v>
+        <v>304100</v>
       </c>
       <c r="G89" s="3">
-        <v>-30600</v>
+        <v>-29700</v>
       </c>
       <c r="H89" s="3">
-        <v>267900</v>
+        <v>259700</v>
       </c>
       <c r="I89" s="3">
-        <v>265000</v>
+        <v>256900</v>
       </c>
       <c r="J89" s="3">
-        <v>75900</v>
+        <v>73600</v>
       </c>
       <c r="K89" s="3">
         <v>-27600</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7500</v>
+        <v>-7300</v>
       </c>
       <c r="E91" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="G91" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="H91" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="I91" s="3">
-        <v>-12900</v>
+        <v>-12500</v>
       </c>
       <c r="J91" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="K91" s="3">
         <v>-2500</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-220800</v>
+        <v>-214000</v>
       </c>
       <c r="E94" s="3">
-        <v>283600</v>
+        <v>274800</v>
       </c>
       <c r="F94" s="3">
-        <v>148000</v>
+        <v>143500</v>
       </c>
       <c r="G94" s="3">
-        <v>-117700</v>
+        <v>-114100</v>
       </c>
       <c r="H94" s="3">
-        <v>-205700</v>
+        <v>-199400</v>
       </c>
       <c r="I94" s="3">
-        <v>-354700</v>
+        <v>-343800</v>
       </c>
       <c r="J94" s="3">
-        <v>-94300</v>
+        <v>-91400</v>
       </c>
       <c r="K94" s="3">
         <v>-19000</v>
@@ -3765,16 +3765,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-52900</v>
+        <v>-51300</v>
       </c>
       <c r="E96" s="3">
-        <v>-45100</v>
+        <v>-43800</v>
       </c>
       <c r="F96" s="3">
-        <v>-37500</v>
+        <v>-36300</v>
       </c>
       <c r="G96" s="3">
-        <v>-55500</v>
+        <v>-53800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-113100</v>
+        <v>-109700</v>
       </c>
       <c r="E100" s="3">
-        <v>-34100</v>
+        <v>-33000</v>
       </c>
       <c r="F100" s="3">
-        <v>-439400</v>
+        <v>-425900</v>
       </c>
       <c r="G100" s="3">
-        <v>248700</v>
+        <v>241000</v>
       </c>
       <c r="H100" s="3">
-        <v>75400</v>
+        <v>73000</v>
       </c>
       <c r="I100" s="3">
-        <v>303200</v>
+        <v>293900</v>
       </c>
       <c r="J100" s="3">
-        <v>62400</v>
+        <v>60400</v>
       </c>
       <c r="K100" s="3">
         <v>48600</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="E101" s="3">
         <v>-1400</v>
       </c>
       <c r="F101" s="3">
-        <v>-7300</v>
+        <v>-7100</v>
       </c>
       <c r="G101" s="3">
         <v>1600</v>
       </c>
       <c r="H101" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="I101" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="J101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K101" s="3">
         <v>200</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-286100</v>
+        <v>-277300</v>
       </c>
       <c r="E102" s="3">
-        <v>337600</v>
+        <v>327200</v>
       </c>
       <c r="F102" s="3">
-        <v>15000</v>
+        <v>14600</v>
       </c>
       <c r="G102" s="3">
-        <v>101900</v>
+        <v>98800</v>
       </c>
       <c r="H102" s="3">
-        <v>143600</v>
+        <v>139200</v>
       </c>
       <c r="I102" s="3">
-        <v>211300</v>
+        <v>204800</v>
       </c>
       <c r="J102" s="3">
-        <v>44400</v>
+        <v>43000</v>
       </c>
       <c r="K102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FINV_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1534100</v>
+        <v>1537400</v>
       </c>
       <c r="E8" s="3">
-        <v>1304800</v>
+        <v>1307600</v>
       </c>
       <c r="F8" s="3">
-        <v>1042000</v>
+        <v>1044300</v>
       </c>
       <c r="G8" s="3">
-        <v>821500</v>
+        <v>823300</v>
       </c>
       <c r="H8" s="3">
-        <v>599500</v>
+        <v>600800</v>
       </c>
       <c r="I8" s="3">
-        <v>534700</v>
+        <v>535800</v>
       </c>
       <c r="J8" s="3">
-        <v>167500</v>
+        <v>167900</v>
       </c>
       <c r="K8" s="3">
         <v>28100</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>280900</v>
+        <v>281500</v>
       </c>
       <c r="E9" s="3">
-        <v>253800</v>
+        <v>254300</v>
       </c>
       <c r="F9" s="3">
-        <v>182600</v>
+        <v>183000</v>
       </c>
       <c r="G9" s="3">
-        <v>166500</v>
+        <v>166800</v>
       </c>
       <c r="H9" s="3">
-        <v>135800</v>
+        <v>136100</v>
       </c>
       <c r="I9" s="3">
-        <v>134300</v>
+        <v>134600</v>
       </c>
       <c r="J9" s="3">
-        <v>53500</v>
+        <v>53600</v>
       </c>
       <c r="K9" s="3">
         <v>14300</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1253200</v>
+        <v>1255900</v>
       </c>
       <c r="E10" s="3">
-        <v>1051000</v>
+        <v>1053300</v>
       </c>
       <c r="F10" s="3">
-        <v>859400</v>
+        <v>861300</v>
       </c>
       <c r="G10" s="3">
-        <v>655100</v>
+        <v>656500</v>
       </c>
       <c r="H10" s="3">
-        <v>463700</v>
+        <v>464700</v>
       </c>
       <c r="I10" s="3">
-        <v>400400</v>
+        <v>401300</v>
       </c>
       <c r="J10" s="3">
-        <v>114000</v>
+        <v>114300</v>
       </c>
       <c r="K10" s="3">
         <v>13800</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>67700</v>
+        <v>67900</v>
       </c>
       <c r="E12" s="3">
-        <v>59900</v>
+        <v>60000</v>
       </c>
       <c r="F12" s="3">
-        <v>51000</v>
+        <v>51100</v>
       </c>
       <c r="G12" s="3">
-        <v>53800</v>
+        <v>53900</v>
       </c>
       <c r="H12" s="3">
-        <v>43800</v>
+        <v>43900</v>
       </c>
       <c r="I12" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="J12" s="3">
         <v>15800</v>
@@ -936,13 +936,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>440200</v>
+        <v>441200</v>
       </c>
       <c r="E14" s="3">
-        <v>270500</v>
+        <v>271100</v>
       </c>
       <c r="F14" s="3">
-        <v>276700</v>
+        <v>277300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1187500</v>
+        <v>1190100</v>
       </c>
       <c r="E17" s="3">
-        <v>944700</v>
+        <v>946700</v>
       </c>
       <c r="F17" s="3">
-        <v>724100</v>
+        <v>725700</v>
       </c>
       <c r="G17" s="3">
-        <v>456900</v>
+        <v>457900</v>
       </c>
       <c r="H17" s="3">
-        <v>345000</v>
+        <v>345800</v>
       </c>
       <c r="I17" s="3">
-        <v>324000</v>
+        <v>324700</v>
       </c>
       <c r="J17" s="3">
-        <v>132000</v>
+        <v>132300</v>
       </c>
       <c r="K17" s="3">
         <v>48900</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>346600</v>
+        <v>347300</v>
       </c>
       <c r="E18" s="3">
-        <v>360100</v>
+        <v>360900</v>
       </c>
       <c r="F18" s="3">
-        <v>317900</v>
+        <v>318600</v>
       </c>
       <c r="G18" s="3">
-        <v>364600</v>
+        <v>365400</v>
       </c>
       <c r="H18" s="3">
-        <v>254400</v>
+        <v>255000</v>
       </c>
       <c r="I18" s="3">
-        <v>210700</v>
+        <v>211100</v>
       </c>
       <c r="J18" s="3">
-        <v>35500</v>
+        <v>35600</v>
       </c>
       <c r="K18" s="3">
         <v>-20800</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>30400</v>
+        <v>30500</v>
       </c>
       <c r="E20" s="3">
         <v>16900</v>
       </c>
       <c r="F20" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="G20" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="H20" s="3">
-        <v>106700</v>
+        <v>106900</v>
       </c>
       <c r="I20" s="3">
-        <v>-23600</v>
+        <v>-23700</v>
       </c>
       <c r="J20" s="3">
-        <v>40300</v>
+        <v>40400</v>
       </c>
       <c r="K20" s="3">
         <v>11100</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>380300</v>
+        <v>381100</v>
       </c>
       <c r="E21" s="3">
-        <v>382100</v>
+        <v>382900</v>
       </c>
       <c r="F21" s="3">
-        <v>341100</v>
+        <v>341900</v>
       </c>
       <c r="G21" s="3">
-        <v>401500</v>
+        <v>402400</v>
       </c>
       <c r="H21" s="3">
-        <v>366900</v>
+        <v>367700</v>
       </c>
       <c r="I21" s="3">
-        <v>190200</v>
+        <v>190600</v>
       </c>
       <c r="J21" s="3">
-        <v>77400</v>
+        <v>77600</v>
       </c>
       <c r="K21" s="3">
         <v>-9300</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>377000</v>
+        <v>377800</v>
       </c>
       <c r="E23" s="3">
-        <v>377000</v>
+        <v>377800</v>
       </c>
       <c r="F23" s="3">
-        <v>334000</v>
+        <v>334700</v>
       </c>
       <c r="G23" s="3">
-        <v>393600</v>
+        <v>394400</v>
       </c>
       <c r="H23" s="3">
-        <v>361100</v>
+        <v>361900</v>
       </c>
       <c r="I23" s="3">
-        <v>187100</v>
+        <v>187500</v>
       </c>
       <c r="J23" s="3">
-        <v>75700</v>
+        <v>75900</v>
       </c>
       <c r="K23" s="3">
         <v>-9700</v>
@@ -1279,22 +1279,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="E24" s="3">
-        <v>33200</v>
+        <v>33300</v>
       </c>
       <c r="F24" s="3">
-        <v>62700</v>
+        <v>62900</v>
       </c>
       <c r="G24" s="3">
-        <v>66400</v>
+        <v>66500</v>
       </c>
       <c r="H24" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="I24" s="3">
-        <v>37800</v>
+        <v>37900</v>
       </c>
       <c r="J24" s="3">
         <v>6700</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>314300</v>
+        <v>315000</v>
       </c>
       <c r="E26" s="3">
-        <v>343800</v>
+        <v>344600</v>
       </c>
       <c r="F26" s="3">
-        <v>271200</v>
+        <v>271800</v>
       </c>
       <c r="G26" s="3">
-        <v>327200</v>
+        <v>327900</v>
       </c>
       <c r="H26" s="3">
-        <v>340200</v>
+        <v>341000</v>
       </c>
       <c r="I26" s="3">
-        <v>149200</v>
+        <v>149500</v>
       </c>
       <c r="J26" s="3">
-        <v>69100</v>
+        <v>69200</v>
       </c>
       <c r="K26" s="3">
         <v>-10400</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>312300</v>
+        <v>312900</v>
       </c>
       <c r="E27" s="3">
-        <v>345700</v>
+        <v>346400</v>
       </c>
       <c r="F27" s="3">
-        <v>271800</v>
+        <v>272400</v>
       </c>
       <c r="G27" s="3">
-        <v>326900</v>
+        <v>327600</v>
       </c>
       <c r="H27" s="3">
-        <v>340200</v>
+        <v>340900</v>
       </c>
       <c r="I27" s="3">
-        <v>-274200</v>
+        <v>-274800</v>
       </c>
       <c r="J27" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="K27" s="3">
         <v>-26000</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-30400</v>
+        <v>-30500</v>
       </c>
       <c r="E32" s="3">
         <v>-16900</v>
       </c>
       <c r="F32" s="3">
-        <v>-16000</v>
+        <v>-16100</v>
       </c>
       <c r="G32" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="H32" s="3">
-        <v>-106700</v>
+        <v>-106900</v>
       </c>
       <c r="I32" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="J32" s="3">
-        <v>-40300</v>
+        <v>-40400</v>
       </c>
       <c r="K32" s="3">
         <v>-11100</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>312300</v>
+        <v>312900</v>
       </c>
       <c r="E33" s="3">
-        <v>345700</v>
+        <v>346400</v>
       </c>
       <c r="F33" s="3">
-        <v>271800</v>
+        <v>272400</v>
       </c>
       <c r="G33" s="3">
-        <v>326900</v>
+        <v>327600</v>
       </c>
       <c r="H33" s="3">
-        <v>340200</v>
+        <v>340900</v>
       </c>
       <c r="I33" s="3">
-        <v>-274200</v>
+        <v>-274800</v>
       </c>
       <c r="J33" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="K33" s="3">
         <v>-26000</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>312300</v>
+        <v>312900</v>
       </c>
       <c r="E35" s="3">
-        <v>345700</v>
+        <v>346400</v>
       </c>
       <c r="F35" s="3">
-        <v>271800</v>
+        <v>272400</v>
       </c>
       <c r="G35" s="3">
-        <v>326900</v>
+        <v>327600</v>
       </c>
       <c r="H35" s="3">
-        <v>340200</v>
+        <v>340900</v>
       </c>
       <c r="I35" s="3">
-        <v>-274200</v>
+        <v>-274800</v>
       </c>
       <c r="J35" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="K35" s="3">
         <v>-26000</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>501000</v>
+        <v>502100</v>
       </c>
       <c r="E41" s="3">
-        <v>608700</v>
+        <v>610100</v>
       </c>
       <c r="F41" s="3">
-        <v>362700</v>
+        <v>363500</v>
       </c>
       <c r="G41" s="3">
-        <v>320300</v>
+        <v>321000</v>
       </c>
       <c r="H41" s="3">
-        <v>222700</v>
+        <v>223200</v>
       </c>
       <c r="I41" s="3">
-        <v>260600</v>
+        <v>261100</v>
       </c>
       <c r="J41" s="3">
-        <v>55800</v>
+        <v>55900</v>
       </c>
       <c r="K41" s="3">
         <v>13300</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>535600</v>
+        <v>536800</v>
       </c>
       <c r="E43" s="3">
-        <v>388900</v>
+        <v>389800</v>
       </c>
       <c r="F43" s="3">
-        <v>273600</v>
+        <v>274200</v>
       </c>
       <c r="G43" s="3">
-        <v>624400</v>
+        <v>625800</v>
       </c>
       <c r="H43" s="3">
-        <v>396600</v>
+        <v>397400</v>
       </c>
       <c r="I43" s="3">
-        <v>161600</v>
+        <v>161900</v>
       </c>
       <c r="J43" s="3">
-        <v>42300</v>
+        <v>42400</v>
       </c>
       <c r="K43" s="3">
         <v>24900</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>408800</v>
+        <v>409600</v>
       </c>
       <c r="E45" s="3">
-        <v>261700</v>
+        <v>262300</v>
       </c>
       <c r="F45" s="3">
-        <v>144700</v>
+        <v>145000</v>
       </c>
       <c r="G45" s="3">
-        <v>191700</v>
+        <v>192100</v>
       </c>
       <c r="H45" s="3">
-        <v>27300</v>
+        <v>27400</v>
       </c>
       <c r="I45" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="J45" s="3">
         <v>12000</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>915900</v>
+        <v>917900</v>
       </c>
       <c r="E47" s="3">
-        <v>572900</v>
+        <v>574200</v>
       </c>
       <c r="F47" s="3">
-        <v>727000</v>
+        <v>728600</v>
       </c>
       <c r="G47" s="3">
-        <v>812400</v>
+        <v>814100</v>
       </c>
       <c r="H47" s="3">
-        <v>593600</v>
+        <v>594900</v>
       </c>
       <c r="I47" s="3">
-        <v>365500</v>
+        <v>366300</v>
       </c>
       <c r="J47" s="3">
-        <v>41600</v>
+        <v>41700</v>
       </c>
       <c r="K47" s="3">
         <v>18100</v>
@@ -2098,19 +2098,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>46000</v>
+        <v>46100</v>
       </c>
       <c r="E48" s="3">
         <v>22300</v>
       </c>
       <c r="F48" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="G48" s="3">
-        <v>31700</v>
+        <v>31800</v>
       </c>
       <c r="H48" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="I48" s="3">
         <v>14900</v>
@@ -2137,7 +2137,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="E49" s="3">
         <v>20600</v>
@@ -2149,10 +2149,10 @@
         <v>15800</v>
       </c>
       <c r="H49" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="I49" s="3">
-        <v>15700</v>
+        <v>15800</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>518300</v>
+        <v>519500</v>
       </c>
       <c r="E52" s="3">
-        <v>624000</v>
+        <v>625400</v>
       </c>
       <c r="F52" s="3">
-        <v>501500</v>
+        <v>502600</v>
       </c>
       <c r="G52" s="3">
-        <v>525800</v>
+        <v>526900</v>
       </c>
       <c r="H52" s="3">
-        <v>523600</v>
+        <v>524700</v>
       </c>
       <c r="I52" s="3">
-        <v>347300</v>
+        <v>348100</v>
       </c>
       <c r="J52" s="3">
-        <v>115000</v>
+        <v>115200</v>
       </c>
       <c r="K52" s="3">
         <v>40900</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2946100</v>
+        <v>2952600</v>
       </c>
       <c r="E54" s="3">
-        <v>2499100</v>
+        <v>2504600</v>
       </c>
       <c r="F54" s="3">
-        <v>2050500</v>
+        <v>2054900</v>
       </c>
       <c r="G54" s="3">
-        <v>2522000</v>
+        <v>2527500</v>
       </c>
       <c r="H54" s="3">
-        <v>1810800</v>
+        <v>1814700</v>
       </c>
       <c r="I54" s="3">
-        <v>1185400</v>
+        <v>1188000</v>
       </c>
       <c r="J54" s="3">
-        <v>295900</v>
+        <v>296500</v>
       </c>
       <c r="K54" s="3">
         <v>105800</v>
@@ -2414,16 +2414,16 @@
         <v>14300</v>
       </c>
       <c r="G57" s="3">
-        <v>94300</v>
+        <v>94500</v>
       </c>
       <c r="H57" s="3">
-        <v>124700</v>
+        <v>125000</v>
       </c>
       <c r="I57" s="3">
-        <v>153500</v>
+        <v>153800</v>
       </c>
       <c r="J57" s="3">
-        <v>58100</v>
+        <v>58200</v>
       </c>
       <c r="K57" s="3">
         <v>25300</v>
@@ -2456,7 +2456,7 @@
         <v>32400</v>
       </c>
       <c r="H58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>199900</v>
+        <v>200300</v>
       </c>
       <c r="E59" s="3">
-        <v>146500</v>
+        <v>146800</v>
       </c>
       <c r="F59" s="3">
-        <v>120300</v>
+        <v>120500</v>
       </c>
       <c r="G59" s="3">
-        <v>744400</v>
+        <v>746100</v>
       </c>
       <c r="H59" s="3">
-        <v>609100</v>
+        <v>610400</v>
       </c>
       <c r="I59" s="3">
-        <v>368600</v>
+        <v>369400</v>
       </c>
       <c r="J59" s="3">
-        <v>100000</v>
+        <v>100300</v>
       </c>
       <c r="K59" s="3">
         <v>31200</v>
@@ -2600,7 +2600,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32000</v>
+        <v>32100</v>
       </c>
       <c r="E62" s="3">
         <v>19000</v>
@@ -2609,13 +2609,13 @@
         <v>14300</v>
       </c>
       <c r="G62" s="3">
-        <v>27400</v>
+        <v>27500</v>
       </c>
       <c r="H62" s="3">
         <v>13800</v>
       </c>
       <c r="I62" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1241600</v>
+        <v>1244300</v>
       </c>
       <c r="E66" s="3">
-        <v>1031000</v>
+        <v>1033300</v>
       </c>
       <c r="F66" s="3">
-        <v>898200</v>
+        <v>900100</v>
       </c>
       <c r="G66" s="3">
-        <v>1426900</v>
+        <v>1430000</v>
       </c>
       <c r="H66" s="3">
-        <v>994600</v>
+        <v>996700</v>
       </c>
       <c r="I66" s="3">
-        <v>686400</v>
+        <v>687800</v>
       </c>
       <c r="J66" s="3">
-        <v>189500</v>
+        <v>189900</v>
       </c>
       <c r="K66" s="3">
         <v>67300</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>166800</v>
+        <v>167200</v>
       </c>
       <c r="K70" s="3">
         <v>84100</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>991400</v>
+        <v>993500</v>
       </c>
       <c r="E72" s="3">
-        <v>730400</v>
+        <v>732000</v>
       </c>
       <c r="F72" s="3">
-        <v>428500</v>
+        <v>429400</v>
       </c>
       <c r="G72" s="3">
-        <v>314700</v>
+        <v>315300</v>
       </c>
       <c r="H72" s="3">
-        <v>41600</v>
+        <v>41700</v>
       </c>
       <c r="I72" s="3">
-        <v>-322900</v>
+        <v>-323600</v>
       </c>
       <c r="J72" s="3">
-        <v>-48700</v>
+        <v>-48800</v>
       </c>
       <c r="K72" s="3">
         <v>-42100</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1704600</v>
+        <v>1708300</v>
       </c>
       <c r="E76" s="3">
-        <v>1468100</v>
+        <v>1471300</v>
       </c>
       <c r="F76" s="3">
-        <v>1152300</v>
+        <v>1154800</v>
       </c>
       <c r="G76" s="3">
-        <v>1095100</v>
+        <v>1097500</v>
       </c>
       <c r="H76" s="3">
-        <v>816200</v>
+        <v>818000</v>
       </c>
       <c r="I76" s="3">
-        <v>499100</v>
+        <v>500100</v>
       </c>
       <c r="J76" s="3">
-        <v>-60400</v>
+        <v>-60600</v>
       </c>
       <c r="K76" s="3">
         <v>-45600</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>312300</v>
+        <v>312900</v>
       </c>
       <c r="E81" s="3">
-        <v>345700</v>
+        <v>346400</v>
       </c>
       <c r="F81" s="3">
-        <v>271800</v>
+        <v>272400</v>
       </c>
       <c r="G81" s="3">
-        <v>326900</v>
+        <v>327600</v>
       </c>
       <c r="H81" s="3">
-        <v>340200</v>
+        <v>340900</v>
       </c>
       <c r="I81" s="3">
-        <v>-274200</v>
+        <v>-274800</v>
       </c>
       <c r="J81" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="K81" s="3">
         <v>-26000</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>37000</v>
+        <v>37100</v>
       </c>
       <c r="E89" s="3">
-        <v>86800</v>
+        <v>87000</v>
       </c>
       <c r="F89" s="3">
-        <v>304100</v>
+        <v>304700</v>
       </c>
       <c r="G89" s="3">
-        <v>-29700</v>
+        <v>-29800</v>
       </c>
       <c r="H89" s="3">
-        <v>259700</v>
+        <v>260300</v>
       </c>
       <c r="I89" s="3">
-        <v>256900</v>
+        <v>257500</v>
       </c>
       <c r="J89" s="3">
-        <v>73600</v>
+        <v>73700</v>
       </c>
       <c r="K89" s="3">
         <v>-27600</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-214000</v>
+        <v>-214500</v>
       </c>
       <c r="E94" s="3">
-        <v>274800</v>
+        <v>275400</v>
       </c>
       <c r="F94" s="3">
-        <v>143500</v>
+        <v>143800</v>
       </c>
       <c r="G94" s="3">
-        <v>-114100</v>
+        <v>-114400</v>
       </c>
       <c r="H94" s="3">
-        <v>-199400</v>
+        <v>-199800</v>
       </c>
       <c r="I94" s="3">
-        <v>-343800</v>
+        <v>-344600</v>
       </c>
       <c r="J94" s="3">
-        <v>-91400</v>
+        <v>-91600</v>
       </c>
       <c r="K94" s="3">
         <v>-19000</v>
@@ -3765,16 +3765,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-51300</v>
+        <v>-51400</v>
       </c>
       <c r="E96" s="3">
         <v>-43800</v>
       </c>
       <c r="F96" s="3">
-        <v>-36300</v>
+        <v>-36400</v>
       </c>
       <c r="G96" s="3">
-        <v>-53800</v>
+        <v>-53900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-109700</v>
+        <v>-109900</v>
       </c>
       <c r="E100" s="3">
-        <v>-33000</v>
+        <v>-33100</v>
       </c>
       <c r="F100" s="3">
-        <v>-425900</v>
+        <v>-426800</v>
       </c>
       <c r="G100" s="3">
-        <v>241000</v>
+        <v>241600</v>
       </c>
       <c r="H100" s="3">
-        <v>73000</v>
+        <v>73200</v>
       </c>
       <c r="I100" s="3">
-        <v>293900</v>
+        <v>294500</v>
       </c>
       <c r="J100" s="3">
-        <v>60400</v>
+        <v>60600</v>
       </c>
       <c r="K100" s="3">
         <v>48600</v>
@@ -3960,7 +3960,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="E101" s="3">
         <v>-1400</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-277300</v>
+        <v>-277900</v>
       </c>
       <c r="E102" s="3">
-        <v>327200</v>
+        <v>328000</v>
       </c>
       <c r="F102" s="3">
         <v>14600</v>
       </c>
       <c r="G102" s="3">
-        <v>98800</v>
+        <v>99000</v>
       </c>
       <c r="H102" s="3">
-        <v>139200</v>
+        <v>139500</v>
       </c>
       <c r="I102" s="3">
-        <v>204800</v>
+        <v>205200</v>
       </c>
       <c r="J102" s="3">
-        <v>43000</v>
+        <v>43100</v>
       </c>
       <c r="K102" s="3">
         <v>2200</v>
